--- a/SimBAlink_CL/Profile_Generation_Scripts/cellProfile_Calculator.xlsx
+++ b/SimBAlink_CL/Profile_Generation_Scripts/cellProfile_Calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="11240"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="11240"/>
   </bookViews>
   <sheets>
     <sheet name="alphaMask_Calc" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="surfaceArea_Calc" sheetId="4" r:id="rId4"/>
     <sheet name="crp_corner" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>C</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Rinternal-DISCHARGE during test conditions</t>
+  </si>
+  <si>
+    <t>http://arohatgi.info/WebPlotDigitizer/app/?</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -269,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +379,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -719,14 +733,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
@@ -820,13 +835,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,7 +849,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -849,10 +865,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -947,7 +965,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="6"/>
+            <c:order val="4"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -989,108 +1007,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>OCVcurve_fit!$B$8:$B$22</c:f>
+              <c:f>OCVcurve_fit!$B$12:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.95535714285714102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97</c:v>
+                  <c:v>0.75127551020408101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93846417291659601</c:v>
+                  <c:v>0.60331632653061196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87215402215472682</c:v>
+                  <c:v>0.46045918367347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79981879842988335</c:v>
+                  <c:v>0.29464285714285898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71542332637640005</c:v>
+                  <c:v>0.16964285714286001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6280112768803533</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53909194890329337</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43208932011515833</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.31755433988303328</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22714187678872499</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14124518769584171</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.3488372869086604E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.762548514722829E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>9.3112244897963103E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OCVcurve_fit!$C$8:$C$22</c:f>
+              <c:f>OCVcurve_fit!$C$12:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.2</c:v>
+                  <c:v>3.3482055236225698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1204881963062254</c:v>
+                  <c:v>3.3317027497946898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0534640676198954</c:v>
+                  <c:v>3.2997186116841002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.01995200327673</c:v>
+                  <c:v>3.2991578378161601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.973035113196306</c:v>
+                  <c:v>3.2671036029720799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9328206359845059</c:v>
+                  <c:v>3.2195079209308601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8993085716413458</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8657965072981759</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8188796172177457</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7585579014000556</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6781289469764658</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6178072311587659</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.383222780756626</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.0212924858504557</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8</c:v>
+                  <c:v>3.1878041697542399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1100,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OCVcurve_fit!$N$18</c:f>
+              <c:f>OCVcurve_fit!$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1142,12 +1112,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OCVcurve_fit!$N$17</c:f>
+              <c:f>OCVcurve_fit!$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.8439468750000012</c:v>
+                  <c:v>3.2976874999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,11 +1137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1688414784"/>
-        <c:axId val="1688420768"/>
+        <c:axId val="-1898431664"/>
+        <c:axId val="-1898436016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1688414784"/>
+        <c:axId val="-1898431664"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1"/>
@@ -1194,7 +1164,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1229,14 +1199,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1688420768"/>
+        <c:crossAx val="-1898436016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1688420768"/>
+        <c:axId val="-1898436016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.2"/>
           <c:min val="2.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1292,7 +1264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1688414784"/>
+        <c:crossAx val="-1898431664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1907,7 +1879,7 @@
       <xdr:rowOff>28847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>17961</xdr:rowOff>
@@ -2197,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2208,10 +2180,11 @@
     <col min="2" max="2" width="10.08984375" customWidth="1"/>
     <col min="3" max="3" width="13.453125" customWidth="1"/>
     <col min="6" max="6" width="7.1796875" customWidth="1"/>
-    <col min="17" max="17" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="49"/>
+    <col min="18" max="18" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D1" s="44">
         <v>1</v>
       </c>
@@ -2224,35 +2197,36 @@
       <c r="G1" s="44">
         <v>4</v>
       </c>
-      <c r="H1" s="44">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44">
         <v>5</v>
       </c>
-      <c r="I1" s="44">
+      <c r="J1" s="44">
         <v>6</v>
       </c>
-      <c r="J1" s="44">
+      <c r="K1" s="44">
         <v>7</v>
       </c>
-      <c r="K1" s="44">
+      <c r="L1" s="44">
         <v>8</v>
       </c>
-      <c r="L1" s="44">
+      <c r="M1" s="44">
         <v>9</v>
       </c>
-      <c r="M1" s="44">
+      <c r="N1" s="44">
         <v>10</v>
       </c>
-      <c r="N1" s="44">
+      <c r="O1" s="44">
         <v>11</v>
       </c>
-      <c r="O1" s="44">
+      <c r="P1" s="44">
         <v>12</v>
       </c>
-      <c r="P1" s="44">
+      <c r="Q1" s="44">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C2" s="50" t="s">
         <v>71</v>
       </c>
@@ -2268,9 +2242,10 @@
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="37" t="s">
         <v>29</v>
       </c>
@@ -2287,34 +2262,37 @@
         <v>20</v>
       </c>
       <c r="H3" s="40">
+        <v>25</v>
+      </c>
+      <c r="I3" s="40">
         <v>30</v>
       </c>
-      <c r="I3" s="40">
+      <c r="J3" s="40">
         <v>40</v>
       </c>
-      <c r="J3" s="40">
+      <c r="K3" s="40">
         <v>50</v>
       </c>
-      <c r="K3" s="40">
+      <c r="L3" s="40">
         <v>60</v>
       </c>
-      <c r="L3" s="40">
+      <c r="M3" s="40">
         <v>70</v>
       </c>
-      <c r="M3" s="40">
+      <c r="N3" s="40">
         <v>80</v>
       </c>
-      <c r="N3" s="40">
+      <c r="O3" s="40">
         <v>90</v>
       </c>
-      <c r="O3" s="40">
+      <c r="P3" s="40">
         <v>95</v>
       </c>
-      <c r="P3" s="41">
+      <c r="Q3" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>63</v>
       </c>
@@ -2334,10 +2312,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H4" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I4" s="31">
         <v>1.05</v>
-      </c>
-      <c r="I4" s="31">
-        <v>1</v>
       </c>
       <c r="J4" s="31">
         <v>1</v>
@@ -2346,25 +2324,28 @@
         <v>1</v>
       </c>
       <c r="L4" s="31">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="M4" s="31">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="N4" s="31">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="O4" s="31">
-        <v>1.05</v>
-      </c>
-      <c r="P4" s="32">
-        <v>1.05</v>
-      </c>
-      <c r="Q4" s="34" t="s">
+        <v>0.91</v>
+      </c>
+      <c r="P4" s="31">
+        <v>0.88</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="R4" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -2372,193 +2353,205 @@
         <v>-5</v>
       </c>
       <c r="C5" s="27">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="45">
         <f>D4*$C$5</f>
-        <v>1.56</v>
+        <v>4.8</v>
       </c>
       <c r="E5" s="45">
-        <f t="shared" ref="E5:P5" si="0">E4*$C$5</f>
-        <v>1.56</v>
+        <f t="shared" ref="E5:Q5" si="0">E4*$C$5</f>
+        <v>4.8</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
-        <v>1.4949999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G5" s="45">
         <f t="shared" si="0"/>
-        <v>1.4300000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H5" s="45">
-        <f t="shared" si="0"/>
-        <v>1.3650000000000002</v>
+        <f t="shared" ref="H5" si="1">H4*$C$5</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I5" s="45">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="J5" s="45">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="0"/>
-        <v>1.3260000000000001</v>
+        <v>4</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="0"/>
-        <v>1.3260000000000001</v>
+        <v>3.96</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="0"/>
-        <v>1.3260000000000001</v>
+        <v>3.84</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="0"/>
-        <v>1.3650000000000002</v>
+        <v>3.64</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="0"/>
-        <v>1.3650000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>3.52</v>
+      </c>
+      <c r="Q5" s="45">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>2</v>
       </c>
       <c r="B6" s="38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="28">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="45">
         <f>D4*$C$6</f>
-        <v>1.32</v>
+        <v>1.92</v>
       </c>
       <c r="E6" s="45">
-        <f t="shared" ref="E6:P6" si="1">E4*$C$6</f>
-        <v>1.32</v>
+        <f t="shared" ref="E6:Q6" si="2">E4*$C$6</f>
+        <v>1.92</v>
       </c>
       <c r="F6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.2649999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.8399999999999999</v>
       </c>
       <c r="G6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.2100000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1.7600000000000002</v>
       </c>
       <c r="H6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1550000000000002</v>
+        <f t="shared" ref="H6" si="3">H4*$C$6</f>
+        <v>1.7600000000000002</v>
       </c>
       <c r="I6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.6800000000000002</v>
       </c>
       <c r="J6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.6</v>
       </c>
       <c r="K6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.6</v>
       </c>
       <c r="L6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1220000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.6</v>
       </c>
       <c r="M6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1220000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.5840000000000001</v>
       </c>
       <c r="N6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1220000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.536</v>
       </c>
       <c r="O6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1550000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1.4560000000000002</v>
       </c>
       <c r="P6" s="45">
-        <f t="shared" si="1"/>
-        <v>1.1550000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.4080000000000001</v>
+      </c>
+      <c r="Q6" s="45">
+        <f t="shared" si="2"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>3</v>
       </c>
       <c r="B7" s="38">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="28">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="D7" s="45">
         <f>D4*$C$7</f>
+        <v>1.44</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" ref="E7:Q7" si="4">E4*$C$7</f>
+        <v>1.44</v>
+      </c>
+      <c r="F7" s="45">
+        <f t="shared" si="4"/>
+        <v>1.38</v>
+      </c>
+      <c r="G7" s="45">
+        <f t="shared" si="4"/>
+        <v>1.32</v>
+      </c>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="5">H4*$C$7</f>
+        <v>1.32</v>
+      </c>
+      <c r="I7" s="45">
+        <f t="shared" si="4"/>
         <v>1.26</v>
       </c>
-      <c r="E7" s="45">
-        <f t="shared" ref="E7:P7" si="2">E4*$C$7</f>
-        <v>1.26</v>
-      </c>
-      <c r="F7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.2075</v>
-      </c>
-      <c r="G7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.1550000000000002</v>
-      </c>
-      <c r="H7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.1025</v>
-      </c>
-      <c r="I7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.05</v>
-      </c>
       <c r="J7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.05</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="K7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.05</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="L7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.0710000000000002</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="M7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.0710000000000002</v>
+        <f t="shared" si="4"/>
+        <v>1.1879999999999999</v>
       </c>
       <c r="N7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.0710000000000002</v>
+        <f t="shared" si="4"/>
+        <v>1.1519999999999999</v>
       </c>
       <c r="O7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.1025</v>
+        <f t="shared" si="4"/>
+        <v>1.0920000000000001</v>
       </c>
       <c r="P7" s="45">
-        <f t="shared" si="2"/>
-        <v>1.1025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>1.056</v>
+      </c>
+      <c r="Q7" s="45">
+        <f t="shared" si="4"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>4</v>
       </c>
       <c r="B8" s="38">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="28">
         <v>1</v>
@@ -2568,253 +2561,391 @@
         <v>1.2</v>
       </c>
       <c r="E8" s="45">
-        <f t="shared" ref="E8:P8" si="3">E4*$C$8</f>
+        <f t="shared" ref="E8:Q8" si="6">E4*$C$8</f>
         <v>1.2</v>
       </c>
       <c r="F8" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G8" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="H8" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H8" si="7">H4*$C$8</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I8" s="45">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="I8" s="45">
-        <f t="shared" si="3"/>
+      <c r="J8" s="45">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J8" s="45">
-        <f t="shared" si="3"/>
+      <c r="K8" s="45">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K8" s="45">
-        <f t="shared" si="3"/>
+      <c r="L8" s="45">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L8" s="45">
-        <f t="shared" si="3"/>
-        <v>1.02</v>
-      </c>
       <c r="M8" s="45">
-        <f t="shared" si="3"/>
-        <v>1.02</v>
+        <f t="shared" si="6"/>
+        <v>0.99</v>
       </c>
       <c r="N8" s="45">
-        <f t="shared" si="3"/>
-        <v>1.02</v>
+        <f t="shared" si="6"/>
+        <v>0.96</v>
       </c>
       <c r="O8" s="45">
-        <f t="shared" si="3"/>
-        <v>1.05</v>
+        <f t="shared" si="6"/>
+        <v>0.91</v>
       </c>
       <c r="P8" s="45">
-        <f t="shared" si="3"/>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0.88</v>
+      </c>
+      <c r="Q8" s="45">
+        <f t="shared" si="6"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>5</v>
       </c>
       <c r="B9" s="38">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="28">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D9" s="45">
         <f>D4*$C$9</f>
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="E9" s="45">
-        <f t="shared" ref="E9:P9" si="4">E4*$C$9</f>
-        <v>1.2</v>
+        <f t="shared" ref="E9:Q9" si="8">E4*$C$9</f>
+        <v>1.02</v>
       </c>
       <c r="F9" s="45">
-        <f t="shared" si="4"/>
-        <v>1.1499999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.97749999999999992</v>
       </c>
       <c r="G9" s="45">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0.93500000000000005</v>
       </c>
       <c r="H9" s="45">
-        <f t="shared" si="4"/>
-        <v>1.05</v>
+        <f t="shared" ref="H9" si="9">H4*$C$9</f>
+        <v>0.93500000000000005</v>
       </c>
       <c r="I9" s="45">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0.89249999999999996</v>
       </c>
       <c r="J9" s="45">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0.85</v>
       </c>
       <c r="K9" s="45">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0.85</v>
       </c>
       <c r="L9" s="45">
-        <f t="shared" si="4"/>
-        <v>1.02</v>
+        <f t="shared" si="8"/>
+        <v>0.85</v>
       </c>
       <c r="M9" s="45">
-        <f t="shared" si="4"/>
-        <v>1.02</v>
+        <f t="shared" si="8"/>
+        <v>0.84150000000000003</v>
       </c>
       <c r="N9" s="45">
-        <f t="shared" si="4"/>
-        <v>1.02</v>
+        <f t="shared" si="8"/>
+        <v>0.81599999999999995</v>
       </c>
       <c r="O9" s="45">
-        <f t="shared" si="4"/>
-        <v>1.05</v>
+        <f t="shared" si="8"/>
+        <v>0.77349999999999997</v>
       </c>
       <c r="P9" s="45">
-        <f t="shared" si="4"/>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>0.748</v>
+      </c>
+      <c r="Q9" s="45">
+        <f t="shared" si="8"/>
+        <v>0.72249999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>6</v>
       </c>
-      <c r="B10" s="39">
-        <v>40</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1.1000000000000001</v>
+      <c r="B10" s="38">
+        <v>45</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.65</v>
       </c>
       <c r="D10" s="45">
         <f>D4*$C$10</f>
-        <v>1.32</v>
+        <v>0.78</v>
       </c>
       <c r="E10" s="45">
-        <f t="shared" ref="E10:P10" si="5">E4*$C$10</f>
-        <v>1.32</v>
+        <f t="shared" ref="E10:Q10" si="10">E4*$C$10</f>
+        <v>0.78</v>
       </c>
       <c r="F10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.2649999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0.74749999999999994</v>
       </c>
       <c r="G10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.2100000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.71500000000000008</v>
       </c>
       <c r="H10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1550000000000002</v>
+        <f t="shared" ref="H10" si="11">H4*$C$10</f>
+        <v>0.71500000000000008</v>
       </c>
       <c r="I10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.68250000000000011</v>
       </c>
       <c r="J10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.65</v>
       </c>
       <c r="K10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.65</v>
       </c>
       <c r="L10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1220000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.65</v>
       </c>
       <c r="M10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1220000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.64349999999999996</v>
       </c>
       <c r="N10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1220000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.624</v>
       </c>
       <c r="O10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1550000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.59150000000000003</v>
       </c>
       <c r="P10" s="45">
-        <f t="shared" si="5"/>
-        <v>1.1550000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C11" s="33" t="s">
+        <f t="shared" si="10"/>
+        <v>0.57200000000000006</v>
+      </c>
+      <c r="Q10" s="45">
+        <f t="shared" si="10"/>
+        <v>0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39">
+        <v>55</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="45">
+        <f>D4*$C$11</f>
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="45">
+        <f>E4*$C$11</f>
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="45">
+        <f>F4*$C$11</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G11" s="45">
+        <f>G4*$C$11</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H11" s="45">
+        <f>H4*$C$11</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I11" s="45">
+        <f>I4*$C$11</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J11" s="45">
+        <f>J4*$C$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="45">
+        <f>K4*$C$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="45">
+        <f>L4*$C$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="45">
+        <f>M4*$C$11</f>
+        <v>0.495</v>
+      </c>
+      <c r="N11" s="45">
+        <f>N4*$C$11</f>
+        <v>0.48</v>
+      </c>
+      <c r="O11" s="45">
+        <f>O4*$C$11</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="P11" s="45">
+        <f>P4*$C$11</f>
+        <v>0.44</v>
+      </c>
+      <c r="Q11" s="45">
+        <f>Q4*$C$11</f>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C12" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E12" s="53" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11">
-        <v>100</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="11">
+        <v>50</v>
+      </c>
+      <c r="H14" s="49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E14" s="13" t="s">
+      <c r="I14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="11">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="11">
+        <v>25</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E15" s="14" t="s">
+      <c r="I15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="18">
-        <f>INDEX(D5:P10, LOOKUP($G$14, B5:B10, A5:A10),LOOKUP($G$13, D3:P3, D1:P1))</f>
-        <v>1.05</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="18">
+        <f>INDEX(D5:Q11, LOOKUP($G$15, B5:B11, A5:A11),LOOKUP($G$14, D3:Q3, D1:Q1))</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E16" s="3" t="s">
+      <c r="I16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2">
-        <v>3.186E-3</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="H17" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" s="49" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C18" s="49" t="s">
-        <v>74</v>
-      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
@@ -2823,398 +2954,527 @@
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C19" s="42" t="s">
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="49"/>
+      <c r="C19" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="49"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B20" s="49"/>
+      <c r="C20" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D20" s="42">
         <v>5</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E20" s="42">
         <v>10</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F20" s="42">
         <v>15</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G20" s="42">
         <v>20</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H20" s="42">
+        <v>25</v>
+      </c>
+      <c r="I20" s="42">
         <v>30</v>
       </c>
-      <c r="I19" s="42">
+      <c r="J20" s="42">
         <v>40</v>
       </c>
-      <c r="J19" s="42">
+      <c r="K20" s="42">
         <v>50</v>
       </c>
-      <c r="K19" s="42">
+      <c r="L20" s="42">
         <v>60</v>
       </c>
-      <c r="L19" s="42">
+      <c r="M20" s="42">
         <v>70</v>
       </c>
-      <c r="M19" s="42">
+      <c r="N20" s="42">
         <v>80</v>
       </c>
-      <c r="N19" s="42">
+      <c r="O20" s="42">
         <v>90</v>
       </c>
-      <c r="O19" s="42">
+      <c r="P20" s="42">
         <v>95</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q20" s="42">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C20" s="42">
+      <c r="R20" s="49"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="49"/>
+      <c r="C21" s="42">
         <v>-5</v>
       </c>
-      <c r="D20" s="46">
-        <f>D5*$G$16/$G$15</f>
-        <v>4.7334857142857147E-3</v>
-      </c>
-      <c r="E20" s="46">
-        <f t="shared" ref="E20:P20" si="6">E5*$G$16/$G$15</f>
-        <v>4.7334857142857147E-3</v>
-      </c>
-      <c r="F20" s="46">
-        <f t="shared" si="6"/>
-        <v>4.5362571428571421E-3</v>
-      </c>
-      <c r="G20" s="46">
-        <f t="shared" si="6"/>
-        <v>4.3390285714285711E-3</v>
-      </c>
-      <c r="H20" s="46">
-        <f t="shared" si="6"/>
-        <v>4.141800000000001E-3</v>
-      </c>
-      <c r="I20" s="46">
-        <f t="shared" si="6"/>
-        <v>3.9445714285714284E-3</v>
-      </c>
-      <c r="J20" s="46">
-        <f t="shared" si="6"/>
-        <v>3.9445714285714284E-3</v>
-      </c>
-      <c r="K20" s="46">
-        <f t="shared" si="6"/>
-        <v>3.9445714285714284E-3</v>
-      </c>
-      <c r="L20" s="46">
-        <f t="shared" si="6"/>
-        <v>4.0234628571428569E-3</v>
-      </c>
-      <c r="M20" s="46">
-        <f t="shared" si="6"/>
-        <v>4.0234628571428569E-3</v>
-      </c>
-      <c r="N20" s="46">
-        <f t="shared" si="6"/>
-        <v>4.0234628571428569E-3</v>
-      </c>
-      <c r="O20" s="46">
-        <f t="shared" si="6"/>
-        <v>4.141800000000001E-3</v>
-      </c>
-      <c r="P20" s="46">
-        <f t="shared" si="6"/>
-        <v>4.141800000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C21" s="42">
-        <v>0</v>
-      </c>
       <c r="D21" s="46">
-        <f t="shared" ref="D21:P21" si="7">D6*$G$16/$G$15</f>
-        <v>4.0052571428571427E-3</v>
+        <f>D5*$G$17/$G$16</f>
+        <v>2.3519999999999999E-2</v>
       </c>
       <c r="E21" s="46">
-        <f t="shared" si="7"/>
-        <v>4.0052571428571427E-3</v>
+        <f>E5*$G$17/$G$16</f>
+        <v>2.3519999999999999E-2</v>
       </c>
       <c r="F21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.8383714285714281E-3</v>
+        <f>F5*$G$17/$G$16</f>
+        <v>2.2539999999999998E-2</v>
       </c>
       <c r="G21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.6714857142857147E-3</v>
+        <f>G5*$G$17/$G$16</f>
+        <v>2.1560000000000003E-2</v>
       </c>
       <c r="H21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.5046000000000005E-3</v>
+        <f>H5*$G$17/$G$16</f>
+        <v>2.1560000000000003E-2</v>
       </c>
       <c r="I21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.3377142857142859E-3</v>
+        <f>I5*$G$17/$G$16</f>
+        <v>2.0580000000000001E-2</v>
       </c>
       <c r="J21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.3377142857142859E-3</v>
+        <f>J5*$G$17/$G$16</f>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="K21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.3377142857142859E-3</v>
+        <f>K5*$G$17/$G$16</f>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="L21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.4044685714285715E-3</v>
+        <f>L5*$G$17/$G$16</f>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="M21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.4044685714285715E-3</v>
+        <f>M5*$G$17/$G$16</f>
+        <v>1.9403999999999998E-2</v>
       </c>
       <c r="N21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.4044685714285715E-3</v>
+        <f>N5*$G$17/$G$16</f>
+        <v>1.8815999999999999E-2</v>
       </c>
       <c r="O21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.5046000000000005E-3</v>
+        <f>O5*$G$17/$G$16</f>
+        <v>1.7836000000000001E-2</v>
       </c>
       <c r="P21" s="46">
-        <f t="shared" si="7"/>
-        <v>3.5046000000000005E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+        <f>P5*$G$17/$G$16</f>
+        <v>1.7247999999999999E-2</v>
+      </c>
+      <c r="Q21" s="46">
+        <f>Q5*$G$17/$G$16</f>
+        <v>1.6659999999999998E-2</v>
+      </c>
+      <c r="R21" s="49"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22" s="49"/>
       <c r="C22" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D22" s="46">
-        <f t="shared" ref="D22:P22" si="8">D7*$G$16/$G$15</f>
-        <v>3.8231999999999997E-3</v>
+        <f>D6*$G$17/$G$16</f>
+        <v>9.4079999999999997E-3</v>
       </c>
       <c r="E22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.8231999999999997E-3</v>
+        <f>E6*$G$17/$G$16</f>
+        <v>9.4079999999999997E-3</v>
       </c>
       <c r="F22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.6638999999999999E-3</v>
+        <f>F6*$G$17/$G$16</f>
+        <v>9.0159999999999997E-3</v>
       </c>
       <c r="G22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.5046000000000005E-3</v>
+        <f>G6*$G$17/$G$16</f>
+        <v>8.6240000000000015E-3</v>
       </c>
       <c r="H22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.3452999999999998E-3</v>
+        <f>H6*$G$17/$G$16</f>
+        <v>8.6240000000000015E-3</v>
       </c>
       <c r="I22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.186E-3</v>
+        <f>I6*$G$17/$G$16</f>
+        <v>8.2319999999999997E-3</v>
       </c>
       <c r="J22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.186E-3</v>
+        <f>J6*$G$17/$G$16</f>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="K22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.186E-3</v>
+        <f>K6*$G$17/$G$16</f>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="L22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.2497200000000002E-3</v>
+        <f>L6*$G$17/$G$16</f>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="M22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.2497200000000002E-3</v>
+        <f>M6*$G$17/$G$16</f>
+        <v>7.7616000000000004E-3</v>
       </c>
       <c r="N22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.2497200000000002E-3</v>
+        <f>N6*$G$17/$G$16</f>
+        <v>7.5263999999999999E-3</v>
       </c>
       <c r="O22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.3452999999999998E-3</v>
+        <f>O6*$G$17/$G$16</f>
+        <v>7.1344000000000008E-3</v>
       </c>
       <c r="P22" s="46">
-        <f t="shared" si="8"/>
-        <v>3.3452999999999998E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+        <f>P6*$G$17/$G$16</f>
+        <v>6.8992000000000003E-3</v>
+      </c>
+      <c r="Q22" s="46">
+        <f>Q6*$G$17/$G$16</f>
+        <v>6.6640000000000007E-3</v>
+      </c>
+      <c r="R22" s="49"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="49"/>
       <c r="C23" s="42">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D23" s="46">
-        <f t="shared" ref="D23:P23" si="9">D8*$G$16/$G$15</f>
-        <v>3.6411428571428567E-3</v>
+        <f>D7*$G$17/$G$16</f>
+        <v>7.0559999999999998E-3</v>
       </c>
       <c r="E23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.6411428571428567E-3</v>
+        <f>E7*$G$17/$G$16</f>
+        <v>7.0559999999999998E-3</v>
       </c>
       <c r="F23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.4894285714285713E-3</v>
+        <f>F7*$G$17/$G$16</f>
+        <v>6.7619999999999989E-3</v>
       </c>
       <c r="G23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.3377142857142859E-3</v>
+        <f>G7*$G$17/$G$16</f>
+        <v>6.4679999999999998E-3</v>
       </c>
       <c r="H23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.186E-3</v>
+        <f>H7*$G$17/$G$16</f>
+        <v>6.4679999999999998E-3</v>
       </c>
       <c r="I23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.0342857142857142E-3</v>
+        <f>I7*$G$17/$G$16</f>
+        <v>6.1739999999999998E-3</v>
       </c>
       <c r="J23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.0342857142857142E-3</v>
+        <f>J7*$G$17/$G$16</f>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="K23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.0342857142857142E-3</v>
+        <f>K7*$G$17/$G$16</f>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="L23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.0949714285714285E-3</v>
+        <f>L7*$G$17/$G$16</f>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="M23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.0949714285714285E-3</v>
+        <f>M7*$G$17/$G$16</f>
+        <v>5.8211999999999995E-3</v>
       </c>
       <c r="N23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.0949714285714285E-3</v>
+        <f>N7*$G$17/$G$16</f>
+        <v>5.6447999999999993E-3</v>
       </c>
       <c r="O23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.186E-3</v>
+        <f>O7*$G$17/$G$16</f>
+        <v>5.3508000000000002E-3</v>
       </c>
       <c r="P23" s="46">
-        <f t="shared" si="9"/>
-        <v>3.186E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+        <f>P7*$G$17/$G$16</f>
+        <v>5.1744E-3</v>
+      </c>
+      <c r="Q23" s="46">
+        <f>Q7*$G$17/$G$16</f>
+        <v>4.9979999999999998E-3</v>
+      </c>
+      <c r="R23" s="49"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B24" s="49"/>
       <c r="C24" s="42">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" s="46">
-        <f t="shared" ref="D24:P24" si="10">D9*$G$16/$G$15</f>
-        <v>3.6411428571428567E-3</v>
+        <f>D8*$G$17/$G$16</f>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="E24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.6411428571428567E-3</v>
+        <f>E8*$G$17/$G$16</f>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="F24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.4894285714285713E-3</v>
+        <f>F8*$G$17/$G$16</f>
+        <v>5.6349999999999994E-3</v>
       </c>
       <c r="G24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.3377142857142859E-3</v>
+        <f>G8*$G$17/$G$16</f>
+        <v>5.3900000000000007E-3</v>
       </c>
       <c r="H24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.186E-3</v>
+        <f>H8*$G$17/$G$16</f>
+        <v>5.3900000000000007E-3</v>
       </c>
       <c r="I24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.0342857142857142E-3</v>
+        <f>I8*$G$17/$G$16</f>
+        <v>5.1450000000000003E-3</v>
       </c>
       <c r="J24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.0342857142857142E-3</v>
+        <f>J8*$G$17/$G$16</f>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="K24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.0342857142857142E-3</v>
+        <f>K8*$G$17/$G$16</f>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="L24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.0949714285714285E-3</v>
+        <f>L8*$G$17/$G$16</f>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="M24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.0949714285714285E-3</v>
+        <f>M8*$G$17/$G$16</f>
+        <v>4.8509999999999994E-3</v>
       </c>
       <c r="N24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.0949714285714285E-3</v>
+        <f>N8*$G$17/$G$16</f>
+        <v>4.7039999999999998E-3</v>
       </c>
       <c r="O24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.186E-3</v>
+        <f>O8*$G$17/$G$16</f>
+        <v>4.4590000000000003E-3</v>
       </c>
       <c r="P24" s="46">
-        <f t="shared" si="10"/>
-        <v>3.186E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+        <f>P8*$G$17/$G$16</f>
+        <v>4.3119999999999999E-3</v>
+      </c>
+      <c r="Q24" s="46">
+        <f>Q8*$G$17/$G$16</f>
+        <v>4.1649999999999994E-3</v>
+      </c>
+      <c r="R24" s="49"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B25" s="49"/>
       <c r="C25" s="42">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D25" s="46">
-        <f t="shared" ref="D25:P25" si="11">D10*$G$16/$G$15</f>
-        <v>4.0052571428571427E-3</v>
+        <f>D9*$G$17/$G$16</f>
+        <v>4.9979999999999998E-3</v>
       </c>
       <c r="E25" s="46">
-        <f t="shared" si="11"/>
-        <v>4.0052571428571427E-3</v>
+        <f>E9*$G$17/$G$16</f>
+        <v>4.9979999999999998E-3</v>
       </c>
       <c r="F25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.8383714285714281E-3</v>
+        <f>F9*$G$17/$G$16</f>
+        <v>4.7897499999999997E-3</v>
       </c>
       <c r="G25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.6714857142857147E-3</v>
+        <f>G9*$G$17/$G$16</f>
+        <v>4.5815000000000005E-3</v>
       </c>
       <c r="H25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.5046000000000005E-3</v>
+        <f>H9*$G$17/$G$16</f>
+        <v>4.5815000000000005E-3</v>
       </c>
       <c r="I25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.3377142857142859E-3</v>
+        <f>I9*$G$17/$G$16</f>
+        <v>4.3732499999999995E-3</v>
       </c>
       <c r="J25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.3377142857142859E-3</v>
+        <f>J9*$G$17/$G$16</f>
+        <v>4.1649999999999994E-3</v>
       </c>
       <c r="K25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.3377142857142859E-3</v>
+        <f>K9*$G$17/$G$16</f>
+        <v>4.1649999999999994E-3</v>
       </c>
       <c r="L25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.4044685714285715E-3</v>
+        <f>L9*$G$17/$G$16</f>
+        <v>4.1649999999999994E-3</v>
       </c>
       <c r="M25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.4044685714285715E-3</v>
+        <f>M9*$G$17/$G$16</f>
+        <v>4.1233499999999996E-3</v>
       </c>
       <c r="N25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.4044685714285715E-3</v>
+        <f>N9*$G$17/$G$16</f>
+        <v>3.9984E-3</v>
       </c>
       <c r="O25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.5046000000000005E-3</v>
+        <f>O9*$G$17/$G$16</f>
+        <v>3.7901499999999995E-3</v>
       </c>
       <c r="P25" s="46">
-        <f t="shared" si="11"/>
-        <v>3.5046000000000005E-3</v>
+        <f>P9*$G$17/$G$16</f>
+        <v>3.6652E-3</v>
+      </c>
+      <c r="Q25" s="46">
+        <f>Q9*$G$17/$G$16</f>
+        <v>3.5402499999999996E-3</v>
+      </c>
+      <c r="R25" s="49"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="49"/>
+      <c r="C26" s="42">
+        <v>45</v>
+      </c>
+      <c r="D26" s="46">
+        <f>D10*$G$17/$G$16</f>
+        <v>3.8219999999999999E-3</v>
+      </c>
+      <c r="E26" s="46">
+        <f>E10*$G$17/$G$16</f>
+        <v>3.8219999999999999E-3</v>
+      </c>
+      <c r="F26" s="46">
+        <f>F10*$G$17/$G$16</f>
+        <v>3.6627499999999998E-3</v>
+      </c>
+      <c r="G26" s="46">
+        <f>G10*$G$17/$G$16</f>
+        <v>3.5035000000000001E-3</v>
+      </c>
+      <c r="H26" s="46">
+        <f>H10*$G$17/$G$16</f>
+        <v>3.5035000000000001E-3</v>
+      </c>
+      <c r="I26" s="46">
+        <f>I10*$G$17/$G$16</f>
+        <v>3.3442500000000004E-3</v>
+      </c>
+      <c r="J26" s="46">
+        <f>J10*$G$17/$G$16</f>
+        <v>3.1849999999999999E-3</v>
+      </c>
+      <c r="K26" s="46">
+        <f>K10*$G$17/$G$16</f>
+        <v>3.1849999999999999E-3</v>
+      </c>
+      <c r="L26" s="46">
+        <f>L10*$G$17/$G$16</f>
+        <v>3.1849999999999999E-3</v>
+      </c>
+      <c r="M26" s="46">
+        <f>M10*$G$17/$G$16</f>
+        <v>3.1531499999999995E-3</v>
+      </c>
+      <c r="N26" s="46">
+        <f>N10*$G$17/$G$16</f>
+        <v>3.0575999999999997E-3</v>
+      </c>
+      <c r="O26" s="46">
+        <f>O10*$G$17/$G$16</f>
+        <v>2.8983500000000001E-3</v>
+      </c>
+      <c r="P26" s="46">
+        <f>P10*$G$17/$G$16</f>
+        <v>2.8028000000000003E-3</v>
+      </c>
+      <c r="Q26" s="46">
+        <f>Q10*$G$17/$G$16</f>
+        <v>2.70725E-3</v>
+      </c>
+      <c r="R26" s="49"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C27" s="42">
+        <v>55</v>
+      </c>
+      <c r="D27" s="46">
+        <f>D11*$G$17/$G$16</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="E27" s="46">
+        <f>E11*$G$17/$G$16</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="F27" s="46">
+        <f>F11*$G$17/$G$16</f>
+        <v>2.8174999999999997E-3</v>
+      </c>
+      <c r="G27" s="46">
+        <f>G11*$G$17/$G$16</f>
+        <v>2.6950000000000003E-3</v>
+      </c>
+      <c r="H27" s="46">
+        <f>H11*$G$17/$G$16</f>
+        <v>2.6950000000000003E-3</v>
+      </c>
+      <c r="I27" s="46">
+        <f>I11*$G$17/$G$16</f>
+        <v>2.5725000000000001E-3</v>
+      </c>
+      <c r="J27" s="46">
+        <f>J11*$G$17/$G$16</f>
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="K27" s="46">
+        <f>K11*$G$17/$G$16</f>
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="L27" s="46">
+        <f>L11*$G$17/$G$16</f>
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="M27" s="46">
+        <f>M11*$G$17/$G$16</f>
+        <v>2.4254999999999997E-3</v>
+      </c>
+      <c r="N27" s="46">
+        <f>N11*$G$17/$G$16</f>
+        <v>2.3519999999999999E-3</v>
+      </c>
+      <c r="O27" s="46">
+        <f>O11*$G$17/$G$16</f>
+        <v>2.2295000000000001E-3</v>
+      </c>
+      <c r="P27" s="46">
+        <f>P11*$G$17/$G$16</f>
+        <v>2.1559999999999999E-3</v>
+      </c>
+      <c r="Q27" s="46">
+        <f>Q11*$G$17/$G$16</f>
+        <v>2.0824999999999997E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C18:P18"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="C19:Q19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3226,7 +3486,7 @@
   <dimension ref="A1:W225"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J20:J21"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3249,10 +3509,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="47">
         <v>3.186E-3</v>
       </c>
@@ -3281,11 +3541,11 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="F3" t="s">
         <v>20</v>
       </c>
@@ -3324,11 +3584,11 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -3338,7 +3598,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="24">
-        <v>2721.6</v>
+        <v>76</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
@@ -3352,7 +3612,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="26">
-        <v>0.2</v>
+        <v>3.3188041467001182E-2</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>25</v>
@@ -3362,22 +3622,22 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="2">
-        <v>540</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -3388,7 +3648,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="2">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -3410,7 +3670,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>0.12196</v>
+        <v>6.3711499014801002E-3</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -3428,11 +3688,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -3452,7 +3712,7 @@
       </c>
       <c r="B20" s="8">
         <f>$B$12^2*$C$1</f>
-        <v>929.0376</v>
+        <v>45.878399999999999</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -3464,7 +3724,7 @@
       </c>
       <c r="B22" s="18">
         <f>VLOOKUP(B13, A25:C225, 3, FALSE)</f>
-        <v>57.947129271275713</v>
+        <v>55.000012098281204</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -3500,11 +3760,11 @@
       </c>
       <c r="B26" s="21">
         <f t="shared" si="0"/>
-        <v>6.2447875714285734</v>
+        <v>3.4765791823892211</v>
       </c>
       <c r="C26" s="21">
         <f t="shared" ref="C26:C57" si="2">(($B$20-B25)/($B$8*$B$9))+C25</f>
-        <v>21.706785714285715</v>
+        <v>38.189176920697719</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3514,11 +3774,11 @@
       </c>
       <c r="B27" s="21">
         <f t="shared" si="0"/>
-        <v>12.447599046505101</v>
+        <v>6.6897097089529982</v>
       </c>
       <c r="C27" s="21">
         <f t="shared" si="2"/>
-        <v>23.402098788265306</v>
+        <v>55.000012098281204</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -3528,11 +3788,11 @@
       </c>
       <c r="B28" s="21">
         <f t="shared" si="0"/>
-        <v>18.608716579369307</v>
+        <v>9.6593552251643864</v>
       </c>
       <c r="C28" s="21">
         <f t="shared" si="2"/>
-        <v>25.086016338517904</v>
+        <v>70.536953687226827</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3542,11 +3802,11 @@
       </c>
       <c r="B29" s="21">
         <f t="shared" si="0"/>
-        <v>24.728420427582503</v>
+        <v>12.403966568851539</v>
       </c>
       <c r="C29" s="21">
         <f t="shared" si="2"/>
-        <v>26.758614963261863</v>
+        <v>84.896534956585768</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3556,11 +3816,11 @@
       </c>
       <c r="B30" s="21">
         <f t="shared" si="0"/>
-        <v>30.806988964875934</v>
+        <v>14.940596407926236</v>
       </c>
       <c r="C30" s="21">
         <f t="shared" si="2"/>
-        <v>28.419970745839056</v>
+        <v>98.167974065170156</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -3570,11 +3830,11 @@
       </c>
       <c r="B31" s="21">
         <f t="shared" si="0"/>
-        <v>36.844698693813534</v>
+        <v>17.285005191080185</v>
       </c>
       <c r="C31" s="21">
         <f t="shared" si="2"/>
-        <v>30.070159258175778</v>
+        <v>110.43372838689949</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -3584,11 +3844,11 @@
       </c>
       <c r="B32" s="21">
         <f t="shared" si="0"/>
-        <v>42.841824258369449</v>
+        <v>19.451759069736077</v>
       </c>
       <c r="C32" s="21">
         <f t="shared" si="2"/>
-        <v>31.70925556422036</v>
+        <v>121.77000683041108</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3598,11 +3858,11 @@
       </c>
       <c r="B33" s="21">
         <f t="shared" si="0"/>
-        <v>48.798638456421102</v>
+        <v>21.454320399656705</v>
       </c>
       <c r="C33" s="21">
         <f t="shared" si="2"/>
-        <v>33.337334223357686</v>
+        <v>132.24724333605039</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -3612,11 +3872,11 @@
       </c>
       <c r="B34" s="21">
         <f t="shared" si="0"/>
-        <v>54.715412252158252</v>
+        <v>23.305131384511686</v>
       </c>
       <c r="C34" s="21">
         <f t="shared" si="2"/>
-        <v>34.95446929380077</v>
+        <v>141.93053449214668</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3626,11 +3886,11 @@
       </c>
       <c r="B35" s="21">
         <f t="shared" si="0"/>
-        <v>60.592414788408625</v>
+        <v>25.015691381091486</v>
       </c>
       <c r="C35" s="21">
         <f t="shared" si="2"/>
-        <v>36.560734335959502</v>
+        <v>150.88004398954743</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3640,11 +3900,11 @@
       </c>
       <c r="B36" s="21">
         <f t="shared" si="0"/>
-        <v>66.429913398880714</v>
+        <v>26.596628346477146</v>
       </c>
       <c r="C36" s="21">
         <f t="shared" si="2"/>
-        <v>38.156202415786794</v>
+        <v>159.15137642734587</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -3654,11 +3914,11 @@
       </c>
       <c r="B37" s="21">
         <f t="shared" si="0"/>
-        <v>72.228173620324299</v>
+        <v>28.057764871077396</v>
       </c>
       <c r="C37" s="21">
         <f t="shared" si="2"/>
-        <v>39.740946108102193</v>
+        <v>166.7959227923111</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -3668,11 +3928,11 @@
       </c>
       <c r="B38" s="21">
         <f t="shared" si="0"/>
-        <v>77.987459204609209</v>
+        <v>29.408179207805929</v>
       </c>
       <c r="C38" s="21">
         <f t="shared" si="2"/>
-        <v>41.315037499893194</v>
+        <v>173.86117975853429</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -3682,11 +3942,11 @@
       </c>
       <c r="B39" s="21">
         <f t="shared" si="0"/>
-        <v>83.708032130722842</v>
+        <v>30.656261676582002</v>
       </c>
       <c r="C39" s="21">
         <f t="shared" si="2"/>
-        <v>42.878548193594305</v>
+        <v>180.39104479114599</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -3696,11 +3956,11 @@
       </c>
       <c r="B40" s="21">
         <f t="shared" si="0"/>
-        <v>89.390152616687175</v>
+        <v>31.809766794603643</v>
       </c>
       <c r="C40" s="21">
         <f t="shared" si="2"/>
-        <v>44.431549310344153</v>
+        <v>186.42608888762675</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -3710,11 +3970,11 @@
       </c>
       <c r="B41" s="21">
         <f t="shared" si="0"/>
-        <v>95.034079131395572</v>
+        <v>32.875861456286501</v>
       </c>
       <c r="C41" s="21">
         <f t="shared" si="2"/>
-        <v>45.974111493220612</v>
+        <v>192.00380865129236</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -3724,11 +3984,11 @@
       </c>
       <c r="B42" s="21">
         <f t="shared" si="0"/>
-        <v>100.64006840636995</v>
+        <v>33.861169462217127</v>
       </c>
       <c r="C42" s="21">
         <f t="shared" si="2"/>
-        <v>47.506304910454233</v>
+        <v>197.15885926312268</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -3738,11 +3998,11 @@
       </c>
       <c r="B43" s="21">
         <f t="shared" si="0"/>
-        <v>106.20837544743911</v>
+        <v>34.771812673785711</v>
       </c>
       <c r="C43" s="21">
         <f t="shared" si="2"/>
-        <v>49.02819925862007</v>
+        <v>201.92326979942177</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -3752,11 +4012,11 @@
       </c>
       <c r="B44" s="21">
         <f t="shared" si="0"/>
-        <v>111.73925354633849</v>
+        <v>35.613449049197769</v>
       </c>
       <c r="C44" s="21">
         <f t="shared" si="2"/>
-        <v>50.53986376580805</v>
+        <v>206.32664223310931</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -3766,11 +4026,11 @@
       </c>
       <c r="B45" s="21">
         <f t="shared" si="0"/>
-        <v>117.23295429223181</v>
+        <v>36.391307797188226</v>
       </c>
       <c r="C45" s="21">
         <f t="shared" si="2"/>
-        <v>52.041367194772008</v>
+        <v>210.39633535506707</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -3780,11 +4040,11 @@
       </c>
       <c r="B46" s="21">
         <f t="shared" si="0"/>
-        <v>122.68972758315552</v>
+        <v>37.110221866852875</v>
       </c>
       <c r="C46" s="21">
         <f t="shared" si="2"/>
-        <v>53.532777846057591</v>
+        <v>214.15763475827021</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -3794,11 +4054,11 @@
       </c>
       <c r="B47" s="21">
         <f t="shared" si="0"/>
-        <v>128.10982163738603</v>
+        <v>37.774657975461274</v>
       </c>
       <c r="C47" s="21">
         <f t="shared" si="2"/>
-        <v>55.014163561109115</v>
+        <v>217.63390994083991</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -3808,11 +4068,11 @@
       </c>
       <c r="B48" s="21">
         <f t="shared" si="0"/>
-        <v>133.49348300473085</v>
+        <v>38.388744360818308</v>
       </c>
       <c r="C48" s="21">
         <f t="shared" si="2"/>
-        <v>56.48559172535554</v>
+        <v>220.84675950412085</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -3822,11 +4082,11 @@
       </c>
       <c r="B49" s="21">
         <f t="shared" si="0"/>
-        <v>138.84095657774358</v>
+        <v>38.956296430603722</v>
       </c>
       <c r="C49" s="21">
         <f t="shared" si="2"/>
-        <v>57.947129271275713</v>
+        <v>223.8161453479205</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -3836,11 +4096,11 @@
       </c>
       <c r="B50" s="21">
         <f t="shared" si="0"/>
-        <v>144.15248560286363</v>
+        <v>39.480840468052833</v>
       </c>
       <c r="C50" s="21">
         <f t="shared" si="2"/>
-        <v>59.398842681443</v>
+        <v>226.56051669668466</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -3850,11 +4110,11 @@
       </c>
       <c r="B51" s="21">
         <f t="shared" si="0"/>
-        <v>149.42831169148107</v>
+        <v>39.965635541265129</v>
       </c>
       <c r="C51" s="21">
         <f t="shared" si="2"/>
-        <v>60.840797991549437</v>
+        <v>229.09692472720192</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -3864,11 +4124,11 @@
       </c>
       <c r="B52" s="21">
         <f t="shared" si="0"/>
-        <v>154.66867483092702</v>
+        <v>40.413693752266568</v>
       </c>
       <c r="C52" s="21">
         <f t="shared" si="2"/>
-        <v>62.273060793409591</v>
+        <v>231.44112851003527</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -3878,11 +4138,11 @@
       </c>
       <c r="B53" s="21">
         <f t="shared" si="0"/>
-        <v>159.87381339539019</v>
+        <v>40.82779895163582</v>
       </c>
       <c r="C53" s="21">
         <f t="shared" si="2"/>
-        <v>63.69569623794419</v>
+        <v>233.60769292291073</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -3892,11 +4152,11 @@
       </c>
       <c r="B54" s="21">
         <f t="shared" si="0"/>
-        <v>165.04396415676024</v>
+        <v>41.21052403497125</v>
       </c>
       <c r="C54" s="21">
         <f t="shared" si="2"/>
-        <v>65.10876903814372</v>
+        <v>235.61007914441274</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -3906,11 +4166,11 @@
       </c>
       <c r="B55" s="21">
         <f t="shared" si="0"/>
-        <v>170.17936229539788</v>
+        <v>41.564246928664012</v>
       </c>
       <c r="C55" s="21">
         <f t="shared" si="2"/>
-        <v>66.512343472012105</v>
+        <v>237.46072829023691</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -3920,11 +4180,11 @@
       </c>
       <c r="B56" s="21">
         <f t="shared" si="0"/>
-        <v>175.2802414108329</v>
+        <v>41.891165364299233</v>
       </c>
       <c r="C56" s="21">
         <f t="shared" si="2"/>
-        <v>67.906483385490574</v>
+        <v>239.1711387116444</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -3934,11 +4194,11 @@
       </c>
       <c r="B57" s="21">
         <f t="shared" si="0"/>
-        <v>180.34683353239012</v>
+        <v>42.193310533480776</v>
       </c>
       <c r="C57" s="21">
         <f t="shared" si="2"/>
-        <v>69.291252195361906</v>
+        <v>240.75193743638403</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -3948,11 +4208,11 @@
       </c>
       <c r="B58" s="21">
         <f t="shared" si="0"/>
-        <v>185.37936912974408</v>
+        <v>42.472559707918911</v>
       </c>
       <c r="C58" s="21">
         <f t="shared" ref="C58:C89" si="4">(($B$20-B57)/($B$8*$B$9))+C57</f>
-        <v>70.666712892135152</v>
+        <v>242.21294619595537</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -3962,11 +4222,11 @@
       </c>
       <c r="B59" s="21">
         <f t="shared" si="0"/>
-        <v>190.37807712340239</v>
+        <v>42.730647903191446</v>
       </c>
       <c r="C59" s="21">
         <f t="shared" si="4"/>
-        <v>72.032928042910896</v>
+        <v>243.56324244944946</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -3976,11 +4236,11 @@
       </c>
       <c r="B60" s="21">
         <f t="shared" si="0"/>
-        <v>195.34318489511918</v>
+        <v>42.969178658646882</v>
       </c>
       <c r="C60" s="21">
         <f t="shared" si="4"/>
-        <v>73.389959794227394</v>
+        <v>244.81121578311732</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -3990,11 +4250,11 @@
       </c>
       <c r="B61" s="21">
         <f t="shared" si="0"/>
-        <v>200.27491829823819</v>
+        <v>43.189634000426693</v>
       </c>
       <c r="C61" s="21">
         <f t="shared" si="4"/>
-        <v>74.737869874887451</v>
+        <v>245.96462003608477</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -4004,11 +4264,11 @@
       </c>
       <c r="B62" s="21">
         <f t="shared" si="0"/>
-        <v>205.17350166796629</v>
+        <v>43.393383649508444</v>
       </c>
       <c r="C62" s="21">
         <f t="shared" si="4"/>
-        <v>76.076719598766346</v>
+        <v>247.03062147607821</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -4018,11 +4278,11 @@
       </c>
       <c r="B63" s="21">
         <f t="shared" si="0"/>
-        <v>210.03915783157825</v>
+        <v>43.581693531980711</v>
       </c>
       <c r="C63" s="21">
         <f t="shared" si="4"/>
-        <v>77.406569867600922</v>
+        <v>248.01584332448436</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -4032,11 +4292,11 @@
       </c>
       <c r="B64" s="21">
         <f t="shared" si="0"/>
-        <v>214.87210811855249</v>
+        <v>43.755733644425227</v>
       </c>
       <c r="C64" s="21">
         <f t="shared" si="4"/>
-        <v>78.727481173759841</v>
+        <v>248.92640690738423</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -4046,11 +4306,11 @@
       </c>
       <c r="B65" s="21">
         <f t="shared" si="0"/>
-        <v>219.67257237063919</v>
+        <v>43.916585323275172</v>
       </c>
       <c r="C65" s="21">
         <f t="shared" si="4"/>
-        <v>80.039513602995299</v>
+        <v>249.76796968823888</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -4060,11 +4320,11 @@
       </c>
       <c r="B66" s="21">
         <f t="shared" si="0"/>
-        <v>224.44076895186038</v>
+        <v>44.065247963315088</v>
       </c>
       <c r="C66" s="21">
         <f t="shared" si="4"/>
-        <v>81.34272683717623</v>
+        <v>250.5457604185296</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -4074,11 +4334,11 @@
       </c>
       <c r="B67" s="21">
         <f t="shared" si="0"/>
-        <v>229.17691475844279</v>
+        <v>44.20264522706546</v>
       </c>
       <c r="C67" s="21">
         <f t="shared" si="4"/>
-        <v>82.637180157003058</v>
+        <v>251.26461162474831</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -4088,11 +4348,11 @@
       </c>
       <c r="B68" s="21">
         <f t="shared" si="0"/>
-        <v>233.8812252286842</v>
+        <v>44.329630783631814</v>
       </c>
       <c r="C68" s="21">
         <f t="shared" si="4"/>
-        <v>83.92293244470433</v>
+        <v>251.92898963358493</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -4102,11 +4362,11 @@
       </c>
       <c r="B69" s="21">
         <f t="shared" si="0"/>
-        <v>238.55391435275328</v>
+        <v>44.446993612674476</v>
       </c>
       <c r="C69" s="21">
         <f t="shared" si="4"/>
-        <v>85.200042186715123</v>
+        <v>252.54302232186203</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -4116,11 +4376,11 @@
       </c>
       <c r="B70" s="21">
         <f t="shared" si="0"/>
-        <v>243.19519468242356</v>
+        <v>44.55546290645357</v>
       </c>
       <c r="C70" s="21">
         <f t="shared" si="4"/>
-        <v>86.468567476337483</v>
+        <v>253.11052476363159</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -4130,11 +4390,11 @@
       </c>
       <c r="B71" s="21">
         <f t="shared" si="0"/>
-        <v>247.80527734074209</v>
+        <v>44.655712600406154</v>
       </c>
       <c r="C71" s="21">
         <f t="shared" si="4"/>
-        <v>87.728566016382999</v>
+        <v>253.63502293378289</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -4144,11 +4404,11 @@
       </c>
       <c r="B72" s="21">
         <f t="shared" si="0"/>
-        <v>252.38437203163289</v>
+        <v>44.7483655604047</v>
       </c>
       <c r="C72" s="21">
         <f t="shared" si="4"/>
-        <v>88.980095121797561</v>
+        <v>254.11977561543526</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -4158,11 +4418,11 @@
       </c>
       <c r="B73" s="21">
         <f t="shared" si="0"/>
-        <v>256.93268704943614</v>
+        <v>44.833997452713064</v>
       </c>
       <c r="C73" s="21">
         <f t="shared" si="4"/>
-        <v>90.223211722268545</v>
+        <v>254.56779464722976</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -4172,11 +4432,11 @@
       </c>
       <c r="B74" s="21">
         <f t="shared" si="0"/>
-        <v>261.45042928838296</v>
+        <v>44.913140320684313</v>
       </c>
       <c r="C74" s="21">
         <f t="shared" si="4"/>
-        <v>91.45797236481441</v>
+        <v>254.98186363631896</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -4186,11 +4446,11 @@
       </c>
       <c r="B75" s="21">
         <f t="shared" si="0"/>
-        <v>265.93780425200669</v>
+        <v>44.986285890423204</v>
       </c>
       <c r="C75" s="21">
         <f t="shared" si="4"/>
-        <v>92.684433216356922</v>
+        <v>255.3645552533215</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -4200,11 +4460,11 @@
       </c>
       <c r="B76" s="21">
         <f t="shared" si="0"/>
-        <v>270.39501606249092</v>
+        <v>45.0538886259517</v>
       </c>
       <c r="C76" s="21">
         <f t="shared" si="4"/>
-        <v>93.902650066276081</v>
+        <v>255.71824721669736</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -4214,11 +4474,11 @@
       </c>
       <c r="B77" s="21">
         <f t="shared" si="0"/>
-        <v>274.82226746995445</v>
+        <v>45.116368552859775</v>
       </c>
       <c r="C77" s="21">
         <f t="shared" si="4"/>
-        <v>95.112678328947865</v>
+        <v>256.04513706585715</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -4228,11 +4488,11 @@
       </c>
       <c r="B78" s="21">
         <f t="shared" si="0"/>
-        <v>279.21975986167428</v>
+        <v>45.17411386798527</v>
       </c>
       <c r="C78" s="21">
         <f t="shared" si="4"/>
-        <v>96.314573046264968</v>
+        <v>256.34725581479279</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -4242,11 +4502,11 @@
       </c>
       <c r="B79" s="21">
         <f t="shared" si="0"/>
-        <v>283.58769327124605</v>
+        <v>45.227483351337085</v>
       </c>
       <c r="C79" s="21">
         <f t="shared" si="4"/>
-        <v>97.508388890140495</v>
+        <v>256.62648057106173</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -4256,11 +4516,11 @@
       </c>
       <c r="B80" s="21">
         <f t="shared" si="0"/>
-        <v>287.92626638768337</v>
+        <v>45.276808595247331</v>
       </c>
       <c r="C80" s="21">
         <f t="shared" si="4"/>
-        <v>98.694180164994904</v>
+        <v>256.8845461985282</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -4270,11 +4530,11 @@
       </c>
       <c r="B81" s="21">
         <f t="shared" si="0"/>
-        <v>292.23567656445567</v>
+        <v>45.322396064602579</v>
       </c>
       <c r="C81" s="21">
         <f t="shared" si="4"/>
-        <v>99.872000810226226</v>
+        <v>257.12305609632364</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -4284,11 +4544,11 @@
       </c>
       <c r="B82" s="21">
         <f t="shared" si="0"/>
-        <v>296.51611982846578</v>
+        <v>45.364529000954519</v>
       </c>
       <c r="C82" s="21">
         <f t="shared" si="4"/>
-        <v>101.04190440266366</v>
+        <v>257.34349216099781</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -4298,11 +4558,11 @@
       </c>
       <c r="B83" s="21">
         <f t="shared" si="0"/>
-        <v>300.76779088896626</v>
+        <v>45.403469182340856</v>
       </c>
       <c r="C83" s="21">
         <f t="shared" si="4"/>
-        <v>102.20394415900466</v>
+        <v>257.54722399375686</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -4312,11 +4572,11 @@
       </c>
       <c r="B84" s="21">
         <f t="shared" si="0"/>
-        <v>304.99088314641676</v>
+        <v>45.439458549750107</v>
       </c>
       <c r="C84" s="21">
         <f t="shared" si="4"/>
-        <v>103.3581729382357</v>
+        <v>257.73551740999397</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -4326,11 +4586,11 @@
       </c>
       <c r="B85" s="21">
         <f t="shared" si="0"/>
-        <v>309.18558870128135</v>
+        <v>45.472720710336063</v>
       </c>
       <c r="C85" s="21">
         <f t="shared" si="4"/>
-        <v>104.50464324403667</v>
+        <v>257.90954230398381</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -4340,11 +4600,11 @@
       </c>
       <c r="B86" s="21">
         <f t="shared" si="0"/>
-        <v>313.35209836276675</v>
+        <v>45.503462326721383</v>
       </c>
       <c r="C86" s="21">
         <f t="shared" si="4"/>
-        <v>105.64340722716923</v>
+        <v>258.07037991760507</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -4354,11 +4614,11 @@
       </c>
       <c r="B87" s="21">
         <f t="shared" si="0"/>
-        <v>317.49060165750205</v>
+        <v>45.531874401022449</v>
       </c>
       <c r="C87" s="21">
         <f t="shared" si="4"/>
-        <v>106.77451668784904</v>
+        <v>258.21902955825294</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -4368,11 +4628,11 @@
       </c>
       <c r="B88" s="21">
         <f t="shared" si="0"/>
-        <v>321.60128683815964</v>
+        <v>45.558133461573163</v>
       </c>
       <c r="C88" s="21">
         <f t="shared" si="4"/>
-        <v>107.89802307810201</v>
+        <v>258.35641480768084</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -4382,11 +4642,11 @@
       </c>
       <c r="B89" s="21">
         <f t="shared" ref="B89:B152" si="5">$B$16*$B$15*(C89-20)</f>
-        <v>325.68434089201861</v>
+        <v>45.582402659721112</v>
       </c>
       <c r="C89" s="21">
         <f t="shared" si="4"/>
-        <v>109.0139775041048</v>
+        <v>258.48338926034756</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -4396,11 +4656,11 @@
       </c>
       <c r="B90" s="21">
         <f t="shared" si="5"/>
-        <v>329.73994954947062</v>
+        <v>45.604832783510432</v>
       </c>
       <c r="C90" s="21">
         <f t="shared" ref="C90:C121" si="7">(($B$20-B89)/($B$8*$B$9))+C89</f>
-        <v>110.12243072850953</v>
+        <v>258.6007418269233</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -4410,11 +4670,11 @@
       </c>
       <c r="B91" s="21">
         <f t="shared" si="5"/>
-        <v>333.76829729246816</v>
+        <v>45.625563194549869</v>
       </c>
       <c r="C91" s="21">
         <f t="shared" si="7"/>
-        <v>111.22343317275286</v>
+        <v>258.70920163590597</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -4424,11 +4684,11 @@
       </c>
       <c r="B92" s="21">
         <f t="shared" si="5"/>
-        <v>337.76956736291629</v>
+        <v>45.644722693886585</v>
       </c>
       <c r="C92" s="21">
         <f t="shared" si="7"/>
-        <v>112.3170349193496</v>
+        <v>258.80944256380224</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -4438,11 +4698,11 @@
       </c>
       <c r="B93" s="21">
         <f t="shared" si="5"/>
-        <v>341.74394177100811</v>
+        <v>45.662430322265749</v>
       </c>
       <c r="C93" s="21">
         <f t="shared" si="7"/>
-        <v>113.40328571417081</v>
+        <v>258.9020874220198</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -4452,11 +4712,11 @@
       </c>
       <c r="B94" s="21">
         <f t="shared" si="5"/>
-        <v>345.69160130350411</v>
+        <v>45.67879609974792</v>
       </c>
       <c r="C94" s="21">
         <f t="shared" si="7"/>
-        <v>114.48223496870672</v>
+        <v>258.98771182648494</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -4466,11 +4726,11 @@
       </c>
       <c r="B95" s="21">
         <f t="shared" si="5"/>
-        <v>349.61272553195568</v>
+        <v>45.693921709279643</v>
       </c>
       <c r="C95" s="21">
         <f t="shared" si="7"/>
-        <v>115.55393176231433</v>
+        <v>259.06684777402774</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -4480,11 +4740,11 @@
       </c>
       <c r="B96" s="21">
         <f t="shared" si="5"/>
-        <v>353.50749282087332</v>
+        <v>45.707901128464293</v>
       </c>
       <c r="C96" s="21">
         <f t="shared" si="7"/>
-        <v>116.61842484444992</v>
+        <v>259.13998694775523</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -4494,11 +4754,11 @@
       </c>
       <c r="B97" s="21">
         <f t="shared" si="5"/>
-        <v>357.37608033584064</v>
+        <v>45.720821213458578</v>
       </c>
       <c r="C97" s="21">
         <f t="shared" si="7"/>
-        <v>117.67576263688659</v>
+        <v>259.20758377195011</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -4508,11 +4768,11 @@
       </c>
       <c r="B98" s="21">
         <f t="shared" si="5"/>
-        <v>361.2186640515726</v>
+        <v>45.732762238622414</v>
       </c>
       <c r="C98" s="21">
         <f t="shared" si="7"/>
-        <v>118.72599323591686</v>
+        <v>259.27005823547438</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -4522,11 +4782,11 @@
       </c>
       <c r="B99" s="21">
         <f t="shared" si="5"/>
-        <v>365.03541875992079</v>
+        <v>45.743798395275107</v>
       </c>
       <c r="C99" s="21">
         <f t="shared" si="7"/>
-        <v>119.76916441454051</v>
+        <v>259.32779850122103</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -4536,11 +4796,11 @@
       </c>
       <c r="B100" s="21">
         <f t="shared" si="5"/>
-        <v>368.82651807782429</v>
+        <v>45.753998252656849</v>
       </c>
       <c r="C100" s="21">
         <f t="shared" si="7"/>
-        <v>120.80532362463767</v>
+        <v>259.38116331782646</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -4550,11 +4810,11 @@
       </c>
       <c r="B101" s="21">
         <f t="shared" si="5"/>
-        <v>372.5921344552068</v>
+        <v>45.763425183959299</v>
       </c>
       <c r="C101" s="21">
         <f t="shared" si="7"/>
-        <v>121.83451799912726</v>
+        <v>259.43048424862764</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -4564,11 +4824,11 @@
       </c>
       <c r="B102" s="21">
         <f t="shared" si="5"/>
-        <v>376.33243918282159</v>
+        <v>45.772137760072368</v>
       </c>
       <c r="C102" s="21">
         <f t="shared" si="7"/>
-        <v>122.85679435411107</v>
+        <v>259.4760677317131</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -4578,11 +4838,11 @@
       </c>
       <c r="B103" s="21">
         <f t="shared" si="5"/>
-        <v>380.04760240004288</v>
+        <v>45.780190113493731</v>
       </c>
       <c r="C103" s="21">
         <f t="shared" si="7"/>
-        <v>123.8721991910033</v>
+        <v>259.51819698386737</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -4592,11 +4852,11 @@
       </c>
       <c r="B104" s="21">
         <f t="shared" si="5"/>
-        <v>383.73779310260517</v>
+        <v>45.787632274661789</v>
       </c>
       <c r="C104" s="21">
         <f t="shared" si="7"/>
-        <v>124.88077869864578</v>
+        <v>259.5571337602376</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -4606,11 +4866,11 @@
       </c>
       <c r="B105" s="21">
         <f t="shared" si="5"/>
-        <v>387.40317915029067</v>
+        <v>45.794510482802075</v>
       </c>
       <c r="C105" s="21">
         <f t="shared" si="7"/>
-        <v>125.88257875540907</v>
+        <v>259.59311998065647</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -4620,11 +4880,11 @@
       </c>
       <c r="B106" s="21">
         <f t="shared" si="5"/>
-        <v>391.04392727456485</v>
+        <v>45.800867473218283</v>
       </c>
       <c r="C106" s="21">
         <f t="shared" si="7"/>
-        <v>126.87764493127935</v>
+        <v>259.62637923272507</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -4634,11 +4894,11 @@
       </c>
       <c r="B107" s="21">
         <f t="shared" si="5"/>
-        <v>394.66020308616066</v>
+        <v>45.806742742812844</v>
       </c>
       <c r="C107" s="21">
         <f t="shared" si="7"/>
-        <v>127.86602248993131</v>
+        <v>259.65711816099503</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -4648,11 +4908,11 @@
       </c>
       <c r="B108" s="21">
         <f t="shared" si="5"/>
-        <v>398.25217108261199</v>
+        <v>45.812172795486951</v>
       </c>
       <c r="C108" s="21">
         <f t="shared" si="7"/>
-        <v>128.84775639078714</v>
+        <v>259.68552775088108</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -4662,11 +4922,11 @@
       </c>
       <c r="B109" s="21">
         <f t="shared" si="5"/>
-        <v>401.81999465573608</v>
+        <v>45.81719136894457</v>
       </c>
       <c r="C109" s="21">
         <f t="shared" si="7"/>
-        <v>129.82289129106158</v>
+        <v>259.71178451528112</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -4676,11 +4936,11 @@
       </c>
       <c r="B110" s="21">
         <f t="shared" si="5"/>
-        <v>405.36383609906648</v>
+        <v>45.821829644309666</v>
       </c>
       <c r="C110" s="21">
         <f t="shared" si="7"/>
-        <v>130.79147154779341</v>
+        <v>259.73605159127641</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -4690,11 +4950,11 @@
       </c>
       <c r="B111" s="21">
         <f t="shared" si="5"/>
-        <v>408.88385661523483</v>
+        <v>45.826116439859057</v>
       </c>
       <c r="C111" s="21">
         <f t="shared" si="7"/>
-        <v>131.75354121986302</v>
+        <v>259.75847975372579</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -4704,11 +4964,11 @@
       </c>
       <c r="B112" s="21">
         <f t="shared" si="5"/>
-        <v>412.38021632330396</v>
+        <v>45.830078390074569</v>
       </c>
       <c r="C112" s="21">
         <f t="shared" si="7"/>
-        <v>132.70914406999671</v>
+        <v>259.77920835205197</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -4718,11 +4978,11 @@
       </c>
       <c r="B113" s="21">
         <f t="shared" si="5"/>
-        <v>415.85307426605141</v>
+        <v>45.833740111126879</v>
       </c>
       <c r="C113" s="21">
         <f t="shared" si="7"/>
-        <v>133.65832356675725</v>
+        <v>259.79836617603945</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -4732,11 +4992,11 @@
       </c>
       <c r="B114" s="21">
         <f t="shared" si="5"/>
-        <v>419.30258841720399</v>
+        <v>45.837124353819391</v>
       </c>
       <c r="C114" s="21">
         <f t="shared" si="7"/>
-        <v>134.60112288652127</v>
+        <v>259.8160722560242</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -4746,11 +5006,11 @@
       </c>
       <c r="B115" s="21">
         <f t="shared" si="5"/>
-        <v>422.7289156886236</v>
+        <v>45.840252144942255</v>
       </c>
       <c r="C115" s="21">
         <f t="shared" si="7"/>
-        <v>135.5375849154432</v>
+        <v>259.83243660244636</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -4760,11 +5020,11 @@
       </c>
       <c r="B116" s="21">
         <f t="shared" si="5"/>
-        <v>426.13221193744505</v>
+        <v>45.843142917914868</v>
       </c>
       <c r="C116" s="21">
         <f t="shared" si="7"/>
-        <v>136.46775225140621</v>
+        <v>259.84756088936115</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -4774,11 +5034,11 @@
       </c>
       <c r="B117" s="21">
         <f t="shared" si="5"/>
-        <v>429.5126319731653</v>
+        <v>45.845814633528505</v>
       </c>
       <c r="C117" s="21">
         <f t="shared" si="7"/>
-        <v>137.39166720595969</v>
+        <v>259.86153908615427</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -4788,11 +5048,11 @@
       </c>
       <c r="B118" s="21">
         <f t="shared" si="5"/>
-        <v>432.87032956468607</v>
+        <v>45.848283891539367</v>
       </c>
       <c r="C118" s="21">
         <f t="shared" si="7"/>
-        <v>138.30937180624414</v>
+        <v>259.87445804138758</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -4802,11 +5062,11 @@
       </c>
       <c r="B119" s="21">
         <f t="shared" si="5"/>
-        <v>436.20545744730794</v>
+        <v>45.850566033805194</v>
       </c>
       <c r="C119" s="21">
         <f t="shared" si="7"/>
-        <v>139.22090779690279</v>
+        <v>259.88639802240158</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -4816,11 +5076,11 @@
       </c>
       <c r="B120" s="21">
         <f t="shared" si="5"/>
-        <v>439.51816732967814</v>
+        <v>45.852675239606533</v>
       </c>
       <c r="C120" s="21">
         <f t="shared" si="7"/>
-        <v>140.12631664198048</v>
+        <v>259.89743321402818</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -4830,11 +5090,11 @@
       </c>
       <c r="B121" s="21">
         <f t="shared" si="5"/>
-        <v>442.80860990069181</v>
+        <v>45.854624613744605</v>
       </c>
       <c r="C121" s="21">
         <f t="shared" si="7"/>
-        <v>141.02563952680984</v>
+        <v>259.90763217951172</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -4844,11 +5104,11 @@
       </c>
       <c r="B122" s="21">
         <f t="shared" si="5"/>
-        <v>446.07693483634608</v>
+        <v>45.856426267963336</v>
       </c>
       <c r="C122" s="21">
         <f t="shared" ref="C122:C153" si="9">(($B$20-B121)/($B$8*$B$9))+C121</f>
-        <v>141.91891735988469</v>
+        <v>259.91705828650231</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -4858,11 +5118,11 @@
       </c>
       <c r="B123" s="21">
         <f t="shared" si="5"/>
-        <v>449.32329080654881</v>
+        <v>45.858091396201417</v>
       </c>
       <c r="C123" s="21">
         <f t="shared" si="9"/>
-        <v>142.8061907747209</v>
+        <v>259.92577010076832</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -4872,11 +5132,11 @@
       </c>
       <c r="B124" s="21">
         <f t="shared" si="5"/>
-        <v>452.54782548188132</v>
+        <v>45.859630344141834</v>
       </c>
       <c r="C124" s="21">
         <f t="shared" si="9"/>
-        <v>143.68750013170475</v>
+        <v>259.933821750074</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -4886,11 +5146,11 @@
       </c>
       <c r="B125" s="21">
         <f t="shared" si="5"/>
-        <v>455.75068554031554</v>
+        <v>45.861052673491095</v>
       </c>
       <c r="C125" s="21">
         <f t="shared" si="9"/>
-        <v>144.56288551992881</v>
+        <v>259.94126326048291</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -4900,11 +5160,11 @@
       </c>
       <c r="B126" s="21">
         <f t="shared" si="5"/>
-        <v>458.93201667388604</v>
+        <v>45.862367221387501</v>
       </c>
       <c r="C126" s="21">
         <f t="shared" si="9"/>
-        <v>145.43238675901554</v>
+        <v>259.94814086717736</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -4914,11 +5174,11 @@
       </c>
       <c r="B127" s="21">
         <f t="shared" si="5"/>
-        <v>462.09196359531751</v>
+        <v>45.863582155307611</v>
       </c>
       <c r="C127" s="21">
         <f t="shared" si="9"/>
-        <v>146.2960434009286</v>
+        <v>259.95449730172419</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -4928,11 +5188,11 @@
       </c>
       <c r="B128" s="21">
         <f t="shared" si="5"/>
-        <v>465.23067004460739</v>
+        <v>45.864705023811858</v>
       </c>
       <c r="C128" s="21">
         <f t="shared" si="9"/>
-        <v>147.153894731772</v>
+        <v>259.9603720575721</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -4942,11 +5202,11 @@
       </c>
       <c r="B129" s="21">
         <f t="shared" si="5"/>
-        <v>468.34827879556411</v>
+        <v>45.865742803444959</v>
       </c>
       <c r="C129" s="21">
         <f t="shared" si="9"/>
-        <v>148.00597977357717</v>
+        <v>259.96580163543035</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -4956,11 +5216,11 @@
       </c>
       <c r="B130" s="21">
         <f t="shared" si="5"/>
-        <v>471.444931662302</v>
+        <v>45.866701942082109</v>
       </c>
       <c r="C130" s="21">
         <f t="shared" si="9"/>
-        <v>148.85233728607795</v>
+        <v>259.97081977005274</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -4970,11 +5230,11 @@
       </c>
       <c r="B131" s="21">
         <f t="shared" si="5"/>
-        <v>474.52076950569193</v>
+        <v>45.86758839899062</v>
       </c>
       <c r="C131" s="21">
         <f t="shared" si="9"/>
-        <v>149.6930057684738</v>
+        <v>259.97545763983669</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -4984,11 +5244,11 @@
       </c>
       <c r="B132" s="21">
         <f t="shared" si="5"/>
-        <v>477.57593223976846</v>
+        <v>45.868407681855707</v>
       </c>
       <c r="C132" s="21">
         <f t="shared" si="9"/>
-        <v>150.52802346118085</v>
+        <v>259.97974406053913</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -4998,11 +5258,11 @@
       </c>
       <c r="B133" s="21">
         <f t="shared" si="5"/>
-        <v>480.61055883809507</v>
+        <v>45.869164881000486</v>
       </c>
       <c r="C133" s="21">
         <f t="shared" si="9"/>
-        <v>151.35742834757164</v>
+        <v>259.98370566431288</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -5012,11 +5272,11 @@
       </c>
       <c r="B134" s="21">
         <f t="shared" si="5"/>
-        <v>483.62478734008511</v>
+        <v>45.869864701012972</v>
       </c>
       <c r="C134" s="21">
         <f t="shared" si="9"/>
-        <v>152.18125815570272</v>
+        <v>259.98736706517616</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -5026,11 +5286,11 @@
       </c>
       <c r="B135" s="21">
         <f t="shared" si="5"/>
-        <v>486.61875485728103</v>
+        <v>45.870511489976266</v>
       </c>
       <c r="C135" s="21">
         <f t="shared" si="9"/>
-        <v>152.9995503600309</v>
+        <v>259.99075101194296</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -5040,11 +5300,11 @@
       </c>
       <c r="B136" s="21">
         <f t="shared" si="5"/>
-        <v>489.59259757959171</v>
+        <v>45.87110926648392</v>
       </c>
       <c r="C136" s="21">
         <f t="shared" si="9"/>
-        <v>153.81234218311789</v>
+        <v>259.99387852956482</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -5054,11 +5314,11 @@
       </c>
       <c r="B137" s="21">
         <f t="shared" si="5"/>
-        <v>492.54645078148735</v>
+        <v>45.87166174460797</v>
       </c>
       <c r="C137" s="21">
         <f t="shared" si="9"/>
-        <v>154.61967059732353</v>
+        <v>259.99676904976184</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -5068,11 +5328,11 @@
       </c>
       <c r="B138" s="21">
         <f t="shared" si="5"/>
-        <v>495.48044882815236</v>
+        <v>45.872172356975042</v>
       </c>
       <c r="C138" s="21">
         <f t="shared" si="9"/>
-        <v>155.42157232648748</v>
+        <v>259.99944053175471</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -5082,11 +5342,11 @@
       </c>
       <c r="B139" s="21">
         <f t="shared" si="5"/>
-        <v>498.39472518159806</v>
+        <v>45.872644276093752</v>
       </c>
       <c r="C139" s="21">
         <f t="shared" si="9"/>
-        <v>156.21808384759979</v>
+        <v>260.00190957384814</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -5096,11 +5356,11 @@
       </c>
       <c r="B140" s="21">
         <f t="shared" si="5"/>
-        <v>501.28941240673316</v>
+        <v>45.873080434065955</v>
       </c>
       <c r="C140" s="21">
         <f t="shared" si="9"/>
-        <v>157.00924139246015</v>
+        <v>260.00419151655836</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -5110,11 +5370,11 @@
       </c>
       <c r="B141" s="21">
         <f t="shared" si="5"/>
-        <v>504.16464217739428</v>
+        <v>45.873483540804322</v>
       </c>
       <c r="C141" s="21">
         <f t="shared" si="9"/>
-        <v>157.79508094932609</v>
+        <v>260.00630053792605</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -5124,11 +5384,11 @@
       </c>
       <c r="B142" s="21">
         <f t="shared" si="5"/>
-        <v>507.02054528233504</v>
+        <v>45.873856100869425</v>
       </c>
       <c r="C142" s="21">
         <f t="shared" si="9"/>
-        <v>158.57563826454987</v>
+        <v>260.00824974160651</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -5138,11 +5398,11 @@
       </c>
       <c r="B143" s="21">
         <f t="shared" si="5"/>
-        <v>509.85725163117576</v>
+        <v>45.874200429030914</v>
       </c>
       <c r="C143" s="21">
         <f t="shared" si="9"/>
-        <v>159.35094884420459</v>
+        <v>260.01005123828457</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -5152,11 +5412,11 @@
       </c>
       <c r="B144" s="21">
         <f t="shared" si="5"/>
-        <v>512.67489026031274</v>
+        <v>45.874518664649557</v>
       </c>
       <c r="C144" s="21">
         <f t="shared" si="9"/>
-        <v>160.12104795569934</v>
+        <v>260.01171622092016</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -5166,11 +5426,11 @@
       </c>
       <c r="B145" s="21">
         <f t="shared" si="5"/>
-        <v>515.47358933878786</v>
+        <v>45.874812784969343</v>
       </c>
       <c r="C145" s="21">
         <f t="shared" si="9"/>
-        <v>160.88597062938337</v>
+        <v>260.01325503429155</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -5180,11 +5440,11 @@
       </c>
       <c r="B146" s="21">
         <f t="shared" si="5"/>
-        <v>518.25347617411853</v>
+        <v>45.875084617402436</v>
       </c>
       <c r="C146" s="21">
         <f t="shared" si="9"/>
-        <v>161.64575166013955</v>
+        <v>260.01467723926919</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -5194,11 +5454,11 @@
       </c>
       <c r="B147" s="21">
         <f t="shared" si="5"/>
-        <v>521.01467721808922</v>
+        <v>45.875335850883118</v>
       </c>
       <c r="C147" s="21">
         <f t="shared" si="9"/>
-        <v>162.40042560896723</v>
+        <v>260.0159916722186</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -5208,11 +5468,11 @@
       </c>
       <c r="B148" s="21">
         <f t="shared" si="5"/>
-        <v>523.75731807250293</v>
+        <v>45.875568046361415</v>
       </c>
       <c r="C148" s="21">
         <f t="shared" si="9"/>
-        <v>163.15002680455422</v>
+        <v>260.01720649990216</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -5222,11 +5482,11 @@
       </c>
       <c r="B149" s="21">
         <f t="shared" si="5"/>
-        <v>526.48152349489476</v>
+        <v>45.87578264650147</v>
       </c>
       <c r="C149" s="21">
         <f t="shared" si="9"/>
-        <v>163.89458934483841</v>
+        <v>260.01832927022031</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -5236,11 +5496,11 @@
       </c>
       <c r="B150" s="21">
         <f t="shared" si="5"/>
-        <v>529.18741740420705</v>
+        <v>45.875980984645032</v>
       </c>
       <c r="C150" s="21">
         <f t="shared" si="9"/>
-        <v>164.63414709855883</v>
+        <v>260.01936695910763</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -5250,11 +5510,11 @@
       </c>
       <c r="B151" s="21">
         <f t="shared" si="5"/>
-        <v>531.87512288642608</v>
+        <v>45.876164293095741</v>
       </c>
       <c r="C151" s="21">
         <f t="shared" si="9"/>
-        <v>165.36873370679623</v>
+        <v>260.02032601387555</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -5264,11 +5524,11 @@
       </c>
       <c r="B152" s="21">
         <f t="shared" si="5"/>
-        <v>534.54476220018103</v>
+        <v>45.87633371077554</v>
       </c>
       <c r="C152" s="21">
         <f t="shared" si="9"/>
-        <v>166.09838258450341</v>
+        <v>260.02121239327028</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -5278,11 +5538,11 @@
       </c>
       <c r="B153" s="21">
         <f t="shared" ref="B153:B216" si="10">$B$16*$B$15*(C153-20)</f>
-        <v>537.19645678230552</v>
+        <v>45.876490290301035</v>
       </c>
       <c r="C153" s="21">
         <f t="shared" si="9"/>
-        <v>166.82312692202512</v>
+        <v>260.02203160449545</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -5292,11 +5552,11 @@
       </c>
       <c r="B154" s="21">
         <f t="shared" si="10"/>
-        <v>539.83032725336091</v>
+        <v>45.876635004523507</v>
       </c>
       <c r="C154" s="21">
         <f t="shared" ref="C154:C185" si="12">(($B$20-B153)/($B$8*$B$9))+C153</f>
-        <v>167.54299968660789</v>
+        <v>260.0227887374291</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -5306,11 +5566,11 @@
       </c>
       <c r="B155" s="21">
         <f t="shared" si="10"/>
-        <v>542.44649342312391</v>
+        <v>45.876768752573362</v>
       </c>
       <c r="C155" s="21">
         <f t="shared" si="12"/>
-        <v>168.25803362389962</v>
+        <v>260.02348849624775</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -5320,11 +5580,11 @@
       </c>
       <c r="B156" s="21">
         <f t="shared" si="10"/>
-        <v>545.04507429603598</v>
+        <v>45.876892365446622</v>
       </c>
       <c r="C156" s="21">
         <f t="shared" si="12"/>
-        <v>168.96826125943915</v>
+        <v>260.02413522865436</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -5334,11 +5594,11 @@
       </c>
       <c r="B157" s="21">
         <f t="shared" si="10"/>
-        <v>547.62618807661659</v>
+        <v>45.877006611167985</v>
       </c>
       <c r="C157" s="21">
         <f t="shared" si="12"/>
-        <v>169.67371490013574</v>
+        <v>260.0247329528911</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -5348,11 +5608,11 @@
       </c>
       <c r="B158" s="21">
         <f t="shared" si="10"/>
-        <v>550.18995217484064</v>
+        <v>45.87711219956266</v>
       </c>
       <c r="C158" s="21">
         <f t="shared" si="12"/>
-        <v>170.37442663573867</v>
+        <v>260.02528538270525</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -5362,11 +5622,11 @@
       </c>
       <c r="B159" s="21">
         <f t="shared" si="10"/>
-        <v>552.73648321147846</v>
+        <v>45.877209786666647</v>
       </c>
       <c r="C159" s="21">
         <f t="shared" si="12"/>
-        <v>171.07042834029696</v>
+        <v>260.02579595042323</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -5376,11 +5636,11 @@
       </c>
       <c r="B160" s="21">
         <f t="shared" si="10"/>
-        <v>555.26589702340141</v>
+        <v>45.877299978802753</v>
       </c>
       <c r="C160" s="21">
         <f t="shared" si="12"/>
-        <v>171.76175167360921</v>
+        <v>260.02626782827627</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -5390,11 +5650,11 @@
       </c>
       <c r="B161" s="21">
         <f t="shared" si="10"/>
-        <v>557.77830866885029</v>
+        <v>45.877383336347798</v>
       </c>
       <c r="C161" s="21">
         <f t="shared" si="12"/>
-        <v>172.44842808266381</v>
+        <v>260.02670394810985</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -5404,11 +5664,11 @@
       </c>
       <c r="B162" s="21">
         <f t="shared" si="10"/>
-        <v>560.27383243267013</v>
+        <v>45.877460377214277</v>
       </c>
       <c r="C162" s="21">
         <f t="shared" si="12"/>
-        <v>173.13048880306937</v>
+        <v>260.02710701959967</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -5418,11 +5678,11 @@
       </c>
       <c r="B163" s="21">
         <f t="shared" si="10"/>
-        <v>562.75258183150788</v>
+        <v>45.877531580068258</v>
       </c>
       <c r="C163" s="21">
         <f t="shared" si="12"/>
-        <v>173.80796486047555</v>
+        <v>260.0274795470873</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -5432,11 +5692,11 @@
       </c>
       <c r="B164" s="21">
         <f t="shared" si="10"/>
-        <v>565.21466961897647</v>
+        <v>45.877597387303382</v>
       </c>
       <c r="C164" s="21">
         <f t="shared" si="12"/>
-        <v>174.4808870719844</v>
+        <v>260.02782384513995</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -5446,11 +5706,11 @@
       </c>
       <c r="B165" s="21">
         <f t="shared" si="10"/>
-        <v>567.66020779078372</v>
+        <v>45.877658207789551</v>
       </c>
       <c r="C165" s="21">
         <f t="shared" si="12"/>
-        <v>175.14928604755212</v>
+        <v>260.02814205293134</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -5460,11 +5720,11 @@
       </c>
       <c r="B166" s="21">
         <f t="shared" si="10"/>
-        <v>570.08930758982672</v>
+        <v>45.877714419413245</v>
       </c>
       <c r="C166" s="21">
         <f t="shared" si="12"/>
-        <v>175.81319219138152</v>
+        <v>260.0284361475326</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -5474,11 +5734,11 @@
       </c>
       <c r="B167" s="21">
         <f t="shared" si="10"/>
-        <v>572.50207951125219</v>
+        <v>45.877766371425423</v>
       </c>
       <c r="C167" s="21">
         <f t="shared" si="12"/>
-        <v>176.47263570330497</v>
+        <v>260.02870795619606</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -5488,11 +5748,11 @@
       </c>
       <c r="B168" s="21">
         <f t="shared" si="10"/>
-        <v>574.89863330748278</v>
+        <v>45.877814386611483</v>
       </c>
       <c r="C168" s="21">
         <f t="shared" si="12"/>
-        <v>177.1276465801582</v>
+        <v>260.02895916770836</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -5502,11 +5762,11 @@
       </c>
       <c r="B169" s="21">
         <f t="shared" si="10"/>
-        <v>577.27907799320917</v>
+        <v>45.877858763296715</v>
       </c>
       <c r="C169" s="21">
         <f t="shared" si="12"/>
-        <v>177.77825461714474</v>
+        <v>260.029191342883</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -5516,11 +5776,11 @@
       </c>
       <c r="B170" s="21">
         <f t="shared" si="10"/>
-        <v>579.6435218503492</v>
+        <v>45.877899777199886</v>
       </c>
       <c r="C170" s="21">
         <f t="shared" si="12"/>
-        <v>178.42448940919132</v>
+        <v>260.02940592425796</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -5530,11 +5790,11 @@
       </c>
       <c r="B171" s="21">
         <f t="shared" si="10"/>
-        <v>581.99207243297326</v>
+        <v>45.877937683146335</v>
       </c>
       <c r="C171" s="21">
         <f t="shared" si="12"/>
-        <v>179.066380352294</v>
+        <v>260.02960424505841</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -5544,11 +5804,11 @@
       </c>
       <c r="B172" s="21">
         <f t="shared" si="10"/>
-        <v>584.324836572197</v>
+        <v>45.877972716651193</v>
       </c>
       <c r="C172" s="21">
         <f t="shared" si="12"/>
-        <v>179.70395664485542</v>
+        <v>260.02978753748022</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -5558,11 +5818,11 @@
       </c>
       <c r="B173" s="21">
         <f t="shared" si="10"/>
-        <v>586.64192038104045</v>
+        <v>45.878005095382697</v>
       </c>
       <c r="C173" s="21">
         <f t="shared" si="12"/>
-        <v>180.33724728901291</v>
+        <v>260.02995694034576</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -5572,11 +5832,11 @@
       </c>
       <c r="B174" s="21">
         <f t="shared" si="10"/>
-        <v>588.94342925925514</v>
+        <v>45.878035020514595</v>
       </c>
       <c r="C174" s="21">
         <f t="shared" si="12"/>
-        <v>180.9662810919578</v>
+        <v>260.03011350617959</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -5586,11 +5846,11 @@
       </c>
       <c r="B175" s="21">
         <f t="shared" si="10"/>
-        <v>591.22946789811874</v>
+        <v>45.878062677976082</v>
       </c>
       <c r="C175" s="21">
         <f t="shared" si="12"/>
-        <v>181.59108666724575</v>
+        <v>260.03025820774792</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -5600,11 +5860,11 @@
       </c>
       <c r="B176" s="21">
         <f t="shared" si="10"/>
-        <v>593.50014028519684</v>
+        <v>45.878088239606967</v>
       </c>
       <c r="C176" s="21">
         <f t="shared" si="12"/>
-        <v>182.21169243609842</v>
+        <v>260.03039194410258</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -5614,11 +5874,11 @@
       </c>
       <c r="B177" s="21">
         <f t="shared" si="10"/>
-        <v>595.75554970907353</v>
+        <v>45.878111864225353</v>
       </c>
       <c r="C177" s="21">
         <f t="shared" si="12"/>
-        <v>182.82812662869617</v>
+        <v>260.03051554616684</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -5628,11 +5888,11 @@
       </c>
       <c r="B178" s="21">
         <f t="shared" si="10"/>
-        <v>597.99579876404937</v>
+        <v>45.878133698614434</v>
       </c>
       <c r="C178" s="21">
         <f t="shared" si="12"/>
-        <v>183.44041728546227</v>
+        <v>260.03062978189831</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -5642,11 +5902,11 @@
       </c>
       <c r="B179" s="21">
         <f t="shared" si="10"/>
-        <v>600.22098935480858</v>
+        <v>45.878153878434425</v>
       </c>
       <c r="C179" s="21">
         <f t="shared" si="12"/>
-        <v>184.04859225833843</v>
+        <v>260.03073536106012</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -5656,11 +5916,11 @@
       </c>
       <c r="B180" s="21">
         <f t="shared" si="10"/>
-        <v>602.43122270105471</v>
+        <v>45.878172529065473</v>
       </c>
       <c r="C180" s="21">
         <f t="shared" si="12"/>
-        <v>184.65267921205168</v>
+        <v>260.0308329396309</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -5670,11 +5930,11 @@
       </c>
       <c r="B181" s="21">
         <f t="shared" si="10"/>
-        <v>604.62659934211388</v>
+        <v>45.878189766386647</v>
       </c>
       <c r="C181" s="21">
         <f t="shared" si="12"/>
-        <v>185.25270562537278</v>
+        <v>260.03092312388043</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -5684,11 +5944,11 @@
       </c>
       <c r="B182" s="21">
         <f t="shared" si="10"/>
-        <v>606.80721914150968</v>
+        <v>45.878205697495922</v>
       </c>
       <c r="C182" s="21">
         <f t="shared" si="12"/>
-        <v>185.84869879236626</v>
+        <v>260.03100647413652</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -5698,11 +5958,11 @@
       </c>
       <c r="B183" s="21">
         <f t="shared" si="10"/>
-        <v>608.97318129150426</v>
+        <v>45.878220421375588</v>
       </c>
       <c r="C183" s="21">
         <f t="shared" si="12"/>
-        <v>186.44068582363187</v>
+        <v>260.03108350826636</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -5712,11 +5972,11 @@
       </c>
       <c r="B184" s="21">
         <f t="shared" si="10"/>
-        <v>611.12458431761138</v>
+        <v>45.87823402950724</v>
       </c>
       <c r="C184" s="21">
         <f t="shared" si="12"/>
-        <v>187.02869364753784</v>
+        <v>260.03115470489422</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -5726,11 +5986,11 @@
       </c>
       <c r="B185" s="21">
         <f t="shared" si="10"/>
-        <v>613.26152608307791</v>
+        <v>45.878246606440179</v>
       </c>
       <c r="C185" s="21">
         <f t="shared" si="12"/>
-        <v>187.6127490114458</v>
+        <v>260.03122050637501</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -5740,11 +6000,11 @@
       </c>
       <c r="B186" s="21">
         <f t="shared" si="10"/>
-        <v>615.38410379333516</v>
+        <v>45.878258230316703</v>
       </c>
       <c r="C186" s="21">
         <f t="shared" ref="C186:C217" si="14">(($B$20-B185)/($B$8*$B$9))+C185</f>
-        <v>188.19287848292751</v>
+        <v>260.03128132154291</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -5754,11 +6014,11 @@
       </c>
       <c r="B187" s="21">
         <f t="shared" si="10"/>
-        <v>617.49241400042104</v>
+        <v>45.878268973357649</v>
       </c>
       <c r="C187" s="21">
         <f t="shared" si="14"/>
-        <v>188.76910845097328</v>
+        <v>260.0313375282513</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -5768,11 +6028,11 @@
       </c>
       <c r="B188" s="21">
         <f t="shared" si="10"/>
-        <v>619.58655260737146</v>
+        <v>45.878278902311081</v>
       </c>
       <c r="C188" s="21">
         <f t="shared" si="14"/>
-        <v>189.34146512719238</v>
+        <v>260.03138947572069</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -5782,11 +6042,11 @@
       </c>
       <c r="B189" s="21">
         <f t="shared" si="10"/>
-        <v>621.66661487258341</v>
+        <v>45.878288078867023</v>
       </c>
       <c r="C189" s="21">
         <f t="shared" si="14"/>
-        <v>189.90997454700542</v>
+        <v>260.03143748670817</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -5796,11 +6056,11 @@
       </c>
       <c r="B190" s="21">
         <f t="shared" si="10"/>
-        <v>623.73269541414754</v>
+        <v>45.878296560040759</v>
       </c>
       <c r="C190" s="21">
         <f t="shared" si="14"/>
-        <v>190.47466257082857</v>
+        <v>260.03148185951301</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -5810,11 +6070,11 @@
       </c>
       <c r="B191" s="21">
         <f t="shared" si="10"/>
-        <v>625.78488821415249</v>
+        <v>45.878304398527035</v>
       </c>
       <c r="C191" s="21">
         <f t="shared" si="14"/>
-        <v>191.03555488524995</v>
+        <v>260.03152286982981</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -5824,11 +6084,11 @@
       </c>
       <c r="B192" s="21">
         <f t="shared" si="10"/>
-        <v>627.82328662295993</v>
+        <v>45.878311643027509</v>
       </c>
       <c r="C192" s="21">
         <f t="shared" si="14"/>
-        <v>191.59267700419809</v>
+        <v>260.03156077246166</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -5838,11 +6098,11 @@
       </c>
       <c r="B193" s="21">
         <f t="shared" si="10"/>
-        <v>629.84798336345068</v>
+        <v>45.878318338553314</v>
       </c>
       <c r="C193" s="21">
         <f t="shared" si="14"/>
-        <v>192.14605427010241</v>
+        <v>260.0315958029031</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -5852,11 +6112,11 @@
       </c>
       <c r="B194" s="21">
         <f t="shared" si="10"/>
-        <v>631.85907053524272</v>
+        <v>45.878324526704723</v>
       </c>
       <c r="C194" s="21">
         <f t="shared" si="14"/>
-        <v>192.69571185504611</v>
+        <v>260.03162817880332</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -5866,11 +6126,11 @@
       </c>
       <c r="B195" s="21">
         <f t="shared" si="10"/>
-        <v>633.85663961888042</v>
+        <v>45.878330245929611</v>
       </c>
       <c r="C195" s="21">
         <f t="shared" si="14"/>
-        <v>193.24167476191113</v>
+        <v>260.0316581013185</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -5880,11 +6140,11 @@
       </c>
       <c r="B196" s="21">
         <f t="shared" si="10"/>
-        <v>635.84078147999594</v>
+        <v>45.878335531762353</v>
       </c>
       <c r="C196" s="21">
         <f t="shared" si="14"/>
-        <v>193.78396782551548</v>
+        <v>260.03168575636153</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -5894,11 +6154,11 @@
       </c>
       <c r="B197" s="21">
         <f t="shared" si="10"/>
-        <v>637.81158637344288</v>
+        <v>45.878340417044598</v>
       </c>
       <c r="C197" s="21">
         <f t="shared" si="14"/>
-        <v>194.32261571374301</v>
+        <v>260.03171131575726</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -5908,11 +6168,11 @@
       </c>
       <c r="B198" s="21">
         <f t="shared" si="10"/>
-        <v>639.76914394740095</v>
+        <v>45.878344932129309</v>
       </c>
       <c r="C198" s="21">
         <f t="shared" si="14"/>
-        <v>194.8576429286654</v>
+        <v>260.03173493830985</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -5922,11 +6182,11 @@
       </c>
       <c r="B199" s="21">
         <f t="shared" si="10"/>
-        <v>641.7135432474546</v>
+        <v>45.878349105069361</v>
       </c>
       <c r="C199" s="21">
         <f t="shared" si="14"/>
-        <v>195.38907380765679</v>
+        <v>260.03175677078968</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -5936,11 +6196,11 @@
       </c>
       <c r="B200" s="21">
         <f t="shared" si="10"/>
-        <v>643.64487272064355</v>
+        <v>45.878352961791833</v>
       </c>
       <c r="C200" s="21">
         <f t="shared" si="14"/>
-        <v>195.91693252450082</v>
+        <v>260.03177694884511</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -5950,11 +6210,11 @@
       </c>
       <c r="B201" s="21">
         <f t="shared" si="10"/>
-        <v>645.56322021948563</v>
+        <v>45.878356526259104</v>
       </c>
       <c r="C201" s="21">
         <f t="shared" si="14"/>
-        <v>196.44124309049025</v>
+        <v>260.0317955978453</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -5964,11 +6224,11 @@
       </c>
       <c r="B202" s="21">
         <f t="shared" si="10"/>
-        <v>647.4686730059733</v>
+        <v>45.878359820617732</v>
       </c>
       <c r="C202" s="21">
         <f t="shared" si="14"/>
-        <v>196.96202935551912</v>
+        <v>260.03181283365922</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -5978,11 +6238,11 @@
       </c>
       <c r="B203" s="21">
         <f t="shared" si="10"/>
-        <v>649.36131775554293</v>
+        <v>45.878362865336022</v>
       </c>
       <c r="C203" s="21">
         <f t="shared" si="14"/>
-        <v>197.47931500916775</v>
+        <v>260.03182876337542</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -5992,11 +6252,11 @@
       </c>
       <c r="B204" s="21">
         <f t="shared" si="10"/>
-        <v>651.24124056101766</v>
+        <v>45.878365679331282</v>
       </c>
       <c r="C204" s="21">
         <f t="shared" si="14"/>
-        <v>197.99312358178028</v>
+        <v>260.03184348596761</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -6006,11 +6266,11 @@
       </c>
       <c r="B205" s="21">
         <f t="shared" si="10"/>
-        <v>653.1085269365235</v>
+        <v>45.878368280087237</v>
       </c>
       <c r="C205" s="21">
         <f t="shared" si="14"/>
-        <v>198.50347844553502</v>
+        <v>260.03185709290932</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -6020,11 +6280,11 @@
       </c>
       <c r="B206" s="21">
         <f t="shared" si="10"/>
-        <v>654.96326182137921</v>
+        <v>45.878370683762789</v>
       </c>
       <c r="C206" s="21">
         <f t="shared" si="14"/>
-        <v>199.0104028155076</v>
+        <v>260.0318696687425</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -6034,11 +6294,11 @@
       </c>
       <c r="B207" s="21">
         <f t="shared" si="10"/>
-        <v>656.80552958395981</v>
+        <v>45.878372905292302</v>
       </c>
       <c r="C207" s="21">
         <f t="shared" si="14"/>
-        <v>199.51391975072698</v>
+        <v>260.03188129160259</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -6048,11 +6308,11 @@
       </c>
       <c r="B208" s="21">
         <f t="shared" si="10"/>
-        <v>658.63541402553506</v>
+        <v>45.878374958478481</v>
       </c>
       <c r="C208" s="21">
         <f t="shared" si="14"/>
-        <v>200.01405215522442</v>
+        <v>260.03189203370414</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -6062,11 +6322,11 @@
       </c>
       <c r="B209" s="21">
         <f t="shared" si="10"/>
-        <v>660.45299838408039</v>
+        <v>45.878376856078056</v>
       </c>
       <c r="C209" s="21">
         <f t="shared" si="14"/>
-        <v>200.51082277907523</v>
+        <v>260.03190196178934</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -6076,11 +6336,11 @@
       </c>
       <c r="B210" s="21">
         <f t="shared" si="10"/>
-        <v>662.25836533806398</v>
+        <v>45.878378609881089</v>
       </c>
       <c r="C210" s="21">
         <f t="shared" si="14"/>
-        <v>201.0042542194337</v>
+        <v>260.03191113754286</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -6090,11 +6350,11 @@
       </c>
       <c r="B211" s="21">
         <f t="shared" si="10"/>
-        <v>664.05159701020739</v>
+        <v>45.878380230784224</v>
       </c>
       <c r="C211" s="21">
         <f t="shared" si="14"/>
-        <v>201.494368921561</v>
+        <v>260.03191961797501</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -6104,11 +6364,11 @@
       </c>
       <c r="B212" s="21">
         <f t="shared" si="10"/>
-        <v>665.83277497122117</v>
+        <v>45.878381728858351</v>
       </c>
       <c r="C212" s="21">
         <f t="shared" si="14"/>
-        <v>201.98118917984618</v>
+        <v>260.03192745577587</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -6118,11 +6378,11 @@
       </c>
       <c r="B213" s="21">
         <f t="shared" si="10"/>
-        <v>667.60198024351564</v>
+        <v>45.878383113411225</v>
       </c>
       <c r="C213" s="21">
         <f t="shared" si="14"/>
-        <v>202.46473713882028</v>
+        <v>260.03193469964287</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -6132,11 +6392,11 @@
       </c>
       <c r="B214" s="21">
         <f t="shared" si="10"/>
-        <v>669.35929330488591</v>
+        <v>45.87838439304528</v>
       </c>
       <c r="C214" s="21">
         <f t="shared" si="14"/>
-        <v>202.94503479416363</v>
+        <v>260.03194139458321</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -6146,11 +6406,11 @@
       </c>
       <c r="B215" s="21">
         <f t="shared" si="10"/>
-        <v>671.10479409217294</v>
+        <v>45.878385575711064</v>
       </c>
       <c r="C215" s="21">
         <f t="shared" si="14"/>
-        <v>203.4221039937064</v>
+        <v>260.03194758219354</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
@@ -6160,11 +6420,11 @@
       </c>
       <c r="B216" s="21">
         <f t="shared" si="10"/>
-        <v>672.83856200489993</v>
+        <v>45.878386668756647</v>
       </c>
       <c r="C216" s="21">
         <f t="shared" si="14"/>
-        <v>203.89596643842242</v>
+        <v>260.0319533009183</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
@@ -6173,12 +6433,12 @@
         <v>960</v>
       </c>
       <c r="B217" s="21">
-        <f t="shared" ref="B217:B280" si="15">$B$16*$B$15*(C217-20)</f>
-        <v>674.5606759088837</v>
+        <f t="shared" ref="B217:B225" si="15">$B$16*$B$15*(C217-20)</f>
+        <v>45.87838767897329</v>
       </c>
       <c r="C217" s="21">
         <f t="shared" si="14"/>
-        <v>204.36664368341636</v>
+        <v>260.03195858628885</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -6188,11 +6448,11 @@
       </c>
       <c r="B218" s="21">
         <f t="shared" si="15"/>
-        <v>676.2712141398224</v>
+        <v>45.8783886126376</v>
       </c>
       <c r="C218" s="21">
         <f t="shared" ref="C218:C225" si="17">(($B$20-B217)/($B$8*$B$9))+C217</f>
-        <v>204.83415713890415</v>
+        <v>260.03196347114391</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -6202,11 +6462,11 @@
       </c>
       <c r="B219" s="21">
         <f t="shared" si="15"/>
-        <v>677.97025450685874</v>
+        <v>45.878389475550591</v>
       </c>
       <c r="C219" s="21">
         <f t="shared" si="17"/>
-        <v>205.29852807118695</v>
+        <v>260.03196798583383</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -6216,11 +6476,11 @@
       </c>
       <c r="B220" s="21">
         <f t="shared" si="15"/>
-        <v>679.6578742961193</v>
+        <v>45.878390273073649</v>
       </c>
       <c r="C220" s="21">
         <f t="shared" si="17"/>
-        <v>205.75977760361849</v>
+        <v>260.03197215840902</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
@@ -6230,11 +6490,11 @@
       </c>
       <c r="B221" s="21">
         <f t="shared" si="15"/>
-        <v>681.3341502742303</v>
+        <v>45.878391010161899</v>
       </c>
       <c r="C221" s="21">
         <f t="shared" si="17"/>
-        <v>206.21792671756594</v>
+        <v>260.03197601479422</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -6244,11 +6504,11 @@
       </c>
       <c r="B222" s="21">
         <f t="shared" si="15"/>
-        <v>682.99915869180938</v>
+        <v>45.878391691394981</v>
       </c>
       <c r="C222" s="21">
         <f t="shared" si="17"/>
-        <v>206.67299625336432</v>
+        <v>260.0319795789498</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -6258,11 +6518,11 @@
       </c>
       <c r="B223" s="21">
         <f t="shared" si="15"/>
-        <v>684.65297528693418</v>
+        <v>45.878392321005499</v>
       </c>
       <c r="C223" s="21">
         <f t="shared" si="17"/>
-        <v>207.12500691126442</v>
+        <v>260.03198287302035</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -6272,11 +6532,11 @@
       </c>
       <c r="B224" s="21">
         <f t="shared" si="15"/>
-        <v>686.29567528858797</v>
+        <v>45.878392902905311</v>
       </c>
       <c r="C224" s="21">
         <f t="shared" si="17"/>
-        <v>207.57397925237456</v>
+        <v>260.03198591747241</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
@@ -6286,11 +6546,11 @@
       </c>
       <c r="B225" s="21">
         <f t="shared" si="15"/>
-        <v>687.92733342008069</v>
+        <v>45.878393440709843</v>
       </c>
       <c r="C225" s="21">
         <f t="shared" si="17"/>
-        <v>208.0199336995957</v>
+        <v>260.03198873122159</v>
       </c>
     </row>
   </sheetData>
@@ -6310,39 +6570,42 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="P30" sqref="C30:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11.08984375" customWidth="1"/>
     <col min="5" max="5" width="8.54296875" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" customWidth="1"/>
-    <col min="18" max="18" width="8.6328125" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" customWidth="1"/>
-    <col min="23" max="23" width="10.1796875" customWidth="1"/>
-    <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="26" max="26" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" customWidth="1"/>
+    <col min="19" max="19" width="8.6328125" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" customWidth="1"/>
+    <col min="24" max="24" width="10.1796875" customWidth="1"/>
+    <col min="25" max="25" width="19" customWidth="1"/>
+    <col min="27" max="27" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -6357,8 +6620,9 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
@@ -6367,7 +6631,7 @@
         <v>0.05</v>
       </c>
       <c r="D2" s="16">
-        <f t="shared" ref="D2:O2" si="0">D3/100</f>
+        <f t="shared" ref="D2:P2" si="0">D3/100</f>
         <v>0.1</v>
       </c>
       <c r="E2" s="16">
@@ -6380,42 +6644,46 @@
       </c>
       <c r="G2" s="16">
         <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="16">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="H2" s="16">
+      <c r="I2" s="16">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J2" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J2" s="16">
+      <c r="K2" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="L2" s="16">
+      <c r="M2" s="16">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="M2" s="16">
+      <c r="N2" s="16">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="N2" s="16">
+      <c r="O2" s="16">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="O2" s="16">
+      <c r="P2" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
@@ -6432,91 +6700,99 @@
         <v>20</v>
       </c>
       <c r="G3" s="12">
+        <v>25</v>
+      </c>
+      <c r="H3" s="12">
         <v>30</v>
       </c>
-      <c r="H3" s="12">
+      <c r="I3" s="12">
         <v>40</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>50</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>60</v>
       </c>
-      <c r="K3" s="12">
+      <c r="L3" s="12">
         <v>70</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <v>80</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>90</v>
       </c>
-      <c r="N3" s="12">
+      <c r="O3" s="12">
         <v>95</v>
       </c>
-      <c r="O3" s="12">
+      <c r="P3" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="19">
-        <f t="shared" ref="C4:O4" si="1">$N$9+$N$10*C2+$N$11*C2^2+$N$12*C2^3+$N$13*C2^4+$N$14*C2^5+$N$15*C2^6</f>
-        <v>3.224409045234375</v>
+        <f t="shared" ref="C4:P4" si="1">$O$9+$O$10*C2+$O$11*C2^2+$O$12*C2^3+$O$13*C2^4+$O$14*C2^5+$O$15*C2^6</f>
+        <v>3.1557733512500001</v>
       </c>
       <c r="D4" s="19">
         <f t="shared" si="1"/>
-        <v>3.4799221949999999</v>
+        <v>3.1893646200000001</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" si="1"/>
-        <v>3.6186187196093749</v>
+        <v>3.2160869512500003</v>
       </c>
       <c r="F4" s="19">
         <f t="shared" si="1"/>
-        <v>3.6887980799999998</v>
+        <v>3.2371419199999996</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" si="1"/>
-        <v>3.7447639550000011</v>
+        <v>3.25361953125</v>
       </c>
       <c r="H4" s="19">
         <f t="shared" si="1"/>
-        <v>3.7868323199999985</v>
+        <v>3.2664982199999995</v>
       </c>
       <c r="I4" s="19">
         <f t="shared" si="1"/>
-        <v>3.8439468750000012</v>
+        <v>3.2848147199999995</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" si="1"/>
-        <v>3.8995539199999998</v>
+        <v>3.2976874999999999</v>
       </c>
       <c r="K4" s="19">
         <f t="shared" si="1"/>
-        <v>3.9370901549999933</v>
+        <v>3.3089275199999997</v>
       </c>
       <c r="L4" s="19">
         <f t="shared" si="1"/>
-        <v>3.9663868799999884</v>
+        <v>3.3205606200000002</v>
       </c>
       <c r="M4" s="19">
         <f t="shared" si="1"/>
-        <v>4.0309905950000182</v>
+        <v>3.3328275200000004</v>
       </c>
       <c r="N4" s="19">
         <f t="shared" si="1"/>
-        <v>4.0968564171093682</v>
+        <v>3.3441838199999996</v>
       </c>
       <c r="O4" s="19">
         <f t="shared" si="1"/>
-        <v>4.1963999999999935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>3.3485497512500002</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" si="1"/>
+        <v>3.3512999999999993</v>
+      </c>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -6524,204 +6800,515 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="M8" s="48" t="s">
+        <v>3.6074582924435399</v>
+      </c>
+      <c r="N8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
-        <v>0.97</v>
+        <v>0.99298469387754895</v>
       </c>
       <c r="C9" s="2">
-        <v>4.1204881963062254</v>
-      </c>
-      <c r="M9" t="s">
+        <v>3.4425632372674002</v>
+      </c>
+      <c r="N9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="2">
-        <v>2.7854000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O9" s="2">
+        <v>3.1139999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
-        <v>0.93846417291659601</v>
+        <v>0.98660714285714102</v>
       </c>
       <c r="C10" s="2">
-        <v>4.0534640676198954</v>
-      </c>
-      <c r="M10" t="s">
+        <v>3.3797315295107002</v>
+      </c>
+      <c r="N10" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="2">
-        <v>11.166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O10" s="2">
+        <v>0.92659999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
-        <v>0.87215402215472682</v>
+        <v>0.97576530612244705</v>
       </c>
       <c r="C11" s="2">
-        <v>4.01995200327673</v>
-      </c>
-      <c r="M11" t="s">
+        <v>3.3561364683262598</v>
+      </c>
+      <c r="N11" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="2">
-        <v>-54.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O11" s="2">
+        <v>-1.9195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
-        <v>0.79981879842988335</v>
+        <v>0.95535714285714102</v>
       </c>
       <c r="C12" s="2">
-        <v>3.973035113196306</v>
-      </c>
-      <c r="M12" t="s">
+        <v>3.3482055236225698</v>
+      </c>
+      <c r="N12" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="2">
-        <v>134.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O12" s="2">
+        <v>1.974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
-        <v>0.71542332637640005</v>
+        <v>0.75127551020408101</v>
       </c>
       <c r="C13" s="2">
-        <v>3.9328206359845059</v>
-      </c>
-      <c r="M13" t="s">
+        <v>3.3317027497946898</v>
+      </c>
+      <c r="N13" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="2">
-        <v>-172.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O13" s="2">
+        <v>-0.74380000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
-        <v>0.6280112768803533</v>
+        <v>0.60331632653061196</v>
       </c>
       <c r="C14" s="2">
-        <v>3.8993085716413458</v>
-      </c>
-      <c r="M14" t="s">
+        <v>3.2997186116841002</v>
+      </c>
+      <c r="N14" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="2">
-        <v>109.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
-        <v>0.53909194890329337</v>
+        <v>0.46045918367347</v>
       </c>
       <c r="C15" s="2">
-        <v>3.8657965072981759</v>
-      </c>
-      <c r="M15" t="s">
+        <v>3.2991578378161601</v>
+      </c>
+      <c r="N15" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="2">
-        <v>-26.504999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
-        <v>0.43208932011515833</v>
+        <v>0.29464285714285898</v>
       </c>
       <c r="C16" s="2">
-        <v>3.8188796172177457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.2671036029720799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
-        <v>0.31755433988303328</v>
+        <v>0.16964285714286001</v>
       </c>
       <c r="C17" s="2">
-        <v>3.7585579014000556</v>
-      </c>
-      <c r="M17" t="s">
+        <v>3.2195079209308601</v>
+      </c>
+      <c r="N17" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="17">
-        <f>$N$9+$N$10*N18+$N$11*N18^2+$N$12*N18^3+$N$13*N18^4+$N$14*N18^5+$N$15*N18^6</f>
-        <v>3.8439468750000012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="17">
+        <f>$O$9+$O$10*O18+$O$11*O18^2+$O$12*O18^3+$O$13*O18^4+$O$14*O18^5+$O$15*O18^6</f>
+        <v>3.2976874999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
-        <v>0.22714187678872499</v>
+        <v>9.3112244897963103E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>3.6781289469764658</v>
-      </c>
-      <c r="M18" t="s">
+        <v>3.1878041697542399</v>
+      </c>
+      <c r="N18" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
-        <v>0.14124518769584171</v>
+        <v>6.2500000000004205E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>3.6178072311587659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3.10525024533854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
-        <v>7.3488372869086604E-2</v>
+        <v>3.9540816326534903E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>3.383222780756626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3.0070246940778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
-        <v>2.762548514722829E-2</v>
+        <v>2.1683673469391901E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>3.0212924858504557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.8852666680018202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
-        <v>0</v>
+        <v>8.9285714285758308E-3</v>
       </c>
       <c r="C22" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.7242744988083301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="2">
+        <v>2.5510204081677901E-3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.5162023592557499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="49"/>
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16">
+        <f>C29/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" ref="D28:P28" si="2">D29/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="P28" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="49"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="22">
+        <v>5</v>
+      </c>
+      <c r="D29" s="22">
+        <v>10</v>
+      </c>
+      <c r="E29" s="22">
+        <v>15</v>
+      </c>
+      <c r="F29" s="22">
+        <v>20</v>
+      </c>
+      <c r="G29" s="22">
+        <v>25</v>
+      </c>
+      <c r="H29" s="22">
+        <v>30</v>
+      </c>
+      <c r="I29" s="22">
+        <v>40</v>
+      </c>
+      <c r="J29" s="22">
+        <v>50</v>
+      </c>
+      <c r="K29" s="22">
+        <v>60</v>
+      </c>
+      <c r="L29" s="22">
+        <v>70</v>
+      </c>
+      <c r="M29" s="22">
+        <v>80</v>
+      </c>
+      <c r="N29" s="22">
+        <v>90</v>
+      </c>
+      <c r="O29" s="22">
+        <v>95</v>
+      </c>
+      <c r="P29" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="49"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="22">
+        <v>3.01</v>
+      </c>
+      <c r="D30" s="22">
+        <v>3.1893646200000001</v>
+      </c>
+      <c r="E30" s="22">
+        <v>3.2160869512500003</v>
+      </c>
+      <c r="F30" s="22">
+        <v>3.2371419199999996</v>
+      </c>
+      <c r="G30" s="22">
+        <v>3.25361953125</v>
+      </c>
+      <c r="H30" s="22">
+        <v>3.2664982199999995</v>
+      </c>
+      <c r="I30" s="22">
+        <v>3.2848147199999995</v>
+      </c>
+      <c r="J30" s="22">
+        <v>3.2976874999999999</v>
+      </c>
+      <c r="K30" s="22">
+        <v>3.3089275199999997</v>
+      </c>
+      <c r="L30" s="22">
+        <v>3.3205606200000002</v>
+      </c>
+      <c r="M30" s="22">
+        <v>3.3328275200000004</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.3441838199999996</v>
+      </c>
+      <c r="O30" s="22">
+        <v>3.34</v>
+      </c>
+      <c r="P30" s="22">
+        <v>3.6</v>
+      </c>
+      <c r="Q30" s="49"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="N8:O8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6730,7 +7317,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6740,18 +7327,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -6774,7 +7361,7 @@
       </c>
       <c r="B4" s="22">
         <f>(PI()*(B3*2*B2+2*B2^2))/(1000^2)</f>
-        <v>4.1846014145816048E-3</v>
+        <v>6.3711499014801002E-3</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>15</v>
@@ -6784,18 +7371,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -6829,7 +7416,7 @@
       </c>
       <c r="B10" s="22">
         <f>(B7*B8*2+B7*B9*2+B8*B9*2)/(1000^2)</f>
-        <v>0.12196</v>
+        <v>0.12520800000000001</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>15</v>
@@ -6844,7 +7431,7 @@
       </c>
       <c r="B11" s="22">
         <f>(B7*B9*2+2*B8*B9)/(1000^2)</f>
-        <v>2.1160000000000002E-2</v>
+        <v>2.1527999999999999E-2</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>15</v>

--- a/SimBAlink_CL/Profile_Generation_Scripts/cellProfile_Calculator.xlsx
+++ b/SimBAlink_CL/Profile_Generation_Scripts/cellProfile_Calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="11240"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21600" windowHeight="11240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="alphaMask_Calc" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="OCVcurve_fit" sheetId="8" r:id="rId3"/>
     <sheet name="surfaceArea_Calc" sheetId="4" r:id="rId4"/>
     <sheet name="crp_corner" sheetId="5" r:id="rId5"/>
+    <sheet name="efficiencyMap" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>C</t>
   </si>
@@ -269,6 +270,12 @@
   <si>
     <t>`</t>
   </si>
+  <si>
+    <t>RPM/Torque</t>
+  </si>
+  <si>
+    <t>Scalar Maps</t>
+  </si>
 </sst>
 </file>
 
@@ -277,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +394,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -733,15 +748,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
@@ -840,6 +856,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,11 +883,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,11 +1169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1898431664"/>
-        <c:axId val="-1898436016"/>
+        <c:axId val="1153157280"/>
+        <c:axId val="1153148576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1898431664"/>
+        <c:axId val="1153157280"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1"/>
@@ -1199,13 +1231,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898436016"/>
+        <c:crossAx val="1153148576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1898436016"/>
+        <c:axId val="1153148576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.2"/>
@@ -1264,7 +1296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898431664"/>
+        <c:crossAx val="1153157280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2171,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2227,23 +2259,23 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="37" t="s">
@@ -2758,59 +2790,59 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="45">
-        <f>D4*$C$11</f>
+        <f t="shared" ref="D11:Q11" si="12">D4*$C$11</f>
         <v>0.6</v>
       </c>
       <c r="E11" s="45">
-        <f>E4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="F11" s="45">
-        <f>F4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="G11" s="45">
-        <f>G4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H11" s="45">
-        <f>H4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I11" s="45">
-        <f>I4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="J11" s="45">
-        <f>J4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="K11" s="45">
-        <f>K4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="L11" s="45">
-        <f>L4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M11" s="45">
-        <f>M4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.495</v>
       </c>
       <c r="N11" s="45">
-        <f>N4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.48</v>
       </c>
       <c r="O11" s="45">
-        <f>O4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="P11" s="45">
-        <f>P4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.44</v>
       </c>
       <c r="Q11" s="45">
-        <f>Q4*$C$11</f>
+        <f t="shared" si="12"/>
         <v>0.42499999999999999</v>
       </c>
     </row>
@@ -2959,23 +2991,23 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="49"/>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
       <c r="R19" s="49"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
@@ -3033,59 +3065,59 @@
         <v>-5</v>
       </c>
       <c r="D21" s="46">
-        <f>D5*$G$17/$G$16</f>
+        <f t="shared" ref="D21:Q21" si="13">D5*$G$17/$G$16</f>
         <v>2.3519999999999999E-2</v>
       </c>
       <c r="E21" s="46">
-        <f>E5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>2.3519999999999999E-2</v>
       </c>
       <c r="F21" s="46">
-        <f>F5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>2.2539999999999998E-2</v>
       </c>
       <c r="G21" s="46">
-        <f>G5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>2.1560000000000003E-2</v>
       </c>
       <c r="H21" s="46">
-        <f>H5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>2.1560000000000003E-2</v>
       </c>
       <c r="I21" s="46">
-        <f>I5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>2.0580000000000001E-2</v>
       </c>
       <c r="J21" s="46">
-        <f>J5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="K21" s="46">
-        <f>K5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="L21" s="46">
-        <f>L5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="M21" s="46">
-        <f>M5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>1.9403999999999998E-2</v>
       </c>
       <c r="N21" s="46">
-        <f>N5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>1.8815999999999999E-2</v>
       </c>
       <c r="O21" s="46">
-        <f>O5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>1.7836000000000001E-2</v>
       </c>
       <c r="P21" s="46">
-        <f>P5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>1.7247999999999999E-2</v>
       </c>
       <c r="Q21" s="46">
-        <f>Q5*$G$17/$G$16</f>
+        <f t="shared" si="13"/>
         <v>1.6659999999999998E-2</v>
       </c>
       <c r="R21" s="49"/>
@@ -3096,59 +3128,59 @@
         <v>5</v>
       </c>
       <c r="D22" s="46">
-        <f>D6*$G$17/$G$16</f>
+        <f t="shared" ref="D22:Q22" si="14">D6*$G$17/$G$16</f>
         <v>9.4079999999999997E-3</v>
       </c>
       <c r="E22" s="46">
-        <f>E6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>9.4079999999999997E-3</v>
       </c>
       <c r="F22" s="46">
-        <f>F6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>9.0159999999999997E-3</v>
       </c>
       <c r="G22" s="46">
-        <f>G6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>8.6240000000000015E-3</v>
       </c>
       <c r="H22" s="46">
-        <f>H6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>8.6240000000000015E-3</v>
       </c>
       <c r="I22" s="46">
-        <f>I6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>8.2319999999999997E-3</v>
       </c>
       <c r="J22" s="46">
-        <f>J6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>7.8399999999999997E-3</v>
       </c>
       <c r="K22" s="46">
-        <f>K6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>7.8399999999999997E-3</v>
       </c>
       <c r="L22" s="46">
-        <f>L6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>7.8399999999999997E-3</v>
       </c>
       <c r="M22" s="46">
-        <f>M6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>7.7616000000000004E-3</v>
       </c>
       <c r="N22" s="46">
-        <f>N6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>7.5263999999999999E-3</v>
       </c>
       <c r="O22" s="46">
-        <f>O6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>7.1344000000000008E-3</v>
       </c>
       <c r="P22" s="46">
-        <f>P6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>6.8992000000000003E-3</v>
       </c>
       <c r="Q22" s="46">
-        <f>Q6*$G$17/$G$16</f>
+        <f t="shared" si="14"/>
         <v>6.6640000000000007E-3</v>
       </c>
       <c r="R22" s="49"/>
@@ -3159,59 +3191,59 @@
         <v>15</v>
       </c>
       <c r="D23" s="46">
-        <f>D7*$G$17/$G$16</f>
+        <f t="shared" ref="D23:Q23" si="15">D7*$G$17/$G$16</f>
         <v>7.0559999999999998E-3</v>
       </c>
       <c r="E23" s="46">
-        <f>E7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>7.0559999999999998E-3</v>
       </c>
       <c r="F23" s="46">
-        <f>F7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>6.7619999999999989E-3</v>
       </c>
       <c r="G23" s="46">
-        <f>G7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>6.4679999999999998E-3</v>
       </c>
       <c r="H23" s="46">
-        <f>H7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>6.4679999999999998E-3</v>
       </c>
       <c r="I23" s="46">
-        <f>I7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>6.1739999999999998E-3</v>
       </c>
       <c r="J23" s="46">
-        <f>J7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>5.8799999999999998E-3</v>
       </c>
       <c r="K23" s="46">
-        <f>K7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>5.8799999999999998E-3</v>
       </c>
       <c r="L23" s="46">
-        <f>L7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>5.8799999999999998E-3</v>
       </c>
       <c r="M23" s="46">
-        <f>M7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>5.8211999999999995E-3</v>
       </c>
       <c r="N23" s="46">
-        <f>N7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>5.6447999999999993E-3</v>
       </c>
       <c r="O23" s="46">
-        <f>O7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>5.3508000000000002E-3</v>
       </c>
       <c r="P23" s="46">
-        <f>P7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>5.1744E-3</v>
       </c>
       <c r="Q23" s="46">
-        <f>Q7*$G$17/$G$16</f>
+        <f t="shared" si="15"/>
         <v>4.9979999999999998E-3</v>
       </c>
       <c r="R23" s="49"/>
@@ -3222,59 +3254,59 @@
         <v>25</v>
       </c>
       <c r="D24" s="46">
-        <f>D8*$G$17/$G$16</f>
+        <f t="shared" ref="D24:Q24" si="16">D8*$G$17/$G$16</f>
         <v>5.8799999999999998E-3</v>
       </c>
       <c r="E24" s="46">
-        <f>E8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>5.8799999999999998E-3</v>
       </c>
       <c r="F24" s="46">
-        <f>F8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>5.6349999999999994E-3</v>
       </c>
       <c r="G24" s="46">
-        <f>G8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>5.3900000000000007E-3</v>
       </c>
       <c r="H24" s="46">
-        <f>H8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>5.3900000000000007E-3</v>
       </c>
       <c r="I24" s="46">
-        <f>I8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>5.1450000000000003E-3</v>
       </c>
       <c r="J24" s="46">
-        <f>J8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="K24" s="46">
-        <f>K8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="L24" s="46">
-        <f>L8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="M24" s="46">
-        <f>M8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>4.8509999999999994E-3</v>
       </c>
       <c r="N24" s="46">
-        <f>N8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>4.7039999999999998E-3</v>
       </c>
       <c r="O24" s="46">
-        <f>O8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>4.4590000000000003E-3</v>
       </c>
       <c r="P24" s="46">
-        <f>P8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>4.3119999999999999E-3</v>
       </c>
       <c r="Q24" s="46">
-        <f>Q8*$G$17/$G$16</f>
+        <f t="shared" si="16"/>
         <v>4.1649999999999994E-3</v>
       </c>
       <c r="R24" s="49"/>
@@ -3285,59 +3317,59 @@
         <v>35</v>
       </c>
       <c r="D25" s="46">
-        <f>D9*$G$17/$G$16</f>
+        <f t="shared" ref="D25:Q25" si="17">D9*$G$17/$G$16</f>
         <v>4.9979999999999998E-3</v>
       </c>
       <c r="E25" s="46">
-        <f>E9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.9979999999999998E-3</v>
       </c>
       <c r="F25" s="46">
-        <f>F9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.7897499999999997E-3</v>
       </c>
       <c r="G25" s="46">
-        <f>G9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.5815000000000005E-3</v>
       </c>
       <c r="H25" s="46">
-        <f>H9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.5815000000000005E-3</v>
       </c>
       <c r="I25" s="46">
-        <f>I9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.3732499999999995E-3</v>
       </c>
       <c r="J25" s="46">
-        <f>J9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.1649999999999994E-3</v>
       </c>
       <c r="K25" s="46">
-        <f>K9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.1649999999999994E-3</v>
       </c>
       <c r="L25" s="46">
-        <f>L9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.1649999999999994E-3</v>
       </c>
       <c r="M25" s="46">
-        <f>M9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>4.1233499999999996E-3</v>
       </c>
       <c r="N25" s="46">
-        <f>N9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>3.9984E-3</v>
       </c>
       <c r="O25" s="46">
-        <f>O9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>3.7901499999999995E-3</v>
       </c>
       <c r="P25" s="46">
-        <f>P9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>3.6652E-3</v>
       </c>
       <c r="Q25" s="46">
-        <f>Q9*$G$17/$G$16</f>
+        <f t="shared" si="17"/>
         <v>3.5402499999999996E-3</v>
       </c>
       <c r="R25" s="49"/>
@@ -3348,59 +3380,59 @@
         <v>45</v>
       </c>
       <c r="D26" s="46">
-        <f>D10*$G$17/$G$16</f>
+        <f t="shared" ref="D26:Q26" si="18">D10*$G$17/$G$16</f>
         <v>3.8219999999999999E-3</v>
       </c>
       <c r="E26" s="46">
-        <f>E10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.8219999999999999E-3</v>
       </c>
       <c r="F26" s="46">
-        <f>F10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.6627499999999998E-3</v>
       </c>
       <c r="G26" s="46">
-        <f>G10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.5035000000000001E-3</v>
       </c>
       <c r="H26" s="46">
-        <f>H10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.5035000000000001E-3</v>
       </c>
       <c r="I26" s="46">
-        <f>I10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.3442500000000004E-3</v>
       </c>
       <c r="J26" s="46">
-        <f>J10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.1849999999999999E-3</v>
       </c>
       <c r="K26" s="46">
-        <f>K10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.1849999999999999E-3</v>
       </c>
       <c r="L26" s="46">
-        <f>L10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.1849999999999999E-3</v>
       </c>
       <c r="M26" s="46">
-        <f>M10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.1531499999999995E-3</v>
       </c>
       <c r="N26" s="46">
-        <f>N10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>3.0575999999999997E-3</v>
       </c>
       <c r="O26" s="46">
-        <f>O10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>2.8983500000000001E-3</v>
       </c>
       <c r="P26" s="46">
-        <f>P10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>2.8028000000000003E-3</v>
       </c>
       <c r="Q26" s="46">
-        <f>Q10*$G$17/$G$16</f>
+        <f t="shared" si="18"/>
         <v>2.70725E-3</v>
       </c>
       <c r="R26" s="49"/>
@@ -3410,59 +3442,59 @@
         <v>55</v>
       </c>
       <c r="D27" s="46">
-        <f>D11*$G$17/$G$16</f>
+        <f t="shared" ref="D27:Q27" si="19">D11*$G$17/$G$16</f>
         <v>2.9399999999999999E-3</v>
       </c>
       <c r="E27" s="46">
-        <f>E11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.9399999999999999E-3</v>
       </c>
       <c r="F27" s="46">
-        <f>F11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.8174999999999997E-3</v>
       </c>
       <c r="G27" s="46">
-        <f>G11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.6950000000000003E-3</v>
       </c>
       <c r="H27" s="46">
-        <f>H11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.6950000000000003E-3</v>
       </c>
       <c r="I27" s="46">
-        <f>I11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.5725000000000001E-3</v>
       </c>
       <c r="J27" s="46">
-        <f>J11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="K27" s="46">
-        <f>K11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="L27" s="46">
-        <f>L11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="M27" s="46">
-        <f>M11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.4254999999999997E-3</v>
       </c>
       <c r="N27" s="46">
-        <f>N11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.3519999999999999E-3</v>
       </c>
       <c r="O27" s="46">
-        <f>O11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.2295000000000001E-3</v>
       </c>
       <c r="P27" s="46">
-        <f>P11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.1559999999999999E-3</v>
       </c>
       <c r="Q27" s="46">
-        <f>Q11*$G$17/$G$16</f>
+        <f t="shared" si="19"/>
         <v>2.0824999999999997E-3</v>
       </c>
     </row>
@@ -3486,7 +3518,7 @@
   <dimension ref="A1:W225"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="E34" sqref="E34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3509,10 +3541,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="47">
         <v>3.186E-3</v>
       </c>
@@ -3541,11 +3573,11 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="F3" t="s">
         <v>20</v>
       </c>
@@ -3584,11 +3616,11 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -3622,15 +3654,15 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -3688,11 +3720,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -6807,10 +6839,10 @@
       <c r="C8" s="2">
         <v>3.6074582924435399</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -6994,7 +7026,7 @@
       <c r="B24" s="6"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="51" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="49"/>
@@ -7327,11 +7359,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -7371,11 +7403,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -7454,7 +7486,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H32" sqref="H32:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7866,4 +7898,3550 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J1" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="K1" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="L1" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="M1" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="N1" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="O1" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="P1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="R1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="S1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="T1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="U1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="V1" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="W1" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="X1" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="61">
+        <v>0</v>
+      </c>
+      <c r="D2" s="61">
+        <f>C2+250</f>
+        <v>250</v>
+      </c>
+      <c r="E2" s="61">
+        <f t="shared" ref="E2:AI2" si="0">D2+250</f>
+        <v>500</v>
+      </c>
+      <c r="F2" s="61">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="G2" s="61">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H2" s="61">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="I2" s="61">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J2" s="61">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="K2" s="61">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L2" s="61">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="M2" s="61">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="N2" s="61">
+        <f t="shared" si="0"/>
+        <v>2750</v>
+      </c>
+      <c r="O2" s="61">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="P2" s="61">
+        <f t="shared" si="0"/>
+        <v>3250</v>
+      </c>
+      <c r="Q2" s="61">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="R2" s="61">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="S2" s="61">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="T2" s="61">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+      <c r="U2" s="61">
+        <f>T2+250</f>
+        <v>4500</v>
+      </c>
+      <c r="V2" s="61">
+        <f t="shared" si="0"/>
+        <v>4750</v>
+      </c>
+      <c r="W2" s="61">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="X2" s="61">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="Y2" s="61">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="Z2" s="61">
+        <f t="shared" si="0"/>
+        <v>5750</v>
+      </c>
+      <c r="AA2" s="61">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="AB2" s="61">
+        <f t="shared" si="0"/>
+        <v>6250</v>
+      </c>
+      <c r="AC2" s="61">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="AD2" s="61">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="AE2" s="61">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="AF2" s="61">
+        <f t="shared" si="0"/>
+        <v>7250</v>
+      </c>
+      <c r="AG2" s="61">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="AH2" s="61">
+        <f t="shared" si="0"/>
+        <v>7750</v>
+      </c>
+      <c r="AI2" s="61">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="B3" s="61">
+        <v>0</v>
+      </c>
+      <c r="C3" s="64">
+        <f>$A$3*C1</f>
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="D3" s="64">
+        <f t="shared" ref="D3:AI3" si="1">$A$3*D1</f>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="G3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="H3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="I3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="J3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8256</v>
+      </c>
+      <c r="K3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8256</v>
+      </c>
+      <c r="L3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8256</v>
+      </c>
+      <c r="M3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8256</v>
+      </c>
+      <c r="N3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="O3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="P3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="Q3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="R3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="S3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="T3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="U3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="V3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="W3" s="64">
+        <f t="shared" si="1"/>
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="X3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="B4" s="61">
+        <f>B3+50</f>
+        <v>50</v>
+      </c>
+      <c r="C4" s="64">
+        <f>$A$4*C1</f>
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="D4" s="64">
+        <f t="shared" ref="D4:AI4" si="2">$A$4*D1</f>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="G4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="H4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="I4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="J4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8256</v>
+      </c>
+      <c r="K4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8256</v>
+      </c>
+      <c r="L4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8256</v>
+      </c>
+      <c r="M4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8256</v>
+      </c>
+      <c r="N4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="O4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="P4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="Q4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="R4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="S4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="T4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="U4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="V4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.8083999999999999</v>
+      </c>
+      <c r="W4" s="64">
+        <f t="shared" si="2"/>
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="X4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="B5" s="61">
+        <f t="shared" ref="B5:B13" si="3">B4+50</f>
+        <v>100</v>
+      </c>
+      <c r="C5" s="64">
+        <f>$A$5*C1</f>
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="D5" s="64">
+        <f t="shared" ref="D5:AI5" si="4">$A$5*D1</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="E5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="F5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="G5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="H5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.874</v>
+      </c>
+      <c r="J5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="K5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="L5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="M5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="N5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.874</v>
+      </c>
+      <c r="O5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.874</v>
+      </c>
+      <c r="P5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="Q5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="R5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="S5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="T5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="U5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="V5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="W5" s="64">
+        <f t="shared" si="4"/>
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="X5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="B6" s="61">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="C6" s="64">
+        <f>$A$6*C1</f>
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="D6" s="64">
+        <f t="shared" ref="D6:AI6" si="5">$A$6*D1</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="E6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="F6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="G6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="H6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.874</v>
+      </c>
+      <c r="J6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="K6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="L6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="M6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="N6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.874</v>
+      </c>
+      <c r="O6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.874</v>
+      </c>
+      <c r="P6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="Q6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="R6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="S6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="T6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="U6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="V6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="W6" s="64">
+        <f t="shared" si="5"/>
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="X6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="B7" s="61">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="C7" s="64">
+        <f>$A$7*C1</f>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D7" s="64">
+        <f t="shared" ref="D7:AI7" si="6">$A$7*D1</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.874</v>
+      </c>
+      <c r="G7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="H7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="I7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="J7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="K7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="L7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="M7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="N7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="O7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="P7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="Q7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="R7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="S7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="T7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="U7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="V7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="W7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.874</v>
+      </c>
+      <c r="X7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="B8" s="61">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="C8" s="64">
+        <f>$A$8*C1</f>
+        <v>0.8448</v>
+      </c>
+      <c r="D8" s="64">
+        <f t="shared" ref="D8:AI8" si="7">$A$8*D1</f>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="G8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="H8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="I8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="J8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="K8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="L8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="M8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="N8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="O8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="P8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="Q8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="R8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="S8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="U8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="V8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="W8" s="64">
+        <f t="shared" si="7"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="X8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="B9" s="61">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="C9" s="64">
+        <f>$A$9*C1</f>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D9" s="64">
+        <f t="shared" ref="D9:AI9" si="8">$A$9*D1</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.874</v>
+      </c>
+      <c r="G9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="H9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="I9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="J9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="K9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="L9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="M9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="N9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="O9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="P9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="Q9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="R9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="S9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="T9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="U9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="V9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="W9" s="64">
+        <f t="shared" si="8"/>
+        <v>0.874</v>
+      </c>
+      <c r="X9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="B10" s="61">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="C10" s="64">
+        <f>$A$10*C1</f>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="D10" s="64">
+        <f t="shared" ref="D10:AI10" si="9">$A$10*D1</f>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="G10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="H10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="I10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="J10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="K10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="L10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="M10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="N10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="O10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="P10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="Q10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="R10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="S10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="T10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="U10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="V10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="W10" s="64">
+        <f t="shared" si="9"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="X10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="B11" s="61">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="C11" s="64">
+        <f>$A$11*C1</f>
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="D11" s="64">
+        <f t="shared" ref="D11:AI11" si="10">$A$11*D1</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="E11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="F11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="G11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="H11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.874</v>
+      </c>
+      <c r="J11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="K11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="L11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="M11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="N11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.874</v>
+      </c>
+      <c r="O11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.874</v>
+      </c>
+      <c r="P11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="Q11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="R11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="S11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="T11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="U11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="V11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="W11" s="64">
+        <f t="shared" si="10"/>
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="X11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B12" s="61">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="C12" s="64">
+        <f>$A$12*C1</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D12" s="64">
+        <f t="shared" ref="D12:AI12" si="11">$A$12*D1</f>
+        <v>0.81</v>
+      </c>
+      <c r="E12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.81</v>
+      </c>
+      <c r="F12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="G12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="I12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="L12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="M12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="N12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="O12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="P12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="Q12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="R12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="S12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="T12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="U12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="V12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="W12" s="64">
+        <f t="shared" si="11"/>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="X12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="B13" s="61">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="C13" s="64">
+        <f>$A$13*C1</f>
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="D13" s="64">
+        <f t="shared" ref="D13:AI13" si="12">$A$13*D1</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="G13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="H13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="I13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="J13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.8448</v>
+      </c>
+      <c r="K13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.8448</v>
+      </c>
+      <c r="L13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.8448</v>
+      </c>
+      <c r="M13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.8448</v>
+      </c>
+      <c r="N13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="O13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="P13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="Q13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="R13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="S13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="T13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="U13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="V13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.82719999999999994</v>
+      </c>
+      <c r="W13" s="64">
+        <f t="shared" si="12"/>
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="X13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B15" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="66">
+        <v>0</v>
+      </c>
+      <c r="D15" s="66">
+        <f>C15+250</f>
+        <v>250</v>
+      </c>
+      <c r="E15" s="66">
+        <f t="shared" ref="E15:AI15" si="13">D15+250</f>
+        <v>500</v>
+      </c>
+      <c r="F15" s="66">
+        <f t="shared" si="13"/>
+        <v>750</v>
+      </c>
+      <c r="G15" s="66">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="H15" s="66">
+        <f t="shared" si="13"/>
+        <v>1250</v>
+      </c>
+      <c r="I15" s="66">
+        <f t="shared" si="13"/>
+        <v>1500</v>
+      </c>
+      <c r="J15" s="66">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="K15" s="66">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="L15" s="66">
+        <f t="shared" si="13"/>
+        <v>2250</v>
+      </c>
+      <c r="M15" s="66">
+        <f t="shared" si="13"/>
+        <v>2500</v>
+      </c>
+      <c r="N15" s="66">
+        <f t="shared" si="13"/>
+        <v>2750</v>
+      </c>
+      <c r="O15" s="66">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+      <c r="P15" s="66">
+        <f t="shared" si="13"/>
+        <v>3250</v>
+      </c>
+      <c r="Q15" s="66">
+        <f t="shared" si="13"/>
+        <v>3500</v>
+      </c>
+      <c r="R15" s="66">
+        <f t="shared" si="13"/>
+        <v>3750</v>
+      </c>
+      <c r="S15" s="66">
+        <f t="shared" si="13"/>
+        <v>4000</v>
+      </c>
+      <c r="T15" s="66">
+        <f t="shared" si="13"/>
+        <v>4250</v>
+      </c>
+      <c r="U15" s="66">
+        <f>T15+250</f>
+        <v>4500</v>
+      </c>
+      <c r="V15" s="66">
+        <f t="shared" ref="V15:AI15" si="14">U15+250</f>
+        <v>4750</v>
+      </c>
+      <c r="W15" s="66">
+        <f t="shared" si="14"/>
+        <v>5000</v>
+      </c>
+      <c r="X15" s="66">
+        <f t="shared" si="14"/>
+        <v>5250</v>
+      </c>
+      <c r="Y15" s="66">
+        <f t="shared" si="14"/>
+        <v>5500</v>
+      </c>
+      <c r="Z15" s="66">
+        <f t="shared" si="14"/>
+        <v>5750</v>
+      </c>
+      <c r="AA15" s="66">
+        <f t="shared" si="14"/>
+        <v>6000</v>
+      </c>
+      <c r="AB15" s="66">
+        <f t="shared" si="14"/>
+        <v>6250</v>
+      </c>
+      <c r="AC15" s="66">
+        <f t="shared" si="14"/>
+        <v>6500</v>
+      </c>
+      <c r="AD15" s="66">
+        <f t="shared" si="14"/>
+        <v>6750</v>
+      </c>
+      <c r="AE15" s="66">
+        <f t="shared" si="14"/>
+        <v>7000</v>
+      </c>
+      <c r="AF15" s="66">
+        <f t="shared" si="14"/>
+        <v>7250</v>
+      </c>
+      <c r="AG15" s="66">
+        <f t="shared" si="14"/>
+        <v>7500</v>
+      </c>
+      <c r="AH15" s="66">
+        <f t="shared" si="14"/>
+        <v>7750</v>
+      </c>
+      <c r="AI15" s="66">
+        <f t="shared" si="14"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B16" s="66">
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <f>(C3/MAX($C$3:$AI$13))*MAX($A$3:$A$13,$C$1:$AI$1)</f>
+        <v>0.78833333333333333</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" ref="D16:AI24" si="15">(D3/MAX($C$3:$AI$13))*MAX($A$3:$A$13,$C$1:$AI$1)</f>
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.82416666666666671</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.85104166666666659</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.85104166666666659</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.85104166666666659</v>
+      </c>
+      <c r="P16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="R16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="V16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="W16" s="20">
+        <f t="shared" si="15"/>
+        <v>0.82416666666666671</v>
+      </c>
+      <c r="X16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B17" s="66">
+        <f>B16+50</f>
+        <v>50</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" ref="C17:R26" si="16">(C4/MAX($C$3:$AI$13))*MAX($A$3:$A$13,$C$1:$AI$1)</f>
+        <v>0.78833333333333333</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.82416666666666671</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.85104166666666659</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.86</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.86</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.86</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.86</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.85104166666666659</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.85104166666666659</v>
+      </c>
+      <c r="P17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="R17" s="20">
+        <f t="shared" si="16"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="V17" s="20">
+        <f t="shared" si="15"/>
+        <v>0.84208333333333329</v>
+      </c>
+      <c r="W17" s="20">
+        <f t="shared" si="15"/>
+        <v>0.82416666666666671</v>
+      </c>
+      <c r="X17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B18" s="66">
+        <f t="shared" ref="B18:B26" si="17">B17+50</f>
+        <v>100</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" si="16"/>
+        <v>0.84333333333333327</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.88166666666666671</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="P18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="R18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="V18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="W18" s="20">
+        <f t="shared" si="15"/>
+        <v>0.88166666666666671</v>
+      </c>
+      <c r="X18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B19" s="66">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="C19" s="20">
+        <f t="shared" si="16"/>
+        <v>0.84333333333333327</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.88166666666666671</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="N19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="P19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="R19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="S19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="T19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="V19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="W19" s="20">
+        <f t="shared" si="15"/>
+        <v>0.88166666666666671</v>
+      </c>
+      <c r="X19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B20" s="66">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="C20" s="20">
+        <f t="shared" si="16"/>
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.890625</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.890625</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94010416666666652</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="L20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94010416666666652</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94010416666666652</v>
+      </c>
+      <c r="P20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="R20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="T20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="U20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="V20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="W20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="X20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B21" s="66">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="C21" s="20">
+        <f t="shared" si="16"/>
+        <v>0.88</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
+      </c>
+      <c r="L21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="T21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="U21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="V21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="W21" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="X21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B22" s="66">
+        <f t="shared" si="17"/>
+        <v>300</v>
+      </c>
+      <c r="C22" s="20">
+        <f t="shared" si="16"/>
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.890625</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.890625</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94010416666666652</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94010416666666652</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.94010416666666652</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="R22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="T22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="U22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="V22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="W22" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="X22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B23" s="66">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+      <c r="C23" s="20">
+        <f t="shared" si="16"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.93999999999999984</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.9302083333333333</v>
+      </c>
+      <c r="P23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92041666666666655</v>
+      </c>
+      <c r="W23" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="X23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B24" s="66">
+        <f t="shared" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" si="16"/>
+        <v>0.84333333333333327</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.88166666666666671</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="P24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="15"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="R24" s="20">
+        <f t="shared" ref="D24:AI26" si="18">(R11/MAX($C$3:$AI$13))*MAX($A$3:$A$13,$C$1:$AI$1)</f>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="18"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="T24" s="20">
+        <f t="shared" si="18"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="U24" s="20">
+        <f t="shared" si="18"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="V24" s="20">
+        <f t="shared" si="18"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="W24" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88166666666666671</v>
+      </c>
+      <c r="X24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B25" s="66">
+        <f t="shared" si="17"/>
+        <v>450</v>
+      </c>
+      <c r="C25" s="20">
+        <f t="shared" si="16"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.84375000000000011</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.84375000000000011</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="I25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.890625</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.890625</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.890625</v>
+      </c>
+      <c r="P25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="R25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="T25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="U25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="V25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="W25" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="X25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B26" s="66">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="C26" s="20">
+        <f t="shared" si="16"/>
+        <v>0.80666666666666664</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.84333333333333327</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="I26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.88</v>
+      </c>
+      <c r="N26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="P26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="T26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="U26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="V26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.86166666666666658</v>
+      </c>
+      <c r="W26" s="20">
+        <f t="shared" si="18"/>
+        <v>0.84333333333333327</v>
+      </c>
+      <c r="X26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SimBAlink_CL/Profile_Generation_Scripts/cellProfile_Calculator.xlsx
+++ b/SimBAlink_CL/Profile_Generation_Scripts/cellProfile_Calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="21600" windowHeight="11240" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="21600" windowHeight="11240"/>
   </bookViews>
   <sheets>
     <sheet name="alphaMask_Calc" sheetId="6" r:id="rId1"/>
@@ -268,13 +268,13 @@
     <t>http://arohatgi.info/WebPlotDigitizer/app/?</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>RPM/Torque</t>
   </si>
   <si>
     <t>Scalar Maps</t>
+  </si>
+  <si>
+    <t>SCALAR:</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
@@ -858,6 +858,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,20 +896,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1169,11 +1170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1153157280"/>
-        <c:axId val="1153148576"/>
+        <c:axId val="-835292304"/>
+        <c:axId val="-835303184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1153157280"/>
+        <c:axId val="-835292304"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1"/>
@@ -1231,13 +1232,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153148576"/>
+        <c:crossAx val="-835303184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1153148576"/>
+        <c:axId val="-835303184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.2"/>
@@ -1296,7 +1297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153157280"/>
+        <c:crossAx val="-835292304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2201,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2259,23 +2260,23 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="37" t="s">
@@ -2945,7 +2946,7 @@
       <c r="Q16" s="49"/>
       <c r="R16" s="49"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -2954,7 +2955,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>4.8999999999999998E-3</v>
+        <v>0.12</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>72</v>
@@ -2971,7 +2972,7 @@
       <c r="Q17" s="49"/>
       <c r="R17" s="49"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -2989,28 +2990,28 @@
       <c r="Q18" s="49"/>
       <c r="R18" s="49"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" s="49"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
       <c r="R19" s="49"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B20" s="49"/>
       <c r="C20" s="42" t="s">
         <v>30</v>
@@ -3059,448 +3060,1443 @@
       </c>
       <c r="R20" s="49"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21" s="49"/>
       <c r="C21" s="42">
         <v>-5</v>
       </c>
       <c r="D21" s="46">
         <f t="shared" ref="D21:Q21" si="13">D5*$G$17/$G$16</f>
-        <v>2.3519999999999999E-2</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E21" s="46">
         <f t="shared" si="13"/>
-        <v>2.3519999999999999E-2</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="F21" s="46">
         <f t="shared" si="13"/>
-        <v>2.2539999999999998E-2</v>
+        <v>0.55199999999999994</v>
       </c>
       <c r="G21" s="46">
         <f t="shared" si="13"/>
-        <v>2.1560000000000003E-2</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="H21" s="46">
         <f t="shared" si="13"/>
-        <v>2.1560000000000003E-2</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="I21" s="46">
         <f t="shared" si="13"/>
-        <v>2.0580000000000001E-2</v>
+        <v>0.504</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" si="13"/>
-        <v>1.9599999999999999E-2</v>
+        <v>0.48</v>
       </c>
       <c r="K21" s="46">
         <f t="shared" si="13"/>
-        <v>1.9599999999999999E-2</v>
+        <v>0.48</v>
       </c>
       <c r="L21" s="46">
         <f t="shared" si="13"/>
-        <v>1.9599999999999999E-2</v>
+        <v>0.48</v>
       </c>
       <c r="M21" s="46">
         <f t="shared" si="13"/>
-        <v>1.9403999999999998E-2</v>
+        <v>0.47519999999999996</v>
       </c>
       <c r="N21" s="46">
         <f t="shared" si="13"/>
-        <v>1.8815999999999999E-2</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="O21" s="46">
         <f t="shared" si="13"/>
-        <v>1.7836000000000001E-2</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="P21" s="46">
         <f t="shared" si="13"/>
-        <v>1.7247999999999999E-2</v>
+        <v>0.4224</v>
       </c>
       <c r="Q21" s="46">
         <f t="shared" si="13"/>
-        <v>1.6659999999999998E-2</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="R21" s="49"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22" s="49"/>
       <c r="C22" s="42">
         <v>5</v>
       </c>
       <c r="D22" s="46">
         <f t="shared" ref="D22:Q22" si="14">D6*$G$17/$G$16</f>
-        <v>9.4079999999999997E-3</v>
+        <v>0.23039999999999999</v>
       </c>
       <c r="E22" s="46">
         <f t="shared" si="14"/>
-        <v>9.4079999999999997E-3</v>
+        <v>0.23039999999999999</v>
       </c>
       <c r="F22" s="46">
         <f t="shared" si="14"/>
-        <v>9.0159999999999997E-3</v>
+        <v>0.22079999999999997</v>
       </c>
       <c r="G22" s="46">
         <f t="shared" si="14"/>
-        <v>8.6240000000000015E-3</v>
+        <v>0.21120000000000003</v>
       </c>
       <c r="H22" s="46">
         <f t="shared" si="14"/>
-        <v>8.6240000000000015E-3</v>
+        <v>0.21120000000000003</v>
       </c>
       <c r="I22" s="46">
         <f t="shared" si="14"/>
-        <v>8.2319999999999997E-3</v>
+        <v>0.2016</v>
       </c>
       <c r="J22" s="46">
         <f t="shared" si="14"/>
-        <v>7.8399999999999997E-3</v>
+        <v>0.192</v>
       </c>
       <c r="K22" s="46">
         <f t="shared" si="14"/>
-        <v>7.8399999999999997E-3</v>
+        <v>0.192</v>
       </c>
       <c r="L22" s="46">
         <f t="shared" si="14"/>
-        <v>7.8399999999999997E-3</v>
+        <v>0.192</v>
       </c>
       <c r="M22" s="46">
         <f t="shared" si="14"/>
-        <v>7.7616000000000004E-3</v>
+        <v>0.19008</v>
       </c>
       <c r="N22" s="46">
         <f t="shared" si="14"/>
-        <v>7.5263999999999999E-3</v>
+        <v>0.18431999999999998</v>
       </c>
       <c r="O22" s="46">
         <f t="shared" si="14"/>
-        <v>7.1344000000000008E-3</v>
+        <v>0.17472000000000001</v>
       </c>
       <c r="P22" s="46">
         <f t="shared" si="14"/>
-        <v>6.8992000000000003E-3</v>
+        <v>0.16896</v>
       </c>
       <c r="Q22" s="46">
         <f t="shared" si="14"/>
-        <v>6.6640000000000007E-3</v>
+        <v>0.16320000000000001</v>
       </c>
       <c r="R22" s="49"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23" s="49"/>
       <c r="C23" s="42">
         <v>15</v>
       </c>
       <c r="D23" s="46">
         <f t="shared" ref="D23:Q23" si="15">D7*$G$17/$G$16</f>
-        <v>7.0559999999999998E-3</v>
+        <v>0.17279999999999998</v>
       </c>
       <c r="E23" s="46">
         <f t="shared" si="15"/>
-        <v>7.0559999999999998E-3</v>
+        <v>0.17279999999999998</v>
       </c>
       <c r="F23" s="46">
         <f t="shared" si="15"/>
-        <v>6.7619999999999989E-3</v>
+        <v>0.16559999999999997</v>
       </c>
       <c r="G23" s="46">
         <f t="shared" si="15"/>
-        <v>6.4679999999999998E-3</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="H23" s="46">
         <f t="shared" si="15"/>
-        <v>6.4679999999999998E-3</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="I23" s="46">
         <f t="shared" si="15"/>
-        <v>6.1739999999999998E-3</v>
+        <v>0.1512</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" si="15"/>
-        <v>5.8799999999999998E-3</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="K23" s="46">
         <f t="shared" si="15"/>
-        <v>5.8799999999999998E-3</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="L23" s="46">
         <f t="shared" si="15"/>
-        <v>5.8799999999999998E-3</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="M23" s="46">
         <f t="shared" si="15"/>
-        <v>5.8211999999999995E-3</v>
+        <v>0.14255999999999999</v>
       </c>
       <c r="N23" s="46">
         <f t="shared" si="15"/>
-        <v>5.6447999999999993E-3</v>
+        <v>0.13823999999999997</v>
       </c>
       <c r="O23" s="46">
         <f t="shared" si="15"/>
-        <v>5.3508000000000002E-3</v>
+        <v>0.13104000000000002</v>
       </c>
       <c r="P23" s="46">
         <f t="shared" si="15"/>
-        <v>5.1744E-3</v>
+        <v>0.12672</v>
       </c>
       <c r="Q23" s="46">
         <f t="shared" si="15"/>
-        <v>4.9979999999999998E-3</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="R23" s="49"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24" s="49"/>
       <c r="C24" s="42">
         <v>25</v>
       </c>
       <c r="D24" s="46">
         <f t="shared" ref="D24:Q24" si="16">D8*$G$17/$G$16</f>
-        <v>5.8799999999999998E-3</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E24" s="46">
         <f t="shared" si="16"/>
-        <v>5.8799999999999998E-3</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F24" s="46">
         <f t="shared" si="16"/>
-        <v>5.6349999999999994E-3</v>
+        <v>0.13799999999999998</v>
       </c>
       <c r="G24" s="46">
         <f t="shared" si="16"/>
-        <v>5.3900000000000007E-3</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="H24" s="46">
         <f t="shared" si="16"/>
-        <v>5.3900000000000007E-3</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="I24" s="46">
         <f t="shared" si="16"/>
-        <v>5.1450000000000003E-3</v>
+        <v>0.126</v>
       </c>
       <c r="J24" s="46">
         <f t="shared" si="16"/>
-        <v>4.8999999999999998E-3</v>
+        <v>0.12</v>
       </c>
       <c r="K24" s="46">
         <f t="shared" si="16"/>
-        <v>4.8999999999999998E-3</v>
+        <v>0.12</v>
       </c>
       <c r="L24" s="46">
         <f t="shared" si="16"/>
-        <v>4.8999999999999998E-3</v>
+        <v>0.12</v>
       </c>
       <c r="M24" s="46">
         <f t="shared" si="16"/>
-        <v>4.8509999999999994E-3</v>
+        <v>0.11879999999999999</v>
       </c>
       <c r="N24" s="46">
         <f t="shared" si="16"/>
-        <v>4.7039999999999998E-3</v>
+        <v>0.1152</v>
       </c>
       <c r="O24" s="46">
         <f t="shared" si="16"/>
-        <v>4.4590000000000003E-3</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="P24" s="46">
         <f t="shared" si="16"/>
-        <v>4.3119999999999999E-3</v>
+        <v>0.1056</v>
       </c>
       <c r="Q24" s="46">
         <f t="shared" si="16"/>
-        <v>4.1649999999999994E-3</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="R24" s="49"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B25" s="49"/>
       <c r="C25" s="42">
         <v>35</v>
       </c>
       <c r="D25" s="46">
         <f t="shared" ref="D25:Q25" si="17">D9*$G$17/$G$16</f>
-        <v>4.9979999999999998E-3</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="E25" s="46">
         <f t="shared" si="17"/>
-        <v>4.9979999999999998E-3</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="F25" s="46">
         <f t="shared" si="17"/>
-        <v>4.7897499999999997E-3</v>
+        <v>0.11729999999999999</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="17"/>
-        <v>4.5815000000000005E-3</v>
+        <v>0.11220000000000001</v>
       </c>
       <c r="H25" s="46">
         <f t="shared" si="17"/>
-        <v>4.5815000000000005E-3</v>
+        <v>0.11220000000000001</v>
       </c>
       <c r="I25" s="46">
         <f t="shared" si="17"/>
-        <v>4.3732499999999995E-3</v>
+        <v>0.10709999999999999</v>
       </c>
       <c r="J25" s="46">
         <f t="shared" si="17"/>
-        <v>4.1649999999999994E-3</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K25" s="46">
         <f t="shared" si="17"/>
-        <v>4.1649999999999994E-3</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="L25" s="46">
         <f t="shared" si="17"/>
-        <v>4.1649999999999994E-3</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="M25" s="46">
         <f t="shared" si="17"/>
-        <v>4.1233499999999996E-3</v>
+        <v>0.10098</v>
       </c>
       <c r="N25" s="46">
         <f t="shared" si="17"/>
-        <v>3.9984E-3</v>
+        <v>9.7919999999999993E-2</v>
       </c>
       <c r="O25" s="46">
         <f t="shared" si="17"/>
-        <v>3.7901499999999995E-3</v>
+        <v>9.2819999999999986E-2</v>
       </c>
       <c r="P25" s="46">
         <f t="shared" si="17"/>
-        <v>3.6652E-3</v>
+        <v>8.9759999999999993E-2</v>
       </c>
       <c r="Q25" s="46">
         <f t="shared" si="17"/>
-        <v>3.5402499999999996E-3</v>
+        <v>8.6699999999999985E-2</v>
       </c>
       <c r="R25" s="49"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B26" s="49"/>
       <c r="C26" s="42">
         <v>45</v>
       </c>
       <c r="D26" s="46">
         <f t="shared" ref="D26:Q26" si="18">D10*$G$17/$G$16</f>
-        <v>3.8219999999999999E-3</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="E26" s="46">
         <f t="shared" si="18"/>
-        <v>3.8219999999999999E-3</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="F26" s="46">
         <f t="shared" si="18"/>
-        <v>3.6627499999999998E-3</v>
+        <v>8.9699999999999988E-2</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="18"/>
-        <v>3.5035000000000001E-3</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="H26" s="46">
         <f t="shared" si="18"/>
-        <v>3.5035000000000001E-3</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="I26" s="46">
         <f t="shared" si="18"/>
-        <v>3.3442500000000004E-3</v>
+        <v>8.1900000000000014E-2</v>
       </c>
       <c r="J26" s="46">
         <f t="shared" si="18"/>
-        <v>3.1849999999999999E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="K26" s="46">
         <f t="shared" si="18"/>
-        <v>3.1849999999999999E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="L26" s="46">
         <f t="shared" si="18"/>
-        <v>3.1849999999999999E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="M26" s="46">
         <f t="shared" si="18"/>
-        <v>3.1531499999999995E-3</v>
+        <v>7.7219999999999997E-2</v>
       </c>
       <c r="N26" s="46">
         <f t="shared" si="18"/>
-        <v>3.0575999999999997E-3</v>
+        <v>7.4880000000000002E-2</v>
       </c>
       <c r="O26" s="46">
         <f t="shared" si="18"/>
-        <v>2.8983500000000001E-3</v>
+        <v>7.0980000000000001E-2</v>
       </c>
       <c r="P26" s="46">
         <f t="shared" si="18"/>
-        <v>2.8028000000000003E-3</v>
+        <v>6.8640000000000007E-2</v>
       </c>
       <c r="Q26" s="46">
         <f t="shared" si="18"/>
-        <v>2.70725E-3</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="R26" s="49"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C27" s="42">
         <v>55</v>
       </c>
       <c r="D27" s="46">
         <f t="shared" ref="D27:Q27" si="19">D11*$G$17/$G$16</f>
-        <v>2.9399999999999999E-3</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E27" s="46">
         <f t="shared" si="19"/>
-        <v>2.9399999999999999E-3</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F27" s="46">
         <f t="shared" si="19"/>
-        <v>2.8174999999999997E-3</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="G27" s="46">
         <f t="shared" si="19"/>
-        <v>2.6950000000000003E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H27" s="46">
         <f t="shared" si="19"/>
-        <v>2.6950000000000003E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I27" s="46">
         <f t="shared" si="19"/>
-        <v>2.5725000000000001E-3</v>
+        <v>6.3E-2</v>
       </c>
       <c r="J27" s="46">
         <f t="shared" si="19"/>
-        <v>2.4499999999999999E-3</v>
+        <v>0.06</v>
       </c>
       <c r="K27" s="46">
         <f t="shared" si="19"/>
-        <v>2.4499999999999999E-3</v>
+        <v>0.06</v>
       </c>
       <c r="L27" s="46">
         <f t="shared" si="19"/>
-        <v>2.4499999999999999E-3</v>
+        <v>0.06</v>
       </c>
       <c r="M27" s="46">
         <f t="shared" si="19"/>
-        <v>2.4254999999999997E-3</v>
+        <v>5.9399999999999994E-2</v>
       </c>
       <c r="N27" s="46">
         <f t="shared" si="19"/>
-        <v>2.3519999999999999E-3</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="O27" s="46">
         <f t="shared" si="19"/>
-        <v>2.2295000000000001E-3</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="P27" s="46">
         <f t="shared" si="19"/>
-        <v>2.1559999999999999E-3</v>
+        <v>5.28E-2</v>
       </c>
       <c r="Q27" s="46">
         <f t="shared" si="19"/>
-        <v>2.0824999999999997E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
-        <v>79</v>
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="D30" s="52">
+        <v>5.76</v>
+      </c>
+      <c r="E30" s="52">
+        <v>5.76</v>
+      </c>
+      <c r="F30" s="52">
+        <v>5.52</v>
+      </c>
+      <c r="G30" s="52">
+        <v>5.28</v>
+      </c>
+      <c r="H30" s="52">
+        <v>5.28</v>
+      </c>
+      <c r="I30" s="52">
+        <v>5.04</v>
+      </c>
+      <c r="J30" s="52">
+        <v>4.8</v>
+      </c>
+      <c r="K30" s="52">
+        <v>4.8</v>
+      </c>
+      <c r="L30" s="52">
+        <v>4.8</v>
+      </c>
+      <c r="M30" s="52">
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="N30" s="52">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="O30" s="52">
+        <v>4.3680000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <f>1/45</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="D31" s="52">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="E31" s="52">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="F31" s="52">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="G31" s="52">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="H31" s="52">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="I31" s="52">
+        <v>2.016</v>
+      </c>
+      <c r="J31" s="52">
+        <v>1.92</v>
+      </c>
+      <c r="K31" s="52">
+        <v>1.92</v>
+      </c>
+      <c r="L31" s="52">
+        <v>1.92</v>
+      </c>
+      <c r="M31" s="52">
+        <v>1.9008</v>
+      </c>
+      <c r="N31" s="52">
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="O31" s="52">
+        <v>1.7472000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D32" s="52">
+        <v>1.728</v>
+      </c>
+      <c r="E32" s="52">
+        <v>1.728</v>
+      </c>
+      <c r="F32" s="52">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="G32" s="52">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="H32" s="52">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="I32" s="52">
+        <v>1.512</v>
+      </c>
+      <c r="J32" s="52">
+        <v>1.44</v>
+      </c>
+      <c r="K32" s="52">
+        <v>1.44</v>
+      </c>
+      <c r="L32" s="52">
+        <v>1.44</v>
+      </c>
+      <c r="M32" s="52">
+        <v>1.4256</v>
+      </c>
+      <c r="N32" s="52">
+        <v>1.3824000000000001</v>
+      </c>
+      <c r="O32" s="52">
+        <v>1.3104</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D33" s="52">
+        <v>1.44</v>
+      </c>
+      <c r="E33" s="52">
+        <v>1.44</v>
+      </c>
+      <c r="F33" s="52">
+        <v>1.38</v>
+      </c>
+      <c r="G33" s="52">
+        <v>1.32</v>
+      </c>
+      <c r="H33" s="52">
+        <v>1.32</v>
+      </c>
+      <c r="I33" s="52">
+        <v>1.26</v>
+      </c>
+      <c r="J33" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="K33" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="L33" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="M33" s="52">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="N33" s="52">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="O33" s="52">
+        <v>1.0920000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D34" s="52">
+        <v>1.224</v>
+      </c>
+      <c r="E34" s="52">
+        <v>1.224</v>
+      </c>
+      <c r="F34" s="52">
+        <v>1.173</v>
+      </c>
+      <c r="G34" s="52">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="H34" s="52">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="I34" s="52">
+        <v>1.071</v>
+      </c>
+      <c r="J34" s="52">
+        <v>1.02</v>
+      </c>
+      <c r="K34" s="52">
+        <v>1.02</v>
+      </c>
+      <c r="L34" s="52">
+        <v>1.02</v>
+      </c>
+      <c r="M34" s="52">
+        <v>1.0098</v>
+      </c>
+      <c r="N34" s="52">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="O34" s="52">
+        <v>0.92820000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D35" s="52">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E35" s="52">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="F35" s="52">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G35" s="52">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H35" s="52">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I35" s="52">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="J35" s="52">
+        <v>0.78</v>
+      </c>
+      <c r="K35" s="52">
+        <v>0.78</v>
+      </c>
+      <c r="L35" s="52">
+        <v>0.78</v>
+      </c>
+      <c r="M35" s="52">
+        <v>0.7722</v>
+      </c>
+      <c r="N35" s="52">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="O35" s="52">
+        <v>0.70979999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D36" s="52">
+        <v>0.72</v>
+      </c>
+      <c r="E36" s="52">
+        <v>0.72</v>
+      </c>
+      <c r="F36" s="52">
+        <v>0.69</v>
+      </c>
+      <c r="G36" s="52">
+        <v>0.66</v>
+      </c>
+      <c r="H36" s="52">
+        <v>0.66</v>
+      </c>
+      <c r="I36" s="52">
+        <v>0.63</v>
+      </c>
+      <c r="J36" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="K36" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="L36" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="M36" s="52">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="N36" s="52">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="O36" s="52">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D38" s="52">
+        <f t="shared" ref="D38:F38" si="20">$B$30*D30</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="E38" s="52">
+        <f t="shared" si="20"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="F38" s="52">
+        <f t="shared" si="20"/>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="G38" s="52">
+        <f t="shared" ref="E38:O38" si="21">$B$30*G30</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="H38" s="52">
+        <f t="shared" si="21"/>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" si="21"/>
+        <v>50.4</v>
+      </c>
+      <c r="J38" s="52">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="K38" s="52">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="L38" s="52">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="M38" s="52">
+        <f t="shared" si="21"/>
+        <v>47.519999999999996</v>
+      </c>
+      <c r="N38" s="52">
+        <f t="shared" si="21"/>
+        <v>46.08</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="21"/>
+        <v>43.680000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D39" s="52">
+        <f t="shared" ref="D39:F39" si="22">$B$30*D31</f>
+        <v>23.04</v>
+      </c>
+      <c r="E39" s="52">
+        <f t="shared" si="22"/>
+        <v>23.04</v>
+      </c>
+      <c r="F39" s="52">
+        <f t="shared" si="22"/>
+        <v>22.080000000000002</v>
+      </c>
+      <c r="G39" s="52">
+        <f t="shared" ref="D39:O39" si="23">$B$30*G31</f>
+        <v>21.12</v>
+      </c>
+      <c r="H39" s="52">
+        <f t="shared" si="23"/>
+        <v>21.12</v>
+      </c>
+      <c r="I39" s="52">
+        <f t="shared" si="23"/>
+        <v>20.16</v>
+      </c>
+      <c r="J39" s="52">
+        <f t="shared" si="23"/>
+        <v>19.2</v>
+      </c>
+      <c r="K39" s="52">
+        <f t="shared" si="23"/>
+        <v>19.2</v>
+      </c>
+      <c r="L39" s="52">
+        <f t="shared" si="23"/>
+        <v>19.2</v>
+      </c>
+      <c r="M39" s="52">
+        <f t="shared" si="23"/>
+        <v>19.007999999999999</v>
+      </c>
+      <c r="N39" s="52">
+        <f t="shared" si="23"/>
+        <v>18.431999999999999</v>
+      </c>
+      <c r="O39" s="52">
+        <f t="shared" si="23"/>
+        <v>17.472000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D40" s="52">
+        <f t="shared" ref="D40:F40" si="24">$B$30*D32</f>
+        <v>17.28</v>
+      </c>
+      <c r="E40" s="52">
+        <f t="shared" si="24"/>
+        <v>17.28</v>
+      </c>
+      <c r="F40" s="52">
+        <f t="shared" si="24"/>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="G40" s="52">
+        <f t="shared" ref="D40:O40" si="25">$B$30*G32</f>
+        <v>15.84</v>
+      </c>
+      <c r="H40" s="52">
+        <f t="shared" si="25"/>
+        <v>15.84</v>
+      </c>
+      <c r="I40" s="52">
+        <f t="shared" si="25"/>
+        <v>15.120000000000001</v>
+      </c>
+      <c r="J40" s="52">
+        <f t="shared" si="25"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K40" s="52">
+        <f t="shared" si="25"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="L40" s="52">
+        <f t="shared" si="25"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="M40" s="52">
+        <f t="shared" si="25"/>
+        <v>14.256</v>
+      </c>
+      <c r="N40" s="52">
+        <f t="shared" si="25"/>
+        <v>13.824000000000002</v>
+      </c>
+      <c r="O40" s="52">
+        <f t="shared" si="25"/>
+        <v>13.103999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D41" s="52">
+        <f t="shared" ref="D41:F41" si="26">$B$30*D33</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="E41" s="52">
+        <f t="shared" si="26"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F41" s="52">
+        <f t="shared" si="26"/>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="G41" s="52">
+        <f t="shared" ref="D41:O41" si="27">$B$30*G33</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="H41" s="52">
+        <f t="shared" si="27"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="I41" s="52">
+        <f t="shared" si="27"/>
+        <v>12.6</v>
+      </c>
+      <c r="J41" s="52">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="K41" s="52">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="L41" s="52">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="M41" s="52">
+        <f t="shared" si="27"/>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="N41" s="52">
+        <f t="shared" si="27"/>
+        <v>11.52</v>
+      </c>
+      <c r="O41" s="52">
+        <f t="shared" si="27"/>
+        <v>10.920000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D42" s="52">
+        <f t="shared" ref="D42:F42" si="28">$B$30*D34</f>
+        <v>12.24</v>
+      </c>
+      <c r="E42" s="52">
+        <f t="shared" si="28"/>
+        <v>12.24</v>
+      </c>
+      <c r="F42" s="52">
+        <f t="shared" si="28"/>
+        <v>11.73</v>
+      </c>
+      <c r="G42" s="52">
+        <f t="shared" ref="D42:O42" si="29">$B$30*G34</f>
+        <v>11.22</v>
+      </c>
+      <c r="H42" s="52">
+        <f t="shared" si="29"/>
+        <v>11.22</v>
+      </c>
+      <c r="I42" s="52">
+        <f t="shared" si="29"/>
+        <v>10.709999999999999</v>
+      </c>
+      <c r="J42" s="52">
+        <f t="shared" si="29"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K42" s="52">
+        <f t="shared" si="29"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L42" s="52">
+        <f t="shared" si="29"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M42" s="52">
+        <f t="shared" si="29"/>
+        <v>10.098000000000001</v>
+      </c>
+      <c r="N42" s="52">
+        <f t="shared" si="29"/>
+        <v>9.7919999999999998</v>
+      </c>
+      <c r="O42" s="52">
+        <f t="shared" si="29"/>
+        <v>9.282</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D43" s="52">
+        <f t="shared" ref="D43:F43" si="30">$B$30*D35</f>
+        <v>9.3600000000000012</v>
+      </c>
+      <c r="E43" s="52">
+        <f t="shared" si="30"/>
+        <v>9.3600000000000012</v>
+      </c>
+      <c r="F43" s="52">
+        <f t="shared" si="30"/>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="G43" s="52">
+        <f t="shared" ref="D43:O43" si="31">$B$30*G35</f>
+        <v>8.58</v>
+      </c>
+      <c r="H43" s="52">
+        <f t="shared" si="31"/>
+        <v>8.58</v>
+      </c>
+      <c r="I43" s="52">
+        <f t="shared" si="31"/>
+        <v>8.19</v>
+      </c>
+      <c r="J43" s="52">
+        <f t="shared" si="31"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="K43" s="52">
+        <f t="shared" si="31"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="L43" s="52">
+        <f t="shared" si="31"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="M43" s="52">
+        <f t="shared" si="31"/>
+        <v>7.7219999999999995</v>
+      </c>
+      <c r="N43" s="52">
+        <f t="shared" si="31"/>
+        <v>7.4880000000000004</v>
+      </c>
+      <c r="O43" s="52">
+        <f t="shared" si="31"/>
+        <v>7.0979999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D44" s="52">
+        <f t="shared" ref="D44:F44" si="32">$B$30*D36</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E44" s="52">
+        <f t="shared" si="32"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="F44" s="52">
+        <f t="shared" si="32"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="G44" s="52">
+        <f t="shared" ref="D44:O44" si="33">$B$30*G36</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="H44" s="52">
+        <f t="shared" si="33"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="I44" s="52">
+        <f t="shared" si="33"/>
+        <v>6.3</v>
+      </c>
+      <c r="J44" s="52">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="K44" s="52">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="L44" s="52">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="M44" s="52">
+        <f t="shared" si="33"/>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="N44" s="52">
+        <f t="shared" si="33"/>
+        <v>5.76</v>
+      </c>
+      <c r="O44" s="52">
+        <f t="shared" si="33"/>
+        <v>5.4600000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <f>D38*$B$31</f>
+        <v>1.28</v>
+      </c>
+      <c r="E47" s="52">
+        <f>E38*$B$31</f>
+        <v>1.28</v>
+      </c>
+      <c r="F47" s="52">
+        <f>F38*$B$31</f>
+        <v>1.2266666666666666</v>
+      </c>
+      <c r="G47" s="52">
+        <f t="shared" ref="G47:O47" si="34">G38*$B$31</f>
+        <v>1.1733333333333336</v>
+      </c>
+      <c r="H47" s="52">
+        <f t="shared" si="34"/>
+        <v>1.1733333333333336</v>
+      </c>
+      <c r="I47" s="52">
+        <f t="shared" si="34"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J47" s="52">
+        <f t="shared" si="34"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="K47" s="52">
+        <f t="shared" si="34"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="L47" s="52">
+        <f t="shared" si="34"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="M47" s="52">
+        <f t="shared" si="34"/>
+        <v>1.056</v>
+      </c>
+      <c r="N47" s="52">
+        <f t="shared" si="34"/>
+        <v>1.024</v>
+      </c>
+      <c r="O47" s="52">
+        <f t="shared" si="34"/>
+        <v>0.9706666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D48" s="52">
+        <f t="shared" ref="D48:E54" si="35">D39*$B$31</f>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E48" s="52">
+        <f t="shared" si="35"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F48" s="52">
+        <f t="shared" ref="F48:H48" si="36">F39*$B$31</f>
+        <v>0.49066666666666675</v>
+      </c>
+      <c r="G48" s="52">
+        <f t="shared" si="36"/>
+        <v>0.46933333333333338</v>
+      </c>
+      <c r="H48" s="52">
+        <f t="shared" si="36"/>
+        <v>0.46933333333333338</v>
+      </c>
+      <c r="I48" s="52">
+        <f t="shared" ref="I48:O48" si="37">I39*$B$31</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="J48" s="52">
+        <f t="shared" si="37"/>
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="K48" s="52">
+        <f t="shared" si="37"/>
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="L48" s="52">
+        <f t="shared" si="37"/>
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="M48" s="52">
+        <f t="shared" si="37"/>
+        <v>0.4224</v>
+      </c>
+      <c r="N48" s="52">
+        <f t="shared" si="37"/>
+        <v>0.40959999999999996</v>
+      </c>
+      <c r="O48" s="52">
+        <f t="shared" si="37"/>
+        <v>0.3882666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D49" s="52">
+        <f t="shared" si="35"/>
+        <v>0.38400000000000006</v>
+      </c>
+      <c r="E49" s="52">
+        <f t="shared" si="35"/>
+        <v>0.38400000000000006</v>
+      </c>
+      <c r="F49" s="52">
+        <f t="shared" ref="F49:H49" si="38">F40*$B$31</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G49" s="52">
+        <f t="shared" si="38"/>
+        <v>0.35200000000000004</v>
+      </c>
+      <c r="H49" s="52">
+        <f t="shared" si="38"/>
+        <v>0.35200000000000004</v>
+      </c>
+      <c r="I49" s="52">
+        <f t="shared" ref="I49:O49" si="39">I40*$B$31</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J49" s="52">
+        <f t="shared" si="39"/>
+        <v>0.32</v>
+      </c>
+      <c r="K49" s="52">
+        <f t="shared" si="39"/>
+        <v>0.32</v>
+      </c>
+      <c r="L49" s="52">
+        <f t="shared" si="39"/>
+        <v>0.32</v>
+      </c>
+      <c r="M49" s="52">
+        <f t="shared" si="39"/>
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="N49" s="52">
+        <f t="shared" si="39"/>
+        <v>0.30720000000000003</v>
+      </c>
+      <c r="O49" s="52">
+        <f t="shared" si="39"/>
+        <v>0.29120000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D50" s="52">
+        <f t="shared" si="35"/>
+        <v>0.32</v>
+      </c>
+      <c r="E50" s="52">
+        <f t="shared" si="35"/>
+        <v>0.32</v>
+      </c>
+      <c r="F50" s="52">
+        <f t="shared" ref="F50:H50" si="40">F41*$B$31</f>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="G50" s="52">
+        <f t="shared" si="40"/>
+        <v>0.29333333333333339</v>
+      </c>
+      <c r="H50" s="52">
+        <f t="shared" si="40"/>
+        <v>0.29333333333333339</v>
+      </c>
+      <c r="I50" s="52">
+        <f t="shared" ref="I50:O50" si="41">I41*$B$31</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J50" s="52">
+        <f t="shared" si="41"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K50" s="52">
+        <f t="shared" si="41"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="L50" s="52">
+        <f t="shared" si="41"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M50" s="52">
+        <f t="shared" si="41"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N50" s="52">
+        <f t="shared" si="41"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="O50" s="52">
+        <f t="shared" si="41"/>
+        <v>0.24266666666666672</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D51" s="52">
+        <f t="shared" si="35"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E51" s="52">
+        <f t="shared" si="35"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F51" s="52">
+        <f t="shared" ref="F51:H51" si="42">F42*$B$31</f>
+        <v>0.26066666666666671</v>
+      </c>
+      <c r="G51" s="52">
+        <f t="shared" si="42"/>
+        <v>0.24933333333333335</v>
+      </c>
+      <c r="H51" s="52">
+        <f t="shared" si="42"/>
+        <v>0.24933333333333335</v>
+      </c>
+      <c r="I51" s="52">
+        <f t="shared" ref="I51:O51" si="43">I42*$B$31</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J51" s="52">
+        <f t="shared" si="43"/>
+        <v>0.22666666666666666</v>
+      </c>
+      <c r="K51" s="52">
+        <f t="shared" si="43"/>
+        <v>0.22666666666666666</v>
+      </c>
+      <c r="L51" s="52">
+        <f t="shared" si="43"/>
+        <v>0.22666666666666666</v>
+      </c>
+      <c r="M51" s="52">
+        <f t="shared" si="43"/>
+        <v>0.22440000000000002</v>
+      </c>
+      <c r="N51" s="52">
+        <f t="shared" si="43"/>
+        <v>0.21760000000000002</v>
+      </c>
+      <c r="O51" s="52">
+        <f t="shared" si="43"/>
+        <v>0.20626666666666668</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D52" s="52">
+        <f t="shared" si="35"/>
+        <v>0.20800000000000005</v>
+      </c>
+      <c r="E52" s="52">
+        <f t="shared" si="35"/>
+        <v>0.20800000000000005</v>
+      </c>
+      <c r="F52" s="52">
+        <f t="shared" ref="F52:H52" si="44">F43*$B$31</f>
+        <v>0.19933333333333336</v>
+      </c>
+      <c r="G52" s="52">
+        <f t="shared" si="44"/>
+        <v>0.19066666666666668</v>
+      </c>
+      <c r="H52" s="52">
+        <f t="shared" si="44"/>
+        <v>0.19066666666666668</v>
+      </c>
+      <c r="I52" s="52">
+        <f t="shared" ref="I52:O52" si="45">I43*$B$31</f>
+        <v>0.182</v>
+      </c>
+      <c r="J52" s="52">
+        <f t="shared" si="45"/>
+        <v>0.17333333333333337</v>
+      </c>
+      <c r="K52" s="52">
+        <f t="shared" si="45"/>
+        <v>0.17333333333333337</v>
+      </c>
+      <c r="L52" s="52">
+        <f t="shared" si="45"/>
+        <v>0.17333333333333337</v>
+      </c>
+      <c r="M52" s="52">
+        <f t="shared" si="45"/>
+        <v>0.1716</v>
+      </c>
+      <c r="N52" s="52">
+        <f t="shared" si="45"/>
+        <v>0.16640000000000002</v>
+      </c>
+      <c r="O52" s="52">
+        <f t="shared" si="45"/>
+        <v>0.15773333333333334</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D53" s="52">
+        <f t="shared" si="35"/>
+        <v>0.16</v>
+      </c>
+      <c r="E53" s="52">
+        <f t="shared" si="35"/>
+        <v>0.16</v>
+      </c>
+      <c r="F53" s="52">
+        <f t="shared" ref="F53:H53" si="46">F44*$B$31</f>
+        <v>0.15333333333333332</v>
+      </c>
+      <c r="G53" s="52">
+        <f t="shared" si="46"/>
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="H53" s="52">
+        <f t="shared" si="46"/>
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="I53" s="52">
+        <f t="shared" ref="I53:O53" si="47">I44*$B$31</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J53" s="52">
+        <f t="shared" si="47"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="K53" s="52">
+        <f t="shared" si="47"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="L53" s="52">
+        <f t="shared" si="47"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="M53" s="52">
+        <f t="shared" si="47"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N53" s="52">
+        <f t="shared" si="47"/>
+        <v>0.128</v>
+      </c>
+      <c r="O53" s="52">
+        <f t="shared" si="47"/>
+        <v>0.12133333333333336</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D54" s="52">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="52">
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3541,10 +4537,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="47">
         <v>3.186E-3</v>
       </c>
@@ -3573,11 +4569,11 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="F3" t="s">
         <v>20</v>
       </c>
@@ -3616,11 +4612,11 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -3654,15 +4650,15 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -3720,11 +4716,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -6839,10 +7835,10 @@
       <c r="C8" s="2">
         <v>3.6074582924435399</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="56"/>
+      <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -7359,11 +8355,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -7403,11 +8399,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -7904,21 +8900,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" style="50" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="63" t="s">
+      <c r="A1" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="2">
@@ -8021,141 +9017,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:35" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="61">
-        <v>0</v>
-      </c>
-      <c r="D2" s="61">
+      <c r="B2" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="53">
+        <v>0</v>
+      </c>
+      <c r="D2" s="53">
         <f>C2+250</f>
         <v>250</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="53">
         <f t="shared" ref="E2:AI2" si="0">D2+250</f>
         <v>500</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="53">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="53">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="53">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="I2" s="61">
+      <c r="I2" s="53">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="J2" s="61">
+      <c r="J2" s="53">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="K2" s="61">
+      <c r="K2" s="53">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="L2" s="61">
+      <c r="L2" s="53">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="M2" s="61">
+      <c r="M2" s="53">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="N2" s="61">
+      <c r="N2" s="53">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
-      <c r="O2" s="61">
+      <c r="O2" s="53">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="P2" s="61">
+      <c r="P2" s="53">
         <f t="shared" si="0"/>
         <v>3250</v>
       </c>
-      <c r="Q2" s="61">
+      <c r="Q2" s="53">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="R2" s="61">
+      <c r="R2" s="53">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="S2" s="61">
+      <c r="S2" s="53">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="T2" s="61">
+      <c r="T2" s="53">
         <f t="shared" si="0"/>
         <v>4250</v>
       </c>
-      <c r="U2" s="61">
+      <c r="U2" s="53">
         <f>T2+250</f>
         <v>4500</v>
       </c>
-      <c r="V2" s="61">
+      <c r="V2" s="53">
         <f t="shared" si="0"/>
         <v>4750</v>
       </c>
-      <c r="W2" s="61">
+      <c r="W2" s="53">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="X2" s="61">
+      <c r="X2" s="53">
         <f t="shared" si="0"/>
         <v>5250</v>
       </c>
-      <c r="Y2" s="61">
+      <c r="Y2" s="53">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="Z2" s="61">
+      <c r="Z2" s="53">
         <f t="shared" si="0"/>
         <v>5750</v>
       </c>
-      <c r="AA2" s="61">
+      <c r="AA2" s="53">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="AB2" s="61">
+      <c r="AB2" s="53">
         <f t="shared" si="0"/>
         <v>6250</v>
       </c>
-      <c r="AC2" s="61">
+      <c r="AC2" s="53">
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="AD2" s="61">
+      <c r="AD2" s="53">
         <f t="shared" si="0"/>
         <v>6750</v>
       </c>
-      <c r="AE2" s="61">
+      <c r="AE2" s="53">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="AF2" s="61">
+      <c r="AF2" s="53">
         <f t="shared" si="0"/>
         <v>7250</v>
       </c>
-      <c r="AG2" s="61">
+      <c r="AG2" s="53">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="AH2" s="61">
+      <c r="AH2" s="53">
         <f t="shared" si="0"/>
         <v>7750</v>
       </c>
-      <c r="AI2" s="61">
+      <c r="AI2" s="53">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
@@ -8164,138 +9160,138 @@
       <c r="A3" s="2">
         <v>0.86</v>
       </c>
-      <c r="B3" s="61">
-        <v>0</v>
-      </c>
-      <c r="C3" s="64">
+      <c r="B3" s="53">
+        <v>0</v>
+      </c>
+      <c r="C3" s="56">
         <f>$A$3*C1</f>
         <v>0.75680000000000003</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="56">
         <f t="shared" ref="D3:AI3" si="1">$A$3*D1</f>
         <v>0.77400000000000002</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="56">
         <f t="shared" si="1"/>
         <v>0.77400000000000002</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="56">
         <f t="shared" si="1"/>
         <v>0.79120000000000001</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="56">
         <f t="shared" si="1"/>
         <v>0.81699999999999995</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="56">
         <f t="shared" si="1"/>
         <v>0.8256</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="56">
         <f t="shared" si="1"/>
         <v>0.8256</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="56">
         <f t="shared" si="1"/>
         <v>0.8256</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="56">
         <f t="shared" si="1"/>
         <v>0.8256</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="56">
         <f t="shared" si="1"/>
         <v>0.81699999999999995</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="56">
         <f t="shared" si="1"/>
         <v>0.81699999999999995</v>
       </c>
-      <c r="P3" s="64">
+      <c r="P3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="Q3" s="64">
+      <c r="Q3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="R3" s="64">
+      <c r="R3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="S3" s="64">
+      <c r="S3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="T3" s="64">
+      <c r="T3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="U3" s="64">
+      <c r="U3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="V3" s="64">
+      <c r="V3" s="56">
         <f t="shared" si="1"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="W3" s="64">
+      <c r="W3" s="56">
         <f t="shared" si="1"/>
         <v>0.79120000000000001</v>
       </c>
-      <c r="X3" s="64">
+      <c r="X3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="64">
+      <c r="Y3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="64">
+      <c r="Z3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="64">
+      <c r="AA3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="64">
+      <c r="AB3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC3" s="64">
+      <c r="AC3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="64">
+      <c r="AD3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE3" s="64">
+      <c r="AE3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF3" s="64">
+      <c r="AF3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG3" s="64">
+      <c r="AG3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH3" s="64">
+      <c r="AH3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI3" s="64">
+      <c r="AI3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8304,139 +9300,139 @@
       <c r="A4" s="2">
         <v>0.86</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="53">
         <f>B3+50</f>
         <v>50</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="56">
         <f>$A$4*C1</f>
         <v>0.75680000000000003</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="56">
         <f t="shared" ref="D4:AI4" si="2">$A$4*D1</f>
         <v>0.77400000000000002</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="56">
         <f t="shared" si="2"/>
         <v>0.77400000000000002</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="56">
         <f t="shared" si="2"/>
         <v>0.79120000000000001</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="56">
         <f t="shared" si="2"/>
         <v>0.81699999999999995</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="56">
         <f t="shared" si="2"/>
         <v>0.8256</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="56">
         <f t="shared" si="2"/>
         <v>0.8256</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="56">
         <f t="shared" si="2"/>
         <v>0.8256</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="56">
         <f t="shared" si="2"/>
         <v>0.8256</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="56">
         <f t="shared" si="2"/>
         <v>0.81699999999999995</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="56">
         <f t="shared" si="2"/>
         <v>0.81699999999999995</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="R4" s="64">
+      <c r="R4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="V4" s="64">
+      <c r="V4" s="56">
         <f t="shared" si="2"/>
         <v>0.8083999999999999</v>
       </c>
-      <c r="W4" s="64">
+      <c r="W4" s="56">
         <f t="shared" si="2"/>
         <v>0.79120000000000001</v>
       </c>
-      <c r="X4" s="64">
+      <c r="X4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="64">
+      <c r="Z4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="64">
+      <c r="AA4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="64">
+      <c r="AB4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="64">
+      <c r="AC4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="64">
+      <c r="AD4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="64">
+      <c r="AE4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="64">
+      <c r="AF4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="64">
+      <c r="AG4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="64">
+      <c r="AH4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="64">
+      <c r="AI4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8445,139 +9441,139 @@
       <c r="A5" s="2">
         <v>0.92</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="53">
         <f t="shared" ref="B5:B13" si="3">B4+50</f>
         <v>100</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="56">
         <f>$A$5*C1</f>
         <v>0.80959999999999999</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="56">
         <f t="shared" ref="D5:AI5" si="4">$A$5*D1</f>
         <v>0.82800000000000007</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="56">
         <f t="shared" si="4"/>
         <v>0.82800000000000007</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="56">
         <f t="shared" si="4"/>
         <v>0.84640000000000004</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="56">
         <f t="shared" si="4"/>
         <v>0.874</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="56">
         <f t="shared" si="4"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="56">
         <f t="shared" si="4"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="56">
         <f t="shared" si="4"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="56">
         <f t="shared" si="4"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="56">
         <f t="shared" si="4"/>
         <v>0.874</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="56">
         <f t="shared" si="4"/>
         <v>0.874</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="Q5" s="64">
+      <c r="Q5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="R5" s="64">
+      <c r="R5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="V5" s="64">
+      <c r="V5" s="56">
         <f t="shared" si="4"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="W5" s="64">
+      <c r="W5" s="56">
         <f t="shared" si="4"/>
         <v>0.84640000000000004</v>
       </c>
-      <c r="X5" s="64">
+      <c r="X5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="64">
+      <c r="Y5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="64">
+      <c r="Z5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="64">
+      <c r="AA5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="64">
+      <c r="AB5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="64">
+      <c r="AC5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="64">
+      <c r="AD5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="64">
+      <c r="AE5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="64">
+      <c r="AF5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="64">
+      <c r="AG5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="64">
+      <c r="AH5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="64">
+      <c r="AI5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8586,139 +9582,139 @@
       <c r="A6" s="2">
         <v>0.92</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="53">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="56">
         <f>$A$6*C1</f>
         <v>0.80959999999999999</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="56">
         <f t="shared" ref="D6:AI6" si="5">$A$6*D1</f>
         <v>0.82800000000000007</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="56">
         <f t="shared" si="5"/>
         <v>0.82800000000000007</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="56">
         <f t="shared" si="5"/>
         <v>0.84640000000000004</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="56">
         <f t="shared" si="5"/>
         <v>0.874</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="56">
         <f t="shared" si="5"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="56">
         <f t="shared" si="5"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="56">
         <f t="shared" si="5"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="56">
         <f t="shared" si="5"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="56">
         <f t="shared" si="5"/>
         <v>0.874</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="56">
         <f t="shared" si="5"/>
         <v>0.874</v>
       </c>
-      <c r="P6" s="64">
+      <c r="P6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="Q6" s="64">
+      <c r="Q6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="R6" s="64">
+      <c r="R6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="S6" s="64">
+      <c r="S6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="T6" s="64">
+      <c r="T6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="U6" s="64">
+      <c r="U6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="V6" s="64">
+      <c r="V6" s="56">
         <f t="shared" si="5"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="W6" s="64">
+      <c r="W6" s="56">
         <f t="shared" si="5"/>
         <v>0.84640000000000004</v>
       </c>
-      <c r="X6" s="64">
+      <c r="X6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="64">
+      <c r="Y6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="64">
+      <c r="Z6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="64">
+      <c r="AA6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="64">
+      <c r="AB6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="64">
+      <c r="AC6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="64">
+      <c r="AD6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="64">
+      <c r="AE6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="64">
+      <c r="AF6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="64">
+      <c r="AG6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="64">
+      <c r="AH6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="64">
+      <c r="AI6" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8727,139 +9723,139 @@
       <c r="A7" s="2">
         <v>0.95</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="53">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="56">
         <f>$A$7*C1</f>
         <v>0.83599999999999997</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="56">
         <f t="shared" ref="D7:AI7" si="6">$A$7*D1</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="56">
         <f t="shared" si="6"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="56">
         <f t="shared" si="6"/>
         <v>0.874</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="56">
         <f t="shared" si="6"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="56">
         <f t="shared" si="6"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="56">
         <f t="shared" si="6"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="56">
         <f t="shared" si="6"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="56">
         <f t="shared" si="6"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="56">
         <f t="shared" si="6"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="56">
         <f t="shared" si="6"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="R7" s="64">
+      <c r="R7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="S7" s="64">
+      <c r="S7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="U7" s="64">
+      <c r="U7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="V7" s="64">
+      <c r="V7" s="56">
         <f t="shared" si="6"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="W7" s="64">
+      <c r="W7" s="56">
         <f t="shared" si="6"/>
         <v>0.874</v>
       </c>
-      <c r="X7" s="64">
+      <c r="X7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="64">
+      <c r="Y7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="64">
+      <c r="Z7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="64">
+      <c r="AA7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="64">
+      <c r="AB7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="64">
+      <c r="AC7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="64">
+      <c r="AD7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="64">
+      <c r="AE7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="64">
+      <c r="AF7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="64">
+      <c r="AG7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="64">
+      <c r="AH7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="64">
+      <c r="AI7" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8868,139 +9864,139 @@
       <c r="A8" s="2">
         <v>0.96</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="53">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="56">
         <f>$A$8*C1</f>
         <v>0.8448</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="56">
         <f t="shared" ref="D8:AI8" si="7">$A$8*D1</f>
         <v>0.86399999999999999</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="56">
         <f t="shared" si="7"/>
         <v>0.86399999999999999</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="56">
         <f t="shared" si="7"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="56">
         <f t="shared" si="7"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="56">
         <f t="shared" si="7"/>
         <v>0.92159999999999997</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="56">
         <f t="shared" si="7"/>
         <v>0.92159999999999997</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="56">
         <f t="shared" si="7"/>
         <v>0.92159999999999997</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="56">
         <f t="shared" si="7"/>
         <v>0.92159999999999997</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="56">
         <f t="shared" si="7"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="O8" s="64">
+      <c r="O8" s="56">
         <f t="shared" si="7"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="Q8" s="64">
+      <c r="Q8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="R8" s="64">
+      <c r="R8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="S8" s="64">
+      <c r="S8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="T8" s="64">
+      <c r="T8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="U8" s="64">
+      <c r="U8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="V8" s="64">
+      <c r="V8" s="56">
         <f t="shared" si="7"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="W8" s="64">
+      <c r="W8" s="56">
         <f t="shared" si="7"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="X8" s="64">
+      <c r="X8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="64">
+      <c r="Y8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="64">
+      <c r="Z8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="64">
+      <c r="AA8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="64">
+      <c r="AB8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="64">
+      <c r="AC8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="64">
+      <c r="AD8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="64">
+      <c r="AE8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="64">
+      <c r="AF8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="64">
+      <c r="AG8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="64">
+      <c r="AH8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="64">
+      <c r="AI8" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9009,139 +10005,139 @@
       <c r="A9" s="2">
         <v>0.95</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="53">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="56">
         <f>$A$9*C1</f>
         <v>0.83599999999999997</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="56">
         <f t="shared" ref="D9:AI9" si="8">$A$9*D1</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="56">
         <f t="shared" si="8"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="56">
         <f t="shared" si="8"/>
         <v>0.874</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="56">
         <f t="shared" si="8"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="56">
         <f t="shared" si="8"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="56">
         <f t="shared" si="8"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="56">
         <f t="shared" si="8"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="M9" s="64">
+      <c r="M9" s="56">
         <f t="shared" si="8"/>
         <v>0.91199999999999992</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="56">
         <f t="shared" si="8"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="O9" s="64">
+      <c r="O9" s="56">
         <f t="shared" si="8"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="P9" s="64">
+      <c r="P9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="Q9" s="64">
+      <c r="Q9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="R9" s="64">
+      <c r="R9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="S9" s="64">
+      <c r="S9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="T9" s="64">
+      <c r="T9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="U9" s="64">
+      <c r="U9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="V9" s="64">
+      <c r="V9" s="56">
         <f t="shared" si="8"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="W9" s="64">
+      <c r="W9" s="56">
         <f t="shared" si="8"/>
         <v>0.874</v>
       </c>
-      <c r="X9" s="64">
+      <c r="X9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="64">
+      <c r="Y9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="64">
+      <c r="Z9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="64">
+      <c r="AA9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="64">
+      <c r="AB9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="64">
+      <c r="AC9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="64">
+      <c r="AD9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="64">
+      <c r="AE9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="64">
+      <c r="AF9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="64">
+      <c r="AG9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH9" s="64">
+      <c r="AH9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="64">
+      <c r="AI9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -9150,139 +10146,139 @@
       <c r="A10" s="2">
         <v>0.94</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="53">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="56">
         <f>$A$10*C1</f>
         <v>0.82719999999999994</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="56">
         <f t="shared" ref="D10:AI10" si="9">$A$10*D1</f>
         <v>0.84599999999999997</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="56">
         <f t="shared" si="9"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="56">
         <f t="shared" si="9"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="56">
         <f t="shared" si="9"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="56">
         <f t="shared" si="9"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="56">
         <f t="shared" si="9"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="56">
         <f t="shared" si="9"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="56">
         <f t="shared" si="9"/>
         <v>0.90239999999999987</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="56">
         <f t="shared" si="9"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="56">
         <f t="shared" si="9"/>
         <v>0.8929999999999999</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="Q10" s="64">
+      <c r="Q10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="R10" s="64">
+      <c r="R10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="S10" s="64">
+      <c r="S10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="T10" s="64">
+      <c r="T10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="U10" s="64">
+      <c r="U10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="V10" s="64">
+      <c r="V10" s="56">
         <f t="shared" si="9"/>
         <v>0.88359999999999994</v>
       </c>
-      <c r="W10" s="64">
+      <c r="W10" s="56">
         <f t="shared" si="9"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="X10" s="64">
+      <c r="X10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="64">
+      <c r="Y10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="64">
+      <c r="Z10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="64">
+      <c r="AA10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="64">
+      <c r="AB10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="64">
+      <c r="AC10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="64">
+      <c r="AD10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="64">
+      <c r="AE10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="64">
+      <c r="AF10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="64">
+      <c r="AG10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="64">
+      <c r="AH10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="64">
+      <c r="AI10" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9291,139 +10287,139 @@
       <c r="A11" s="2">
         <v>0.92</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="53">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="56">
         <f>$A$11*C1</f>
         <v>0.80959999999999999</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="56">
         <f t="shared" ref="D11:AI11" si="10">$A$11*D1</f>
         <v>0.82800000000000007</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="56">
         <f t="shared" si="10"/>
         <v>0.82800000000000007</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="56">
         <f t="shared" si="10"/>
         <v>0.84640000000000004</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="56">
         <f t="shared" si="10"/>
         <v>0.874</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="56">
         <f t="shared" si="10"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="56">
         <f t="shared" si="10"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="56">
         <f t="shared" si="10"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="56">
         <f t="shared" si="10"/>
         <v>0.88319999999999999</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="56">
         <f t="shared" si="10"/>
         <v>0.874</v>
       </c>
-      <c r="O11" s="64">
+      <c r="O11" s="56">
         <f t="shared" si="10"/>
         <v>0.874</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="R11" s="64">
+      <c r="R11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="S11" s="64">
+      <c r="S11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="T11" s="64">
+      <c r="T11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="U11" s="64">
+      <c r="U11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="V11" s="64">
+      <c r="V11" s="56">
         <f t="shared" si="10"/>
         <v>0.86480000000000001</v>
       </c>
-      <c r="W11" s="64">
+      <c r="W11" s="56">
         <f t="shared" si="10"/>
         <v>0.84640000000000004</v>
       </c>
-      <c r="X11" s="64">
+      <c r="X11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="64">
+      <c r="Y11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="64">
+      <c r="Z11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="64">
+      <c r="AA11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="64">
+      <c r="AB11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="64">
+      <c r="AC11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="64">
+      <c r="AD11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="64">
+      <c r="AE11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="64">
+      <c r="AF11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="64">
+      <c r="AG11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="64">
+      <c r="AH11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="64">
+      <c r="AI11" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -9432,139 +10428,139 @@
       <c r="A12" s="2">
         <v>0.9</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="53">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="56">
         <f>$A$12*C1</f>
         <v>0.79200000000000004</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="56">
         <f t="shared" ref="D12:AI12" si="11">$A$12*D1</f>
         <v>0.81</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="56">
         <f t="shared" si="11"/>
         <v>0.81</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="56">
         <f t="shared" si="11"/>
         <v>0.82800000000000007</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="56">
         <f t="shared" si="11"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="56">
         <f t="shared" si="11"/>
         <v>0.86399999999999999</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="56">
         <f t="shared" si="11"/>
         <v>0.86399999999999999</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="56">
         <f t="shared" si="11"/>
         <v>0.86399999999999999</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="56">
         <f t="shared" si="11"/>
         <v>0.86399999999999999</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="56">
         <f t="shared" si="11"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="O12" s="64">
+      <c r="O12" s="56">
         <f t="shared" si="11"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="Q12" s="64">
+      <c r="Q12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="R12" s="64">
+      <c r="R12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="S12" s="64">
+      <c r="S12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="T12" s="64">
+      <c r="T12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="U12" s="64">
+      <c r="U12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="V12" s="64">
+      <c r="V12" s="56">
         <f t="shared" si="11"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="W12" s="64">
+      <c r="W12" s="56">
         <f t="shared" si="11"/>
         <v>0.82800000000000007</v>
       </c>
-      <c r="X12" s="64">
+      <c r="X12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="64">
+      <c r="Y12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="64">
+      <c r="Z12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="64">
+      <c r="AA12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="64">
+      <c r="AB12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="64">
+      <c r="AC12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="64">
+      <c r="AD12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="64">
+      <c r="AE12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="64">
+      <c r="AF12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="64">
+      <c r="AG12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH12" s="64">
+      <c r="AH12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="64">
+      <c r="AI12" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -9573,281 +10569,281 @@
       <c r="A13" s="2">
         <v>0.88</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="53">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="56">
         <f>$A$13*C1</f>
         <v>0.77439999999999998</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="56">
         <f t="shared" ref="D13:AI13" si="12">$A$13*D1</f>
         <v>0.79200000000000004</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="56">
         <f t="shared" si="12"/>
         <v>0.79200000000000004</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="56">
         <f t="shared" si="12"/>
         <v>0.80959999999999999</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="56">
         <f t="shared" si="12"/>
         <v>0.83599999999999997</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="56">
         <f t="shared" si="12"/>
         <v>0.8448</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="56">
         <f t="shared" si="12"/>
         <v>0.8448</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="56">
         <f t="shared" si="12"/>
         <v>0.8448</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="56">
         <f t="shared" si="12"/>
         <v>0.8448</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="56">
         <f t="shared" si="12"/>
         <v>0.83599999999999997</v>
       </c>
-      <c r="O13" s="64">
+      <c r="O13" s="56">
         <f t="shared" si="12"/>
         <v>0.83599999999999997</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="Q13" s="64">
+      <c r="Q13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="R13" s="64">
+      <c r="R13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="S13" s="64">
+      <c r="S13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="T13" s="64">
+      <c r="T13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="U13" s="64">
+      <c r="U13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="V13" s="64">
+      <c r="V13" s="56">
         <f t="shared" si="12"/>
         <v>0.82719999999999994</v>
       </c>
-      <c r="W13" s="64">
+      <c r="W13" s="56">
         <f t="shared" si="12"/>
         <v>0.80959999999999999</v>
       </c>
-      <c r="X13" s="64">
+      <c r="X13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="64">
+      <c r="Y13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="64">
+      <c r="Z13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="64">
+      <c r="AA13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="64">
+      <c r="AB13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="64">
+      <c r="AC13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="64">
+      <c r="AD13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="64">
+      <c r="AE13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="64">
+      <c r="AF13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="64">
+      <c r="AG13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="64">
+      <c r="AH13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="64">
+      <c r="AI13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B15" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="66">
-        <v>0</v>
-      </c>
-      <c r="D15" s="66">
+      <c r="B15" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="58">
+        <v>0</v>
+      </c>
+      <c r="D15" s="58">
         <f>C15+250</f>
         <v>250</v>
       </c>
-      <c r="E15" s="66">
-        <f t="shared" ref="E15:AI15" si="13">D15+250</f>
+      <c r="E15" s="58">
+        <f t="shared" ref="E15:T15" si="13">D15+250</f>
         <v>500</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="58">
         <f t="shared" si="13"/>
         <v>750</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="58">
         <f t="shared" si="13"/>
         <v>1000</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="58">
         <f t="shared" si="13"/>
         <v>1250</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="58">
         <f t="shared" si="13"/>
         <v>1500</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="58">
         <f t="shared" si="13"/>
         <v>1750</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="58">
         <f t="shared" si="13"/>
         <v>2000</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="58">
         <f t="shared" si="13"/>
         <v>2250</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="58">
         <f t="shared" si="13"/>
         <v>2500</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="58">
         <f t="shared" si="13"/>
         <v>2750</v>
       </c>
-      <c r="O15" s="66">
+      <c r="O15" s="58">
         <f t="shared" si="13"/>
         <v>3000</v>
       </c>
-      <c r="P15" s="66">
+      <c r="P15" s="58">
         <f t="shared" si="13"/>
         <v>3250</v>
       </c>
-      <c r="Q15" s="66">
+      <c r="Q15" s="58">
         <f t="shared" si="13"/>
         <v>3500</v>
       </c>
-      <c r="R15" s="66">
+      <c r="R15" s="58">
         <f t="shared" si="13"/>
         <v>3750</v>
       </c>
-      <c r="S15" s="66">
+      <c r="S15" s="58">
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-      <c r="T15" s="66">
+      <c r="T15" s="58">
         <f t="shared" si="13"/>
         <v>4250</v>
       </c>
-      <c r="U15" s="66">
+      <c r="U15" s="58">
         <f>T15+250</f>
         <v>4500</v>
       </c>
-      <c r="V15" s="66">
+      <c r="V15" s="58">
         <f t="shared" ref="V15:AI15" si="14">U15+250</f>
         <v>4750</v>
       </c>
-      <c r="W15" s="66">
+      <c r="W15" s="58">
         <f t="shared" si="14"/>
         <v>5000</v>
       </c>
-      <c r="X15" s="66">
+      <c r="X15" s="58">
         <f t="shared" si="14"/>
         <v>5250</v>
       </c>
-      <c r="Y15" s="66">
+      <c r="Y15" s="58">
         <f t="shared" si="14"/>
         <v>5500</v>
       </c>
-      <c r="Z15" s="66">
+      <c r="Z15" s="58">
         <f t="shared" si="14"/>
         <v>5750</v>
       </c>
-      <c r="AA15" s="66">
+      <c r="AA15" s="58">
         <f t="shared" si="14"/>
         <v>6000</v>
       </c>
-      <c r="AB15" s="66">
+      <c r="AB15" s="58">
         <f t="shared" si="14"/>
         <v>6250</v>
       </c>
-      <c r="AC15" s="66">
+      <c r="AC15" s="58">
         <f t="shared" si="14"/>
         <v>6500</v>
       </c>
-      <c r="AD15" s="66">
+      <c r="AD15" s="58">
         <f t="shared" si="14"/>
         <v>6750</v>
       </c>
-      <c r="AE15" s="66">
+      <c r="AE15" s="58">
         <f t="shared" si="14"/>
         <v>7000</v>
       </c>
-      <c r="AF15" s="66">
+      <c r="AF15" s="58">
         <f t="shared" si="14"/>
         <v>7250</v>
       </c>
-      <c r="AG15" s="66">
+      <c r="AG15" s="58">
         <f t="shared" si="14"/>
         <v>7500</v>
       </c>
-      <c r="AH15" s="66">
+      <c r="AH15" s="58">
         <f t="shared" si="14"/>
         <v>7750</v>
       </c>
-      <c r="AI15" s="66">
+      <c r="AI15" s="58">
         <f t="shared" si="14"/>
         <v>8000</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B16" s="66">
+      <c r="B16" s="58">
         <v>0</v>
       </c>
       <c r="C16" s="20">
@@ -9984,7 +10980,7 @@
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B17" s="66">
+      <c r="B17" s="58">
         <f>B16+50</f>
         <v>50</v>
       </c>
@@ -10122,7 +11118,7 @@
       </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B18" s="66">
+      <c r="B18" s="58">
         <f t="shared" ref="B18:B26" si="17">B17+50</f>
         <v>100</v>
       </c>
@@ -10260,7 +11256,7 @@
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B19" s="66">
+      <c r="B19" s="58">
         <f t="shared" si="17"/>
         <v>150</v>
       </c>
@@ -10398,7 +11394,7 @@
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B20" s="66">
+      <c r="B20" s="58">
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
@@ -10536,7 +11532,7 @@
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B21" s="66">
+      <c r="B21" s="58">
         <f t="shared" si="17"/>
         <v>250</v>
       </c>
@@ -10674,7 +11670,7 @@
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B22" s="66">
+      <c r="B22" s="58">
         <f t="shared" si="17"/>
         <v>300</v>
       </c>
@@ -10812,7 +11808,7 @@
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B23" s="66">
+      <c r="B23" s="58">
         <f t="shared" si="17"/>
         <v>350</v>
       </c>
@@ -10950,7 +11946,7 @@
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B24" s="66">
+      <c r="B24" s="58">
         <f t="shared" si="17"/>
         <v>400</v>
       </c>
@@ -11088,7 +12084,7 @@
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B25" s="66">
+      <c r="B25" s="58">
         <f t="shared" si="17"/>
         <v>450</v>
       </c>
@@ -11226,7 +12222,7 @@
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B26" s="66">
+      <c r="B26" s="58">
         <f t="shared" si="17"/>
         <v>500</v>
       </c>
